--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -539,7 +539,7 @@
     <t>english US</t>
   </si>
   <si>
-    <t>2.04.35</t>
+    <t>3.00.36</t>
   </si>
 </sst>
 </file>
@@ -788,8 +788,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.9197807133095478"/>
-          <c:h val="0.89627228525120139"/>
+          <c:w val="0.91978071330954791"/>
+          <c:h val="0.89627228525120128"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -1456,11 +1456,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120193792"/>
-        <c:axId val="120195328"/>
+        <c:axId val="120382208"/>
+        <c:axId val="120383744"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120193792"/>
+        <c:axId val="120382208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1492,7 +1492,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120195328"/>
+        <c:crossAx val="120383744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1503,7 +1503,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120195328"/>
+        <c:axId val="120383744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120193792"/>
+        <c:crossAx val="120382208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1635,7 +1635,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001044" r="0.75000000000001044" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001055" r="0.75000000000001055" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1689,7 +1689,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127123E-2"/>
+          <c:x val="4.451045024812713E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1861,11 +1861,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120231040"/>
-        <c:axId val="120232576"/>
+        <c:axId val="120222848"/>
+        <c:axId val="120224384"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120231040"/>
+        <c:axId val="120222848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,13 +1873,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120232576"/>
+        <c:crossAx val="120224384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120232576"/>
+        <c:axId val="120224384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1922,7 +1922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120231040"/>
+        <c:crossAx val="120222848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1971,7 +1971,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001044" r="0.75000000000001044" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001055" r="0.75000000000001055" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2323,11 +2323,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120253440"/>
-        <c:axId val="120275712"/>
+        <c:axId val="120245248"/>
+        <c:axId val="120251136"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120253440"/>
+        <c:axId val="120245248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2359,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120275712"/>
+        <c:crossAx val="120251136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2370,7 +2370,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120275712"/>
+        <c:axId val="120251136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,7 +2412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120253440"/>
+        <c:crossAx val="120245248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2461,7 +2461,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001044" r="0.75000000000001044" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001055" r="0.75000000000001055" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -539,7 +539,7 @@
     <t>english US</t>
   </si>
   <si>
-    <t>3.00.36</t>
+    <t>3.00.37</t>
   </si>
 </sst>
 </file>
@@ -788,8 +788,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954791"/>
-          <c:h val="0.89627228525120128"/>
+          <c:w val="0.91978071330954803"/>
+          <c:h val="0.89627228525120117"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -883,7 +883,7 @@
                   <c:v>41630</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42048</c:v>
+                  <c:v>42109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,7 +1047,7 @@
                   <c:v>41630</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42048</c:v>
+                  <c:v>42109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,7 +1211,7 @@
                   <c:v>41630</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42048</c:v>
+                  <c:v>42109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,7 +1375,7 @@
                   <c:v>41630</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42048</c:v>
+                  <c:v>42109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,11 +1456,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120382208"/>
-        <c:axId val="120383744"/>
+        <c:axId val="120386304"/>
+        <c:axId val="120387840"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120382208"/>
+        <c:axId val="120386304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1492,7 +1492,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120383744"/>
+        <c:crossAx val="120387840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1503,7 +1503,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120383744"/>
+        <c:axId val="120387840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120382208"/>
+        <c:crossAx val="120386304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1635,7 +1635,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001055" r="0.75000000000001055" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001066" r="0.75000000000001066" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1689,7 +1689,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.451045024812713E-2"/>
+          <c:x val="4.4510450248127137E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1786,7 +1786,7 @@
                   <c:v>41630</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42048</c:v>
+                  <c:v>42109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1971,7 +1971,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001055" r="0.75000000000001055" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001066" r="0.75000000000001066" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2084,7 +2084,7 @@
                   <c:v>41630</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42048</c:v>
+                  <c:v>42109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2248,7 +2248,7 @@
                   <c:v>41630</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42048</c:v>
+                  <c:v>42109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,11 +2323,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120245248"/>
-        <c:axId val="120251136"/>
+        <c:axId val="120249344"/>
+        <c:axId val="120255232"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120245248"/>
+        <c:axId val="120249344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2359,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120251136"/>
+        <c:crossAx val="120255232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2370,7 +2370,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120251136"/>
+        <c:axId val="120255232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,7 +2412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120245248"/>
+        <c:crossAx val="120249344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2461,7 +2461,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001055" r="0.75000000000001055" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001066" r="0.75000000000001066" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="12">
-        <v>42048</v>
+        <v>42109</v>
       </c>
       <c r="B67" s="4">
         <v>166</v>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -539,7 +539,7 @@
     <t>english US</t>
   </si>
   <si>
-    <t>3.00.37</t>
+    <t>3.00.38</t>
   </si>
 </sst>
 </file>
@@ -788,8 +788,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954803"/>
-          <c:h val="0.89627228525120117"/>
+          <c:w val="0.91978071330954814"/>
+          <c:h val="0.89627228525120106"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -883,7 +883,7 @@
                   <c:v>41630</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42109</c:v>
+                  <c:v>42137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,7 +1047,7 @@
                   <c:v>41630</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42109</c:v>
+                  <c:v>42137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,7 +1211,7 @@
                   <c:v>41630</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42109</c:v>
+                  <c:v>42137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,7 +1375,7 @@
                   <c:v>41630</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42109</c:v>
+                  <c:v>42137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,11 +1456,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120386304"/>
-        <c:axId val="120387840"/>
+        <c:axId val="119862400"/>
+        <c:axId val="119863936"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120386304"/>
+        <c:axId val="119862400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1492,7 +1492,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120387840"/>
+        <c:crossAx val="119863936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1503,7 +1503,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120387840"/>
+        <c:axId val="119863936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120386304"/>
+        <c:crossAx val="119862400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1635,7 +1635,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001066" r="0.75000000000001066" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001077" r="0.75000000000001077" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1689,7 +1689,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127137E-2"/>
+          <c:x val="4.4510450248127151E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1786,7 +1786,7 @@
                   <c:v>41630</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42109</c:v>
+                  <c:v>42137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,11 +1861,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120222848"/>
-        <c:axId val="120224384"/>
+        <c:axId val="119698944"/>
+        <c:axId val="119700480"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120222848"/>
+        <c:axId val="119698944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,13 +1873,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120224384"/>
+        <c:crossAx val="119700480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120224384"/>
+        <c:axId val="119700480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1922,7 +1922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120222848"/>
+        <c:crossAx val="119698944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1971,7 +1971,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001066" r="0.75000000000001066" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001077" r="0.75000000000001077" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2084,7 +2084,7 @@
                   <c:v>41630</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42109</c:v>
+                  <c:v>42137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2248,7 +2248,7 @@
                   <c:v>41630</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42109</c:v>
+                  <c:v>42137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,11 +2323,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120249344"/>
-        <c:axId val="120255232"/>
+        <c:axId val="119725440"/>
+        <c:axId val="119731328"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120249344"/>
+        <c:axId val="119725440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2359,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120255232"/>
+        <c:crossAx val="119731328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2370,7 +2370,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120255232"/>
+        <c:axId val="119731328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,7 +2412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120249344"/>
+        <c:crossAx val="119725440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2461,7 +2461,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001066" r="0.75000000000001066" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001077" r="0.75000000000001077" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="12">
-        <v>42109</v>
+        <v>42137</v>
       </c>
       <c r="B67" s="4">
         <v>166</v>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="180">
   <si>
     <t>Feature</t>
   </si>
@@ -137,9 +137,6 @@
     <t>loads last file</t>
   </si>
   <si>
-    <t>New Data File</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
@@ -170,12 +167,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>detail panel</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
     <t>locks after timeout</t>
   </si>
   <si>
-    <t>AES 256 cipher</t>
-  </si>
-  <si>
     <t>Security</t>
   </si>
   <si>
@@ -215,9 +203,6 @@
     <t>Copy Password</t>
   </si>
   <si>
-    <t>Delete</t>
-  </si>
-  <si>
     <t>Browse button</t>
   </si>
   <si>
@@ -329,24 +314,9 @@
     <t>Change password button</t>
   </si>
   <si>
-    <t>lookup table</t>
-  </si>
-  <si>
     <t>Save button</t>
   </si>
   <si>
-    <t>Close button</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>keys</t>
-  </si>
-  <si>
     <t>Change Database Password</t>
   </si>
   <si>
@@ -359,12 +329,6 @@
     <t>Exit button</t>
   </si>
   <si>
-    <t>lock timeout in seconds</t>
-  </si>
-  <si>
-    <t>accept mode</t>
-  </si>
-  <si>
     <t>Accept button</t>
   </si>
   <si>
@@ -377,30 +341,15 @@
     <t>if no file selected</t>
   </si>
   <si>
-    <t>Welcome Screen</t>
-  </si>
-  <si>
     <t>changes prompts immediately</t>
   </si>
   <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>Review button</t>
-  </si>
-  <si>
     <t>Create new database button</t>
   </si>
   <si>
     <t>Open button</t>
   </si>
   <si>
-    <t>opens license dialog in accept mode</t>
-  </si>
-  <si>
-    <t>disabled if no license accepted</t>
-  </si>
-  <si>
     <t>Create Password Database Dialog</t>
   </si>
   <si>
@@ -416,9 +365,6 @@
     <t>also if saving on lock</t>
   </si>
   <si>
-    <t>highlights sections</t>
-  </si>
-  <si>
     <t>Onscreen Keyboard</t>
   </si>
   <si>
@@ -455,18 +401,9 @@
     <t>disables buttons except Exit</t>
   </si>
   <si>
-    <t>Create File button</t>
-  </si>
-  <si>
     <t>OK button</t>
   </si>
   <si>
-    <t>changes file to newly created</t>
-  </si>
-  <si>
-    <t>focus on password</t>
-  </si>
-  <si>
     <t>finnish</t>
   </si>
   <si>
@@ -491,9 +428,6 @@
     <t>1.00.19</t>
   </si>
   <si>
-    <t>check for update</t>
-  </si>
-  <si>
     <t>Component Licenses</t>
   </si>
   <si>
@@ -540,6 +474,90 @@
   </si>
   <si>
     <t>3.00.38</t>
+  </si>
+  <si>
+    <t>3.01.40</t>
+  </si>
+  <si>
+    <t>Welcome Wizard</t>
+  </si>
+  <si>
+    <t>Welcome page</t>
+  </si>
+  <si>
+    <t>thank you note</t>
+  </si>
+  <si>
+    <t>License page</t>
+  </si>
+  <si>
+    <t>military clause</t>
+  </si>
+  <si>
+    <t>Database page</t>
+  </si>
+  <si>
+    <t>check for updates</t>
+  </si>
+  <si>
+    <t>AES 256 cipher in EAX mode</t>
+  </si>
+  <si>
+    <t>Create New button</t>
+  </si>
+  <si>
+    <t>New Database</t>
+  </si>
+  <si>
+    <t>recent files pulldown</t>
+  </si>
+  <si>
+    <t>open incognito</t>
+  </si>
+  <si>
+    <t>Delete Entry</t>
+  </si>
+  <si>
+    <t>Contact Customer Support</t>
+  </si>
+  <si>
+    <t>Open Source Licenses</t>
+  </si>
+  <si>
+    <t>popup menu</t>
+  </si>
+  <si>
+    <t>standard popup menu</t>
+  </si>
+  <si>
+    <t>copy user name</t>
+  </si>
+  <si>
+    <t>cut copy paste</t>
+  </si>
+  <si>
+    <t>fixed width *******</t>
+  </si>
+  <si>
+    <t>standard popup menu on clear text only</t>
+  </si>
+  <si>
+    <t>save preference</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>lock timeout in minutes</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>Copy to Clipboard button</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -788,8 +806,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954814"/>
-          <c:h val="0.89627228525120106"/>
+          <c:w val="0.91978071330954858"/>
+          <c:h val="0.89627228525120051"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -821,10 +839,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$67</c:f>
+              <c:f>Progress!$A$48:$A$68</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -884,16 +902,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$67</c:f>
+              <c:f>Progress!$B$48:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -953,6 +974,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,10 +1009,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$67</c:f>
+              <c:f>Progress!$A$48:$A$68</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1048,16 +1072,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$67</c:f>
+              <c:f>Progress!$C$48:$C$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1117,6 +1144,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1149,10 +1179,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$67</c:f>
+              <c:f>Progress!$A$48:$A$68</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1212,16 +1242,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$67</c:f>
+              <c:f>Progress!$D$48:$D$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1280,6 +1313,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1313,10 +1349,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$67</c:f>
+              <c:f>Progress!$A$48:$A$68</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1376,16 +1412,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$71</c:f>
+              <c:f>Progress!$E$48:$E$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1446,26 +1485,30 @@
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="119862400"/>
-        <c:axId val="119863936"/>
+        <c:axId val="119860608"/>
+        <c:axId val="119678080"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="119862400"/>
+        <c:axId val="119860608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mmm\-yy" sourceLinked="0"/>
+        <c:numFmt formatCode="m/yyyy" sourceLinked="0"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -1492,18 +1535,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119863936"/>
+        <c:crossAx val="119678080"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
         <c:majorUnit val="1"/>
-        <c:majorTimeUnit val="months"/>
+        <c:majorTimeUnit val="years"/>
         <c:minorUnit val="1"/>
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="119863936"/>
+        <c:axId val="119678080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1587,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119862400"/>
+        <c:crossAx val="119860608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1635,7 +1677,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001077" r="0.75000000000001077" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000111" r="0.7500000000000111" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1689,7 +1731,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127151E-2"/>
+          <c:x val="4.4510450248127199E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1724,10 +1766,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$67</c:f>
+              <c:f>Progress!$A$48:$A$68</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1787,16 +1829,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$67</c:f>
+              <c:f>Progress!$G$48:$G$68</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1856,16 +1901,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.98809523809523814</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97802197802197799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="119698944"/>
-        <c:axId val="119700480"/>
+        <c:axId val="119691520"/>
+        <c:axId val="119701504"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="119698944"/>
+        <c:axId val="119691520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,13 +1921,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="119700480"/>
+        <c:crossAx val="119701504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="119700480"/>
+        <c:axId val="119701504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1922,7 +1970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119698944"/>
+        <c:crossAx val="119691520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1971,7 +2019,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001077" r="0.75000000000001077" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000111" r="0.7500000000000111" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2022,10 +2070,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$67</c:f>
+              <c:f>Progress!$A$48:$A$68</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -2085,16 +2133,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$67</c:f>
+              <c:f>Progress!$C$48:$C$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2154,6 +2205,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2186,10 +2240,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$67</c:f>
+              <c:f>Progress!$A$48:$A$68</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -2249,16 +2303,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$67</c:f>
+              <c:f>Progress!$D$48:$D$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2317,22 +2374,26 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="119725440"/>
-        <c:axId val="119731328"/>
+        <c:axId val="119723136"/>
+        <c:axId val="119724672"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="119725440"/>
+        <c:axId val="119723136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yy/m" sourceLinked="0"/>
+        <c:numFmt formatCode="m/yyyy" sourceLinked="0"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -2359,18 +2420,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119731328"/>
+        <c:crossAx val="119724672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="2"/>
-        <c:majorTimeUnit val="months"/>
-        <c:minorUnit val="78"/>
-        <c:minorTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="years"/>
+        <c:minorUnit val="1"/>
+        <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="119731328"/>
+        <c:axId val="119724672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,7 +2473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119725440"/>
+        <c:crossAx val="119723136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2461,7 +2522,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001077" r="0.75000000000001077" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000111" r="0.7500000000000111" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2919,10 +2980,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D232"/>
+  <dimension ref="A1:D237"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2958,14 +3019,14 @@
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1">
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="B6" s="7" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>2</v>
@@ -2974,7 +3035,7 @@
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="B7" s="7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>2</v>
@@ -2983,7 +3044,7 @@
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="B8" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -2992,7 +3053,7 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -3001,7 +3062,7 @@
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="B10" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>2</v>
@@ -3010,7 +3071,7 @@
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="B11" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>2</v>
@@ -3019,7 +3080,7 @@
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="B12" s="7" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>14</v>
@@ -3033,7 +3094,7 @@
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="B14" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>2</v>
@@ -3042,7 +3103,7 @@
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="B15" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>2</v>
@@ -3051,7 +3112,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>2</v>
@@ -3059,30 +3120,34 @@
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" s="6" customFormat="1">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
-      <c r="B18" s="20"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:4" s="6" customFormat="1">
-      <c r="B20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="7"/>
+      <c r="B20" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
-      <c r="B21" s="23" t="s">
-        <v>116</v>
+      <c r="B21" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>2</v>
@@ -3091,7 +3156,7 @@
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
       <c r="B22" s="21" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>2</v>
@@ -3099,8 +3164,8 @@
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
-      <c r="B23" s="21" t="s">
-        <v>118</v>
+      <c r="B23" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>2</v>
@@ -3113,39 +3178,47 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
-      <c r="B25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
-      <c r="B26" s="23"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
-      <c r="B27" s="23"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="23"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
-      <c r="B29" s="3" t="s">
-        <v>119</v>
+      <c r="B29" s="21" t="s">
+        <v>155</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
-      <c r="B30" s="23" t="s">
-        <v>35</v>
+      <c r="B30" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>2</v>
@@ -3153,8 +3226,8 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
-      <c r="B31" s="23" t="s">
-        <v>157</v>
+      <c r="B31" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -3162,8 +3235,8 @@
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
-      <c r="B32" s="23" t="s">
-        <v>91</v>
+      <c r="B32" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>2</v>
@@ -3171,8 +3244,8 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
-      <c r="B33" s="21" t="s">
-        <v>120</v>
+      <c r="B33" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -3181,7 +3254,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="21" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -3189,8 +3262,8 @@
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
-      <c r="B35" s="23" t="s">
-        <v>121</v>
+      <c r="B35" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -3199,7 +3272,7 @@
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
       <c r="B36" s="23" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -3208,7 +3281,7 @@
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
       <c r="B37" s="21" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>2</v>
@@ -3216,8 +3289,8 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="23" t="s">
-        <v>123</v>
+      <c r="B38" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
@@ -3225,8 +3298,8 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="21" t="s">
-        <v>126</v>
+      <c r="B39" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -3234,26 +3307,18 @@
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
-      <c r="B40" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="23" t="s">
-        <v>124</v>
+      <c r="B42" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>2</v>
@@ -3261,23 +3326,35 @@
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
-      <c r="B43" s="23"/>
-      <c r="C43" s="7"/>
+      <c r="B43" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="23"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="23"/>
-      <c r="C45" s="7"/>
+      <c r="B45" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="3" t="s">
-        <v>36</v>
+      <c r="B46" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>2</v>
@@ -3286,7 +3363,7 @@
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="23" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>2</v>
@@ -3294,8 +3371,8 @@
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
-      <c r="B48" s="23" t="s">
-        <v>68</v>
+      <c r="B48" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>2</v>
@@ -3304,7 +3381,7 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>2</v>
@@ -3312,8 +3389,8 @@
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
-      <c r="B50" s="21" t="s">
-        <v>84</v>
+      <c r="B50" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>2</v>
@@ -3321,8 +3398,8 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="21" t="s">
-        <v>85</v>
+      <c r="B51" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>2</v>
@@ -3330,17 +3407,13 @@
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="23"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="2:4" s="6" customFormat="1">
+      <c r="B53" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>2</v>
@@ -3349,7 +3422,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="23" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>2</v>
@@ -3358,7 +3431,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="21" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -3366,17 +3439,13 @@
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="21" t="s">
-        <v>143</v>
+      <c r="B57" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>2</v>
@@ -3385,7 +3454,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="23" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>2</v>
@@ -3394,7 +3463,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="23" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2</v>
@@ -3402,55 +3471,63 @@
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="20"/>
-      <c r="C60" s="4"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="9" t="s">
+      <c r="B62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" s="9" t="s">
+      <c r="B63" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="20"/>
-      <c r="C64" s="4"/>
+      <c r="B64" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="20"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="B66" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="3" t="s">
-        <v>24</v>
+      <c r="B67" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>2</v>
@@ -3458,8 +3535,8 @@
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="23" t="s">
-        <v>30</v>
+      <c r="B68" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>2</v>
@@ -3468,160 +3545,148 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="2:4" s="6" customFormat="1">
+      <c r="B70" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="2:4" s="6" customFormat="1">
+      <c r="B71" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="2:4" s="6" customFormat="1">
+      <c r="B72" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="2:4" s="6" customFormat="1">
+      <c r="B73" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="2:4" s="6" customFormat="1">
+      <c r="B74" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="2:4" s="6" customFormat="1">
+      <c r="B75" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="2:4" s="6" customFormat="1">
+      <c r="B76" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="2:4" s="6" customFormat="1">
+      <c r="B77" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="2:4" s="6" customFormat="1">
+      <c r="B78" s="20"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="2:4" s="6" customFormat="1">
+      <c r="B79" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="2:4" s="6" customFormat="1">
+      <c r="B80" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="2:4" s="6" customFormat="1">
+      <c r="B81" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="2:4" s="6" customFormat="1">
+      <c r="B82" s="20"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="2:4" s="6" customFormat="1">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="2:4" s="6" customFormat="1">
+      <c r="B84" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="2:4" s="6" customFormat="1">
+      <c r="B85" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="2:4" s="6" customFormat="1">
+      <c r="B86" s="21" t="s">
         <v>15</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="24" t="s">
-        <v>82</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>2</v>
@@ -3630,7 +3695,7 @@
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="24" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>2</v>
@@ -3639,7 +3704,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="24" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>2</v>
@@ -3648,7 +3713,7 @@
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
       <c r="B89" s="24" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>2</v>
@@ -3657,7 +3722,7 @@
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>2</v>
@@ -3665,13 +3730,17 @@
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
-      <c r="B91" s="23"/>
-      <c r="C91" s="7"/>
+      <c r="B91" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="23" t="s">
-        <v>31</v>
+      <c r="B92" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>2</v>
@@ -3679,8 +3748,8 @@
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="21" t="s">
-        <v>25</v>
+      <c r="B93" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>2</v>
@@ -3688,8 +3757,8 @@
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="21" t="s">
-        <v>48</v>
+      <c r="B94" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>2</v>
@@ -3698,7 +3767,7 @@
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
       <c r="B95" s="21" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>2</v>
@@ -3706,8 +3775,8 @@
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="21" t="s">
-        <v>92</v>
+      <c r="B96" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>2</v>
@@ -3715,8 +3784,8 @@
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
-      <c r="B97" s="21" t="s">
-        <v>93</v>
+      <c r="B97" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>2</v>
@@ -3724,8 +3793,8 @@
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="21" t="s">
-        <v>112</v>
+      <c r="B98" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>2</v>
@@ -3733,13 +3802,17 @@
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
-      <c r="B99" s="23"/>
-      <c r="C99" s="7"/>
+      <c r="B99" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
-      <c r="B100" s="23" t="s">
-        <v>27</v>
+      <c r="B100" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>2</v>
@@ -3747,8 +3820,8 @@
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="21" t="s">
-        <v>49</v>
+      <c r="B101" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>2</v>
@@ -3757,7 +3830,7 @@
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
       <c r="B102" s="21" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>2</v>
@@ -3765,8 +3838,8 @@
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="21" t="s">
-        <v>51</v>
+      <c r="B103" s="24" t="s">
+        <v>166</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>2</v>
@@ -3774,13 +3847,17 @@
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
-      <c r="B104" s="23"/>
-      <c r="C104" s="7"/>
+      <c r="B104" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
-      <c r="B105" s="23" t="s">
-        <v>52</v>
+      <c r="B105" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>2</v>
@@ -3788,8 +3865,8 @@
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="21" t="s">
-        <v>54</v>
+      <c r="B106" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>2</v>
@@ -3797,8 +3874,8 @@
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="21" t="s">
-        <v>53</v>
+      <c r="B107" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>2</v>
@@ -3806,8 +3883,8 @@
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="21" t="s">
-        <v>55</v>
+      <c r="B108" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>2</v>
@@ -3816,7 +3893,7 @@
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="24" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>2</v>
@@ -3824,17 +3901,13 @@
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B110" s="23"/>
+      <c r="C110" s="7"/>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
       <c r="B111" s="23" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>2</v>
@@ -3842,8 +3915,8 @@
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="23" t="s">
-        <v>58</v>
+      <c r="B112" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>2</v>
@@ -3851,8 +3924,8 @@
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="23" t="s">
-        <v>102</v>
+      <c r="B113" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>2</v>
@@ -3860,13 +3933,17 @@
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="23"/>
-      <c r="C114" s="7"/>
+      <c r="B114" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="23" t="s">
-        <v>60</v>
+      <c r="B115" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>2</v>
@@ -3875,7 +3952,7 @@
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
       <c r="B116" s="21" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>2</v>
@@ -3883,22 +3960,22 @@
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="23"/>
-      <c r="C117" s="7"/>
+      <c r="B117" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B118" s="23"/>
+      <c r="C118" s="7"/>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="23" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>2</v>
@@ -3906,8 +3983,12 @@
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="23"/>
-      <c r="C120" s="7"/>
+      <c r="B120" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
@@ -3916,13 +3997,17 @@
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="23"/>
-      <c r="C122" s="7"/>
+      <c r="B122" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="3" t="s">
-        <v>127</v>
+      <c r="B123" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>2</v>
@@ -3930,8 +4015,8 @@
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="23" t="s">
-        <v>69</v>
+      <c r="B124" s="24" t="s">
+        <v>169</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>2</v>
@@ -3939,8 +4024,8 @@
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="23" t="s">
-        <v>110</v>
+      <c r="B125" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>2</v>
@@ -3948,8 +4033,8 @@
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="23" t="s">
-        <v>66</v>
+      <c r="B126" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>2</v>
@@ -3957,8 +4042,8 @@
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="21" t="s">
-        <v>111</v>
+      <c r="B127" s="25" t="s">
+        <v>170</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>2</v>
@@ -3966,8 +4051,8 @@
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="23" t="s">
-        <v>67</v>
+      <c r="B128" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>2</v>
@@ -3976,7 +4061,7 @@
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
       <c r="B129" s="21" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>2</v>
@@ -3984,8 +4069,8 @@
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="23" t="s">
-        <v>70</v>
+      <c r="B130" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>2</v>
@@ -3993,8 +4078,8 @@
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="23" t="s">
-        <v>100</v>
+      <c r="B131" s="24" t="s">
+        <v>172</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>2</v>
@@ -4002,8 +4087,8 @@
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="23" t="s">
-        <v>94</v>
+      <c r="B132" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>2</v>
@@ -4011,13 +4096,17 @@
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="23"/>
-      <c r="C133" s="7"/>
+      <c r="B133" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="23" t="s">
-        <v>72</v>
+      <c r="B134" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>2</v>
@@ -4025,8 +4114,8 @@
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="23" t="s">
-        <v>71</v>
+      <c r="B135" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>2</v>
@@ -4034,8 +4123,8 @@
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="21" t="s">
-        <v>73</v>
+      <c r="B136" s="24" t="s">
+        <v>169</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>2</v>
@@ -4043,13 +4132,17 @@
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="23"/>
-      <c r="C137" s="7"/>
+      <c r="B137" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
       <c r="B138" s="23" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>2</v>
@@ -4058,7 +4151,7 @@
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
       <c r="B139" s="23" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>2</v>
@@ -4066,22 +4159,26 @@
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B140" s="23"/>
+      <c r="C140" s="7"/>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="23"/>
-      <c r="C141" s="7"/>
+      <c r="B141" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="23"/>
-      <c r="C142" s="7"/>
+      <c r="B142" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
@@ -4090,8 +4187,8 @@
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="3" t="s">
-        <v>95</v>
+      <c r="B144" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>2</v>
@@ -4100,34 +4197,16 @@
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
       <c r="B145" s="23" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D147" s="4"/>
-    </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="23" t="s">
-        <v>96</v>
+      <c r="B148" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>2</v>
@@ -4136,7 +4215,7 @@
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
       <c r="B149" s="23" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>2</v>
@@ -4144,8 +4223,8 @@
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="21" t="s">
-        <v>98</v>
+      <c r="B150" s="24" t="s">
+        <v>169</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>2</v>
@@ -4154,7 +4233,7 @@
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
       <c r="B151" s="23" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>2</v>
@@ -4162,8 +4241,8 @@
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="23" t="s">
-        <v>94</v>
+      <c r="B152" s="24" t="s">
+        <v>169</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>2</v>
@@ -4172,7 +4251,7 @@
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>2</v>
@@ -4180,23 +4259,35 @@
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="23"/>
-      <c r="C154" s="7"/>
+      <c r="B154" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
-      <c r="B155" s="23"/>
-      <c r="C155" s="7"/>
+      <c r="B155" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="23"/>
-      <c r="C156" s="7"/>
+      <c r="B156" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="3" t="s">
-        <v>101</v>
+      <c r="B157" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>2</v>
@@ -4204,8 +4295,8 @@
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="23" t="s">
-        <v>55</v>
+      <c r="B158" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>2</v>
@@ -4214,7 +4305,7 @@
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
       <c r="B159" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>2</v>
@@ -4223,7 +4314,7 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="23" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>2</v>
@@ -4231,8 +4322,8 @@
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="21" t="s">
-        <v>98</v>
+      <c r="B161" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>2</v>
@@ -4240,8 +4331,8 @@
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="23" t="s">
-        <v>100</v>
+      <c r="B162" s="24" t="s">
+        <v>169</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>2</v>
@@ -4249,12 +4340,8 @@
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B163" s="23"/>
+      <c r="C163" s="7"/>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
@@ -4263,13 +4350,17 @@
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="23"/>
-      <c r="C165" s="7"/>
+      <c r="B165" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
-      <c r="B166" s="3" t="s">
-        <v>165</v>
+      <c r="B166" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>2</v>
@@ -4278,7 +4369,7 @@
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
       <c r="B167" s="23" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>2</v>
@@ -4286,8 +4377,8 @@
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="23" t="s">
-        <v>55</v>
+      <c r="B168" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>2</v>
@@ -4296,7 +4387,7 @@
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
       <c r="B169" s="23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>2</v>
@@ -4304,8 +4395,8 @@
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="23" t="s">
-        <v>97</v>
+      <c r="B170" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>2</v>
@@ -4313,8 +4404,8 @@
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="21" t="s">
-        <v>98</v>
+      <c r="B171" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>2</v>
@@ -4323,7 +4414,7 @@
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
       <c r="B172" s="23" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>2</v>
@@ -4331,12 +4422,8 @@
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B173" s="23"/>
+      <c r="C173" s="7"/>
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
@@ -4345,13 +4432,17 @@
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="23"/>
-      <c r="C175" s="7"/>
+      <c r="B175" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="3" t="s">
-        <v>26</v>
+      <c r="B176" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>2</v>
@@ -4360,7 +4451,7 @@
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
       <c r="B177" s="23" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>2</v>
@@ -4368,8 +4459,8 @@
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="21" t="s">
-        <v>113</v>
+      <c r="B178" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>2</v>
@@ -4377,8 +4468,8 @@
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="23" t="s">
-        <v>107</v>
+      <c r="B179" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>2</v>
@@ -4386,8 +4477,8 @@
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="21" t="s">
-        <v>90</v>
+      <c r="B180" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>2</v>
@@ -4395,8 +4486,8 @@
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="24" t="s">
-        <v>172</v>
+      <c r="B181" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>2</v>
@@ -4404,8 +4495,8 @@
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="24" t="s">
-        <v>140</v>
+      <c r="B182" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>2</v>
@@ -4413,8 +4504,8 @@
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="24" t="s">
-        <v>168</v>
+      <c r="B183" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>2</v>
@@ -4422,81 +4513,81 @@
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="21" t="s">
+      <c r="B184" s="23"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="2:4" s="6" customFormat="1">
+      <c r="B185" s="23"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="2:4" s="6" customFormat="1">
+      <c r="B186" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="2:4" s="6" customFormat="1">
+      <c r="B187" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="2:4" s="6" customFormat="1">
+      <c r="B188" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="2:4" s="6" customFormat="1">
+      <c r="B189" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="2:4" s="6" customFormat="1">
+      <c r="B190" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="2:4" s="6" customFormat="1">
+      <c r="B191" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="2:4" s="6" customFormat="1">
+      <c r="B192" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C184" s="7" t="s">
+      <c r="C192" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="D184" s="4"/>
-    </row>
-    <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D185" s="4"/>
-    </row>
-    <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="23"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="4"/>
-    </row>
-    <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="23"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="4"/>
-    </row>
-    <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D188" s="4"/>
-    </row>
-    <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D190" s="4"/>
-    </row>
-    <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D191" s="4"/>
-    </row>
-    <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>2</v>
       </c>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
       <c r="B193" s="23" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>2</v>
@@ -4505,7 +4596,7 @@
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
       <c r="B194" s="21" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>2</v>
@@ -4513,8 +4604,8 @@
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="21" t="s">
-        <v>140</v>
+      <c r="B195" s="23" t="s">
+        <v>177</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>2</v>
@@ -4522,50 +4613,54 @@
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B196" s="23"/>
+      <c r="C196" s="7"/>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B197" s="23"/>
+      <c r="C197" s="7"/>
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C198" s="7"/>
+      <c r="B198" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C199" s="7"/>
+      <c r="B199" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="21"/>
-      <c r="C200" s="7"/>
+      <c r="B200" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="21"/>
-      <c r="C201" s="7"/>
+      <c r="B201" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="3" t="s">
-        <v>161</v>
+      <c r="B202" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>2</v>
@@ -4574,7 +4669,7 @@
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
       <c r="B203" s="23" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>2</v>
@@ -4582,8 +4677,8 @@
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="23" t="s">
-        <v>163</v>
+      <c r="B204" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>2</v>
@@ -4591,8 +4686,8 @@
       <c r="D204" s="4"/>
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
-      <c r="B205" s="23" t="s">
-        <v>164</v>
+      <c r="B205" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>2</v>
@@ -4600,54 +4695,50 @@
       <c r="D205" s="4"/>
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="23"/>
-      <c r="C206" s="7"/>
+      <c r="B206" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D206" s="4"/>
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="23"/>
-      <c r="C207" s="7"/>
+      <c r="B207" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B208" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C208" s="7"/>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
-      <c r="B209" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B209" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C209" s="7"/>
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B210" s="21"/>
+      <c r="C210" s="7"/>
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
-      <c r="B211" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B211" s="21"/>
+      <c r="C211" s="7"/>
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="23" t="s">
-        <v>105</v>
+      <c r="B212" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>2</v>
@@ -4656,7 +4747,7 @@
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
       <c r="B213" s="23" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>2</v>
@@ -4664,8 +4755,8 @@
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
-      <c r="B214" s="21" t="s">
-        <v>115</v>
+      <c r="B214" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>2</v>
@@ -4673,8 +4764,8 @@
       <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
-      <c r="B215" s="21" t="s">
-        <v>112</v>
+      <c r="B215" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>2</v>
@@ -4682,23 +4773,27 @@
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="27"/>
-      <c r="C216" s="4"/>
+      <c r="B216" s="23"/>
+      <c r="C216" s="7"/>
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
-      <c r="B217" s="44"/>
-      <c r="C217" s="4"/>
+      <c r="B217" s="23"/>
+      <c r="C217" s="7"/>
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="22"/>
-      <c r="C218" s="4"/>
+      <c r="B218" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="3" t="s">
-        <v>23</v>
+      <c r="B219" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>2</v>
@@ -4707,7 +4802,7 @@
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
       <c r="B220" s="23" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>2</v>
@@ -4716,7 +4811,7 @@
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
       <c r="B221" s="23" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>2</v>
@@ -4724,95 +4819,132 @@
       <c r="D221" s="4"/>
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
-      <c r="B222" s="23"/>
+      <c r="B222" s="44"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
-      <c r="B223" s="20"/>
+      <c r="B223" s="22"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
-      <c r="B224" s="22"/>
-      <c r="C224" s="4"/>
+      <c r="B224" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D224" s="4"/>
     </row>
     <row r="225" spans="1:4" s="6" customFormat="1">
-      <c r="B225" s="22"/>
-      <c r="C225" s="4"/>
+      <c r="B225" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="3"/>
-      <c r="B226" s="11"/>
-      <c r="C226" s="11"/>
-      <c r="D226" s="3"/>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="3"/>
-      <c r="B227" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C227" s="6">
-        <f>COUNTIF(C5:C226,"y")</f>
-        <v>166</v>
-      </c>
-      <c r="D227" s="2"/>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="3"/>
-      <c r="B228" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C228" s="6">
-        <f>COUNTIF(C5:C226,"n")</f>
-        <v>2</v>
-      </c>
-      <c r="D228" s="2"/>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="3"/>
-      <c r="B229" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C229" s="7">
-        <f>COUNTIF(C5:C226,"TBD")</f>
-        <v>0</v>
-      </c>
-      <c r="D229" s="2"/>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="3"/>
-      <c r="B230" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C230">
-        <f>SUM(C227:C229)</f>
-        <v>168</v>
-      </c>
-      <c r="D230" s="2"/>
-    </row>
-    <row r="231" spans="1:4" ht="18">
+    <row r="226" spans="1:4" s="6" customFormat="1">
+      <c r="B226" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="1:4" s="6" customFormat="1">
+      <c r="B227" s="23"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+    </row>
+    <row r="228" spans="1:4" s="6" customFormat="1">
+      <c r="B228" s="20"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+    </row>
+    <row r="229" spans="1:4" s="6" customFormat="1">
+      <c r="B229" s="22"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="1:4" s="6" customFormat="1">
+      <c r="B230" s="22"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" s="3"/>
-      <c r="B231" s="10"/>
-      <c r="C231" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D231" s="42">
-        <f>C227/(C228+C227 + C229)</f>
-        <v>0.98809523809523814</v>
-      </c>
+      <c r="B231" s="11"/>
+      <c r="C231" s="11"/>
+      <c r="D231" s="3"/>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="3"/>
-      <c r="B232" s="11"/>
-      <c r="C232" s="11"/>
-      <c r="D232" s="3"/>
+      <c r="B232" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" s="6">
+        <f>COUNTIF(C5:C231,"y")</f>
+        <v>178</v>
+      </c>
+      <c r="D232" s="2"/>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="3"/>
+      <c r="B233" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="6">
+        <f>COUNTIF(C5:C231,"n")</f>
+        <v>4</v>
+      </c>
+      <c r="D233" s="2"/>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="3"/>
+      <c r="B234" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="7">
+        <f>COUNTIF(C5:C231,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D234" s="2"/>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="3"/>
+      <c r="B235" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235">
+        <f>SUM(C232:C234)</f>
+        <v>182</v>
+      </c>
+      <c r="D235" s="2"/>
+    </row>
+    <row r="236" spans="1:4" ht="18">
+      <c r="A236" s="3"/>
+      <c r="B236" s="10"/>
+      <c r="C236" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" s="42">
+        <f>C232/(C233+C232 + C234)</f>
+        <v>0.97802197802197799</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="3"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64980">
+  <conditionalFormatting sqref="C148:C64985 C1:C3 C6:C145">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -4834,12 +4966,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT881"/>
+  <dimension ref="A1:IT882"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E47" sqref="E46:E47"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5118,7 +5250,7 @@
         <v>32</v>
       </c>
       <c r="G49" s="31">
-        <f t="shared" ref="G49:G67" si="0">B49/SUM(B49:E49)</f>
+        <f t="shared" ref="G49:G68" si="0">B49/SUM(B49:E49)</f>
         <v>0.52830188679245282</v>
       </c>
       <c r="H49" s="7"/>
@@ -5415,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G61" s="31">
         <f t="shared" ref="G61:G62" si="7">B61/SUM(B61:E61)</f>
@@ -5440,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="G62" s="31">
         <f t="shared" si="7"/>
@@ -5465,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="G63" s="31">
         <f t="shared" ref="G63" si="8">B63/SUM(B63:E63)</f>
@@ -5490,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="G64" s="31">
         <f t="shared" ref="G64:G65" si="9">B64/SUM(B64:E64)</f>
@@ -5515,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="G65" s="31">
         <f t="shared" si="9"/>
@@ -5540,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="G66" s="31">
         <f t="shared" ref="G66" si="10">B66/SUM(B66:E66)</f>
@@ -5565,22 +5697,37 @@
         <v>0</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="G67" s="31">
+        <f t="shared" ref="G67" si="11">B67/SUM(B67:E67)</f>
+        <v>0.98809523809523814</v>
+      </c>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="12">
+        <v>42155</v>
+      </c>
+      <c r="B68" s="4">
+        <v>178</v>
+      </c>
+      <c r="C68" s="4">
+        <v>4</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G68" s="31">
         <f t="shared" si="0"/>
-        <v>0.98809523809523814</v>
-      </c>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="12"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="31"/>
+        <v>0.97802197802197799</v>
+      </c>
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:10">
@@ -5589,84 +5736,84 @@
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="32"/>
+      <c r="F69" s="29"/>
       <c r="G69" s="31"/>
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="12"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B71" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C71" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D71" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E71" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F71" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G70" s="39">
-        <f>MIN(G67)</f>
-        <v>0.98809523809523814</v>
-      </c>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="40">
-        <f>SUM(B71:D71)</f>
-        <v>168</v>
-      </c>
-      <c r="B71" s="16">
-        <f>Features!C227</f>
-        <v>166</v>
-      </c>
-      <c r="C71" s="17">
-        <f>Features!C228</f>
-        <v>2</v>
-      </c>
-      <c r="D71" s="18">
-        <f>Features!C229</f>
+      <c r="G71" s="39">
+        <f>MIN(G68)</f>
+        <v>0.97802197802197799</v>
+      </c>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="40">
+        <f>SUM(B72:D72)</f>
+        <v>182</v>
+      </c>
+      <c r="B72" s="16">
+        <f>Features!C232</f>
+        <v>178</v>
+      </c>
+      <c r="C72" s="17">
+        <f>Features!C233</f>
+        <v>4</v>
+      </c>
+      <c r="D72" s="18">
+        <f>Features!C234</f>
         <v>0</v>
       </c>
-      <c r="E71" s="19">
-        <f>MIN(E67)</f>
+      <c r="E72" s="19">
+        <f>MIN(E68)</f>
         <v>0</v>
       </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="4"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="31"/>
       <c r="H72" s="7"/>
-      <c r="J72" s="37"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="4"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="31"/>
       <c r="H73" s="7"/>
+      <c r="J73" s="37"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="4"/>
-      <c r="B74" s="20"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -5676,7 +5823,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="4"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -5696,7 +5843,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="4"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -5716,7 +5863,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="4"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -5736,7 +5883,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="4"/>
-      <c r="B81" s="7"/>
+      <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -5746,7 +5893,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="4"/>
-      <c r="B82" s="21"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="4"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -5765,7 +5912,7 @@
       <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="7"/>
+      <c r="A84" s="4"/>
       <c r="B84" s="21"/>
       <c r="C84" s="4"/>
       <c r="D84" s="7"/>
@@ -5776,7 +5923,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="4"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -5907,7 +6054,7 @@
     <row r="98" spans="1:8">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
+      <c r="C98" s="4"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
@@ -5916,7 +6063,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="7"/>
-      <c r="B99" s="6"/>
+      <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -5924,15 +6071,15 @@
       <c r="G99" s="31"/>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="4"/>
+    <row r="100" spans="1:8">
+      <c r="A100" s="7"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="7"/>
     </row>
     <row r="101" spans="1:8" s="2" customFormat="1">
       <c r="A101" s="4"/>
@@ -6106,7 +6253,7 @@
     </row>
     <row r="118" spans="1:8" s="2" customFormat="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="6"/>
+      <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -6116,7 +6263,7 @@
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
+      <c r="B119" s="6"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -6146,7 +6293,7 @@
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1">
       <c r="A122" s="4"/>
-      <c r="B122" s="20"/>
+      <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -6186,7 +6333,7 @@
     </row>
     <row r="126" spans="1:8" s="2" customFormat="1">
       <c r="A126" s="4"/>
-      <c r="B126" s="22"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -6196,7 +6343,7 @@
     </row>
     <row r="127" spans="1:8" s="2" customFormat="1">
       <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -6206,7 +6353,7 @@
     </row>
     <row r="128" spans="1:8" s="2" customFormat="1">
       <c r="A128" s="4"/>
-      <c r="B128" s="6"/>
+      <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -6216,7 +6363,7 @@
     </row>
     <row r="129" spans="1:8" s="2" customFormat="1">
       <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
+      <c r="B129" s="6"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -6226,7 +6373,7 @@
     </row>
     <row r="130" spans="1:8" s="2" customFormat="1">
       <c r="A130" s="4"/>
-      <c r="B130" s="20"/>
+      <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -6246,7 +6393,7 @@
     </row>
     <row r="132" spans="1:8" s="2" customFormat="1">
       <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -6306,7 +6453,7 @@
     </row>
     <row r="138" spans="1:8" s="2" customFormat="1">
       <c r="A138" s="4"/>
-      <c r="B138" s="20"/>
+      <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -6406,7 +6553,7 @@
     </row>
     <row r="148" spans="1:254" s="2" customFormat="1">
       <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -6456,7 +6603,7 @@
     </row>
     <row r="153" spans="1:254" s="2" customFormat="1">
       <c r="A153" s="4"/>
-      <c r="B153" s="20"/>
+      <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -6476,7 +6623,7 @@
     </row>
     <row r="155" spans="1:254" s="2" customFormat="1">
       <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -6515,284 +6662,284 @@
       <c r="H158" s="4"/>
     </row>
     <row r="159" spans="1:254" s="2" customFormat="1">
-      <c r="A159" s="22"/>
-      <c r="B159" s="22"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="22"/>
-      <c r="E159" s="22"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="36"/>
-      <c r="H159" s="22"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5"/>
-      <c r="K159" s="5"/>
-      <c r="L159" s="5"/>
-      <c r="M159" s="5"/>
-      <c r="N159" s="5"/>
-      <c r="O159" s="5"/>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="5"/>
-      <c r="R159" s="5"/>
-      <c r="S159" s="5"/>
-      <c r="T159" s="5"/>
-      <c r="U159" s="5"/>
-      <c r="V159" s="5"/>
-      <c r="W159" s="5"/>
-      <c r="X159" s="5"/>
-      <c r="Y159" s="5"/>
-      <c r="Z159" s="5"/>
-      <c r="AA159" s="5"/>
-      <c r="AB159" s="5"/>
-      <c r="AC159" s="5"/>
-      <c r="AD159" s="5"/>
-      <c r="AE159" s="5"/>
-      <c r="AF159" s="5"/>
-      <c r="AG159" s="5"/>
-      <c r="AH159" s="5"/>
-      <c r="AI159" s="5"/>
-      <c r="AJ159" s="5"/>
-      <c r="AK159" s="5"/>
-      <c r="AL159" s="5"/>
-      <c r="AM159" s="5"/>
-      <c r="AN159" s="5"/>
-      <c r="AO159" s="5"/>
-      <c r="AP159" s="5"/>
-      <c r="AQ159" s="5"/>
-      <c r="AR159" s="5"/>
-      <c r="AS159" s="5"/>
-      <c r="AT159" s="5"/>
-      <c r="AU159" s="5"/>
-      <c r="AV159" s="5"/>
-      <c r="AW159" s="5"/>
-      <c r="AX159" s="5"/>
-      <c r="AY159" s="5"/>
-      <c r="AZ159" s="5"/>
-      <c r="BA159" s="5"/>
-      <c r="BB159" s="5"/>
-      <c r="BC159" s="5"/>
-      <c r="BD159" s="5"/>
-      <c r="BE159" s="5"/>
-      <c r="BF159" s="5"/>
-      <c r="BG159" s="5"/>
-      <c r="BH159" s="5"/>
-      <c r="BI159" s="5"/>
-      <c r="BJ159" s="5"/>
-      <c r="BK159" s="5"/>
-      <c r="BL159" s="5"/>
-      <c r="BM159" s="5"/>
-      <c r="BN159" s="5"/>
-      <c r="BO159" s="5"/>
-      <c r="BP159" s="5"/>
-      <c r="BQ159" s="5"/>
-      <c r="BR159" s="5"/>
-      <c r="BS159" s="5"/>
-      <c r="BT159" s="5"/>
-      <c r="BU159" s="5"/>
-      <c r="BV159" s="5"/>
-      <c r="BW159" s="5"/>
-      <c r="BX159" s="5"/>
-      <c r="BY159" s="5"/>
-      <c r="BZ159" s="5"/>
-      <c r="CA159" s="5"/>
-      <c r="CB159" s="5"/>
-      <c r="CC159" s="5"/>
-      <c r="CD159" s="5"/>
-      <c r="CE159" s="5"/>
-      <c r="CF159" s="5"/>
-      <c r="CG159" s="5"/>
-      <c r="CH159" s="5"/>
-      <c r="CI159" s="5"/>
-      <c r="CJ159" s="5"/>
-      <c r="CK159" s="5"/>
-      <c r="CL159" s="5"/>
-      <c r="CM159" s="5"/>
-      <c r="CN159" s="5"/>
-      <c r="CO159" s="5"/>
-      <c r="CP159" s="5"/>
-      <c r="CQ159" s="5"/>
-      <c r="CR159" s="5"/>
-      <c r="CS159" s="5"/>
-      <c r="CT159" s="5"/>
-      <c r="CU159" s="5"/>
-      <c r="CV159" s="5"/>
-      <c r="CW159" s="5"/>
-      <c r="CX159" s="5"/>
-      <c r="CY159" s="5"/>
-      <c r="CZ159" s="5"/>
-      <c r="DA159" s="5"/>
-      <c r="DB159" s="5"/>
-      <c r="DC159" s="5"/>
-      <c r="DD159" s="5"/>
-      <c r="DE159" s="5"/>
-      <c r="DF159" s="5"/>
-      <c r="DG159" s="5"/>
-      <c r="DH159" s="5"/>
-      <c r="DI159" s="5"/>
-      <c r="DJ159" s="5"/>
-      <c r="DK159" s="5"/>
-      <c r="DL159" s="5"/>
-      <c r="DM159" s="5"/>
-      <c r="DN159" s="5"/>
-      <c r="DO159" s="5"/>
-      <c r="DP159" s="5"/>
-      <c r="DQ159" s="5"/>
-      <c r="DR159" s="5"/>
-      <c r="DS159" s="5"/>
-      <c r="DT159" s="5"/>
-      <c r="DU159" s="5"/>
-      <c r="DV159" s="5"/>
-      <c r="DW159" s="5"/>
-      <c r="DX159" s="5"/>
-      <c r="DY159" s="5"/>
-      <c r="DZ159" s="5"/>
-      <c r="EA159" s="5"/>
-      <c r="EB159" s="5"/>
-      <c r="EC159" s="5"/>
-      <c r="ED159" s="5"/>
-      <c r="EE159" s="5"/>
-      <c r="EF159" s="5"/>
-      <c r="EG159" s="5"/>
-      <c r="EH159" s="5"/>
-      <c r="EI159" s="5"/>
-      <c r="EJ159" s="5"/>
-      <c r="EK159" s="5"/>
-      <c r="EL159" s="5"/>
-      <c r="EM159" s="5"/>
-      <c r="EN159" s="5"/>
-      <c r="EO159" s="5"/>
-      <c r="EP159" s="5"/>
-      <c r="EQ159" s="5"/>
-      <c r="ER159" s="5"/>
-      <c r="ES159" s="5"/>
-      <c r="ET159" s="5"/>
-      <c r="EU159" s="5"/>
-      <c r="EV159" s="5"/>
-      <c r="EW159" s="5"/>
-      <c r="EX159" s="5"/>
-      <c r="EY159" s="5"/>
-      <c r="EZ159" s="5"/>
-      <c r="FA159" s="5"/>
-      <c r="FB159" s="5"/>
-      <c r="FC159" s="5"/>
-      <c r="FD159" s="5"/>
-      <c r="FE159" s="5"/>
-      <c r="FF159" s="5"/>
-      <c r="FG159" s="5"/>
-      <c r="FH159" s="5"/>
-      <c r="FI159" s="5"/>
-      <c r="FJ159" s="5"/>
-      <c r="FK159" s="5"/>
-      <c r="FL159" s="5"/>
-      <c r="FM159" s="5"/>
-      <c r="FN159" s="5"/>
-      <c r="FO159" s="5"/>
-      <c r="FP159" s="5"/>
-      <c r="FQ159" s="5"/>
-      <c r="FR159" s="5"/>
-      <c r="FS159" s="5"/>
-      <c r="FT159" s="5"/>
-      <c r="FU159" s="5"/>
-      <c r="FV159" s="5"/>
-      <c r="FW159" s="5"/>
-      <c r="FX159" s="5"/>
-      <c r="FY159" s="5"/>
-      <c r="FZ159" s="5"/>
-      <c r="GA159" s="5"/>
-      <c r="GB159" s="5"/>
-      <c r="GC159" s="5"/>
-      <c r="GD159" s="5"/>
-      <c r="GE159" s="5"/>
-      <c r="GF159" s="5"/>
-      <c r="GG159" s="5"/>
-      <c r="GH159" s="5"/>
-      <c r="GI159" s="5"/>
-      <c r="GJ159" s="5"/>
-      <c r="GK159" s="5"/>
-      <c r="GL159" s="5"/>
-      <c r="GM159" s="5"/>
-      <c r="GN159" s="5"/>
-      <c r="GO159" s="5"/>
-      <c r="GP159" s="5"/>
-      <c r="GQ159" s="5"/>
-      <c r="GR159" s="5"/>
-      <c r="GS159" s="5"/>
-      <c r="GT159" s="5"/>
-      <c r="GU159" s="5"/>
-      <c r="GV159" s="5"/>
-      <c r="GW159" s="5"/>
-      <c r="GX159" s="5"/>
-      <c r="GY159" s="5"/>
-      <c r="GZ159" s="5"/>
-      <c r="HA159" s="5"/>
-      <c r="HB159" s="5"/>
-      <c r="HC159" s="5"/>
-      <c r="HD159" s="5"/>
-      <c r="HE159" s="5"/>
-      <c r="HF159" s="5"/>
-      <c r="HG159" s="5"/>
-      <c r="HH159" s="5"/>
-      <c r="HI159" s="5"/>
-      <c r="HJ159" s="5"/>
-      <c r="HK159" s="5"/>
-      <c r="HL159" s="5"/>
-      <c r="HM159" s="5"/>
-      <c r="HN159" s="5"/>
-      <c r="HO159" s="5"/>
-      <c r="HP159" s="5"/>
-      <c r="HQ159" s="5"/>
-      <c r="HR159" s="5"/>
-      <c r="HS159" s="5"/>
-      <c r="HT159" s="5"/>
-      <c r="HU159" s="5"/>
-      <c r="HV159" s="5"/>
-      <c r="HW159" s="5"/>
-      <c r="HX159" s="5"/>
-      <c r="HY159" s="5"/>
-      <c r="HZ159" s="5"/>
-      <c r="IA159" s="5"/>
-      <c r="IB159" s="5"/>
-      <c r="IC159" s="5"/>
-      <c r="ID159" s="5"/>
-      <c r="IE159" s="5"/>
-      <c r="IF159" s="5"/>
-      <c r="IG159" s="5"/>
-      <c r="IH159" s="5"/>
-      <c r="II159" s="5"/>
-      <c r="IJ159" s="5"/>
-      <c r="IK159" s="5"/>
-      <c r="IL159" s="5"/>
-      <c r="IM159" s="5"/>
-      <c r="IN159" s="5"/>
-      <c r="IO159" s="5"/>
-      <c r="IP159" s="5"/>
-      <c r="IQ159" s="5"/>
-      <c r="IR159" s="5"/>
-      <c r="IS159" s="5"/>
-      <c r="IT159" s="5"/>
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="35"/>
+      <c r="H159" s="4"/>
     </row>
     <row r="160" spans="1:254" s="2" customFormat="1">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="35"/>
-      <c r="H160" s="4"/>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="7"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="31"/>
-      <c r="H161" s="7"/>
+      <c r="A160" s="22"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="22"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="36"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="5"/>
+      <c r="S160" s="5"/>
+      <c r="T160" s="5"/>
+      <c r="U160" s="5"/>
+      <c r="V160" s="5"/>
+      <c r="W160" s="5"/>
+      <c r="X160" s="5"/>
+      <c r="Y160" s="5"/>
+      <c r="Z160" s="5"/>
+      <c r="AA160" s="5"/>
+      <c r="AB160" s="5"/>
+      <c r="AC160" s="5"/>
+      <c r="AD160" s="5"/>
+      <c r="AE160" s="5"/>
+      <c r="AF160" s="5"/>
+      <c r="AG160" s="5"/>
+      <c r="AH160" s="5"/>
+      <c r="AI160" s="5"/>
+      <c r="AJ160" s="5"/>
+      <c r="AK160" s="5"/>
+      <c r="AL160" s="5"/>
+      <c r="AM160" s="5"/>
+      <c r="AN160" s="5"/>
+      <c r="AO160" s="5"/>
+      <c r="AP160" s="5"/>
+      <c r="AQ160" s="5"/>
+      <c r="AR160" s="5"/>
+      <c r="AS160" s="5"/>
+      <c r="AT160" s="5"/>
+      <c r="AU160" s="5"/>
+      <c r="AV160" s="5"/>
+      <c r="AW160" s="5"/>
+      <c r="AX160" s="5"/>
+      <c r="AY160" s="5"/>
+      <c r="AZ160" s="5"/>
+      <c r="BA160" s="5"/>
+      <c r="BB160" s="5"/>
+      <c r="BC160" s="5"/>
+      <c r="BD160" s="5"/>
+      <c r="BE160" s="5"/>
+      <c r="BF160" s="5"/>
+      <c r="BG160" s="5"/>
+      <c r="BH160" s="5"/>
+      <c r="BI160" s="5"/>
+      <c r="BJ160" s="5"/>
+      <c r="BK160" s="5"/>
+      <c r="BL160" s="5"/>
+      <c r="BM160" s="5"/>
+      <c r="BN160" s="5"/>
+      <c r="BO160" s="5"/>
+      <c r="BP160" s="5"/>
+      <c r="BQ160" s="5"/>
+      <c r="BR160" s="5"/>
+      <c r="BS160" s="5"/>
+      <c r="BT160" s="5"/>
+      <c r="BU160" s="5"/>
+      <c r="BV160" s="5"/>
+      <c r="BW160" s="5"/>
+      <c r="BX160" s="5"/>
+      <c r="BY160" s="5"/>
+      <c r="BZ160" s="5"/>
+      <c r="CA160" s="5"/>
+      <c r="CB160" s="5"/>
+      <c r="CC160" s="5"/>
+      <c r="CD160" s="5"/>
+      <c r="CE160" s="5"/>
+      <c r="CF160" s="5"/>
+      <c r="CG160" s="5"/>
+      <c r="CH160" s="5"/>
+      <c r="CI160" s="5"/>
+      <c r="CJ160" s="5"/>
+      <c r="CK160" s="5"/>
+      <c r="CL160" s="5"/>
+      <c r="CM160" s="5"/>
+      <c r="CN160" s="5"/>
+      <c r="CO160" s="5"/>
+      <c r="CP160" s="5"/>
+      <c r="CQ160" s="5"/>
+      <c r="CR160" s="5"/>
+      <c r="CS160" s="5"/>
+      <c r="CT160" s="5"/>
+      <c r="CU160" s="5"/>
+      <c r="CV160" s="5"/>
+      <c r="CW160" s="5"/>
+      <c r="CX160" s="5"/>
+      <c r="CY160" s="5"/>
+      <c r="CZ160" s="5"/>
+      <c r="DA160" s="5"/>
+      <c r="DB160" s="5"/>
+      <c r="DC160" s="5"/>
+      <c r="DD160" s="5"/>
+      <c r="DE160" s="5"/>
+      <c r="DF160" s="5"/>
+      <c r="DG160" s="5"/>
+      <c r="DH160" s="5"/>
+      <c r="DI160" s="5"/>
+      <c r="DJ160" s="5"/>
+      <c r="DK160" s="5"/>
+      <c r="DL160" s="5"/>
+      <c r="DM160" s="5"/>
+      <c r="DN160" s="5"/>
+      <c r="DO160" s="5"/>
+      <c r="DP160" s="5"/>
+      <c r="DQ160" s="5"/>
+      <c r="DR160" s="5"/>
+      <c r="DS160" s="5"/>
+      <c r="DT160" s="5"/>
+      <c r="DU160" s="5"/>
+      <c r="DV160" s="5"/>
+      <c r="DW160" s="5"/>
+      <c r="DX160" s="5"/>
+      <c r="DY160" s="5"/>
+      <c r="DZ160" s="5"/>
+      <c r="EA160" s="5"/>
+      <c r="EB160" s="5"/>
+      <c r="EC160" s="5"/>
+      <c r="ED160" s="5"/>
+      <c r="EE160" s="5"/>
+      <c r="EF160" s="5"/>
+      <c r="EG160" s="5"/>
+      <c r="EH160" s="5"/>
+      <c r="EI160" s="5"/>
+      <c r="EJ160" s="5"/>
+      <c r="EK160" s="5"/>
+      <c r="EL160" s="5"/>
+      <c r="EM160" s="5"/>
+      <c r="EN160" s="5"/>
+      <c r="EO160" s="5"/>
+      <c r="EP160" s="5"/>
+      <c r="EQ160" s="5"/>
+      <c r="ER160" s="5"/>
+      <c r="ES160" s="5"/>
+      <c r="ET160" s="5"/>
+      <c r="EU160" s="5"/>
+      <c r="EV160" s="5"/>
+      <c r="EW160" s="5"/>
+      <c r="EX160" s="5"/>
+      <c r="EY160" s="5"/>
+      <c r="EZ160" s="5"/>
+      <c r="FA160" s="5"/>
+      <c r="FB160" s="5"/>
+      <c r="FC160" s="5"/>
+      <c r="FD160" s="5"/>
+      <c r="FE160" s="5"/>
+      <c r="FF160" s="5"/>
+      <c r="FG160" s="5"/>
+      <c r="FH160" s="5"/>
+      <c r="FI160" s="5"/>
+      <c r="FJ160" s="5"/>
+      <c r="FK160" s="5"/>
+      <c r="FL160" s="5"/>
+      <c r="FM160" s="5"/>
+      <c r="FN160" s="5"/>
+      <c r="FO160" s="5"/>
+      <c r="FP160" s="5"/>
+      <c r="FQ160" s="5"/>
+      <c r="FR160" s="5"/>
+      <c r="FS160" s="5"/>
+      <c r="FT160" s="5"/>
+      <c r="FU160" s="5"/>
+      <c r="FV160" s="5"/>
+      <c r="FW160" s="5"/>
+      <c r="FX160" s="5"/>
+      <c r="FY160" s="5"/>
+      <c r="FZ160" s="5"/>
+      <c r="GA160" s="5"/>
+      <c r="GB160" s="5"/>
+      <c r="GC160" s="5"/>
+      <c r="GD160" s="5"/>
+      <c r="GE160" s="5"/>
+      <c r="GF160" s="5"/>
+      <c r="GG160" s="5"/>
+      <c r="GH160" s="5"/>
+      <c r="GI160" s="5"/>
+      <c r="GJ160" s="5"/>
+      <c r="GK160" s="5"/>
+      <c r="GL160" s="5"/>
+      <c r="GM160" s="5"/>
+      <c r="GN160" s="5"/>
+      <c r="GO160" s="5"/>
+      <c r="GP160" s="5"/>
+      <c r="GQ160" s="5"/>
+      <c r="GR160" s="5"/>
+      <c r="GS160" s="5"/>
+      <c r="GT160" s="5"/>
+      <c r="GU160" s="5"/>
+      <c r="GV160" s="5"/>
+      <c r="GW160" s="5"/>
+      <c r="GX160" s="5"/>
+      <c r="GY160" s="5"/>
+      <c r="GZ160" s="5"/>
+      <c r="HA160" s="5"/>
+      <c r="HB160" s="5"/>
+      <c r="HC160" s="5"/>
+      <c r="HD160" s="5"/>
+      <c r="HE160" s="5"/>
+      <c r="HF160" s="5"/>
+      <c r="HG160" s="5"/>
+      <c r="HH160" s="5"/>
+      <c r="HI160" s="5"/>
+      <c r="HJ160" s="5"/>
+      <c r="HK160" s="5"/>
+      <c r="HL160" s="5"/>
+      <c r="HM160" s="5"/>
+      <c r="HN160" s="5"/>
+      <c r="HO160" s="5"/>
+      <c r="HP160" s="5"/>
+      <c r="HQ160" s="5"/>
+      <c r="HR160" s="5"/>
+      <c r="HS160" s="5"/>
+      <c r="HT160" s="5"/>
+      <c r="HU160" s="5"/>
+      <c r="HV160" s="5"/>
+      <c r="HW160" s="5"/>
+      <c r="HX160" s="5"/>
+      <c r="HY160" s="5"/>
+      <c r="HZ160" s="5"/>
+      <c r="IA160" s="5"/>
+      <c r="IB160" s="5"/>
+      <c r="IC160" s="5"/>
+      <c r="ID160" s="5"/>
+      <c r="IE160" s="5"/>
+      <c r="IF160" s="5"/>
+      <c r="IG160" s="5"/>
+      <c r="IH160" s="5"/>
+      <c r="II160" s="5"/>
+      <c r="IJ160" s="5"/>
+      <c r="IK160" s="5"/>
+      <c r="IL160" s="5"/>
+      <c r="IM160" s="5"/>
+      <c r="IN160" s="5"/>
+      <c r="IO160" s="5"/>
+      <c r="IP160" s="5"/>
+      <c r="IQ160" s="5"/>
+      <c r="IR160" s="5"/>
+      <c r="IS160" s="5"/>
+      <c r="IT160" s="5"/>
+    </row>
+    <row r="161" spans="1:8" s="2" customFormat="1">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="35"/>
+      <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
+      <c r="B162" s="6"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -6802,7 +6949,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="21"/>
+      <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -6812,7 +6959,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
+      <c r="B164" s="21"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -6823,7 +6970,7 @@
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
-      <c r="C165" s="4"/>
+      <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
@@ -6863,7 +7010,7 @@
     <row r="169" spans="1:8">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
+      <c r="C169" s="4"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
@@ -6872,7 +7019,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="23"/>
+      <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -6892,7 +7039,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
+      <c r="B172" s="23"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -6902,7 +7049,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="7"/>
-      <c r="B173" s="21"/>
+      <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -6922,7 +7069,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="7"/>
-      <c r="B175" s="7"/>
+      <c r="B175" s="21"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -6942,7 +7089,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="7"/>
-      <c r="B177" s="21"/>
+      <c r="B177" s="7"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -6962,7 +7109,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="7"/>
+      <c r="B179" s="21"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -6982,7 +7129,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="21"/>
+      <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -7002,7 +7149,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="7"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -7042,7 +7189,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
-      <c r="B187" s="6"/>
+      <c r="B187" s="7"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -7052,8 +7199,8 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
@@ -7062,7 +7209,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="20"/>
+      <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -7132,7 +7279,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="7"/>
-      <c r="B196" s="4"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="4"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -7142,7 +7289,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="7"/>
-      <c r="B197" s="20"/>
+      <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -7152,7 +7299,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="7"/>
-      <c r="B198" s="22"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="4"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -7172,7 +7319,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="20"/>
+      <c r="B200" s="22"/>
       <c r="C200" s="4"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -7213,7 +7360,7 @@
     <row r="204" spans="1:8">
       <c r="A204" s="7"/>
       <c r="B204" s="20"/>
-      <c r="C204" s="7"/>
+      <c r="C204" s="4"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
@@ -7222,7 +7369,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="7"/>
-      <c r="B205" s="4"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -7242,7 +7389,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
-      <c r="B207" s="20"/>
+      <c r="B207" s="4"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -7302,7 +7449,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="7"/>
-      <c r="B213" s="22"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -7342,7 +7489,7 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="7"/>
-      <c r="B217" s="4"/>
+      <c r="B217" s="22"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -7352,7 +7499,7 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="7"/>
-      <c r="B218" s="6"/>
+      <c r="B218" s="4"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -7362,7 +7509,7 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="7"/>
-      <c r="B219" s="4"/>
+      <c r="B219" s="6"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -7372,7 +7519,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="20"/>
+      <c r="B220" s="4"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -7422,7 +7569,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="22"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -7432,7 +7579,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="20"/>
+      <c r="B226" s="22"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -7482,7 +7629,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="22"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -7542,7 +7689,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="4"/>
+      <c r="B237" s="22"/>
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -7552,7 +7699,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="6"/>
+      <c r="B238" s="4"/>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -7562,8 +7709,8 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="7"/>
-      <c r="B239" s="4"/>
-      <c r="C239" s="4"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
       <c r="F239" s="7"/>
@@ -7572,7 +7719,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="7"/>
-      <c r="B240" s="20"/>
+      <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -7582,7 +7729,7 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="7"/>
-      <c r="B241" s="7"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="4"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -7592,7 +7739,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="21"/>
+      <c r="B242" s="7"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -7632,7 +7779,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
+      <c r="B246" s="21"/>
       <c r="C246" s="4"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -7642,7 +7789,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="21"/>
+      <c r="B247" s="7"/>
       <c r="C247" s="4"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -7652,7 +7799,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="24"/>
+      <c r="B248" s="21"/>
       <c r="C248" s="4"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -7672,7 +7819,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="7"/>
-      <c r="B250" s="21"/>
+      <c r="B250" s="24"/>
       <c r="C250" s="4"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -7712,7 +7859,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="7"/>
+      <c r="B254" s="21"/>
       <c r="C254" s="4"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -7722,7 +7869,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="21"/>
+      <c r="B255" s="7"/>
       <c r="C255" s="4"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -7772,7 +7919,7 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="7"/>
-      <c r="B260" s="7"/>
+      <c r="B260" s="21"/>
       <c r="C260" s="4"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -7782,8 +7929,8 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="7"/>
-      <c r="B261" s="21"/>
-      <c r="C261" s="7"/>
+      <c r="B261" s="7"/>
+      <c r="C261" s="4"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
       <c r="F261" s="7"/>
@@ -7792,7 +7939,7 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="7"/>
-      <c r="B262" s="7"/>
+      <c r="B262" s="21"/>
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -7802,7 +7949,7 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="7"/>
-      <c r="B263" s="21"/>
+      <c r="B263" s="7"/>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -7812,7 +7959,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="7"/>
-      <c r="B264" s="24"/>
+      <c r="B264" s="21"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -7862,8 +8009,8 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="7"/>
-      <c r="B269" s="21"/>
-      <c r="C269" s="4"/>
+      <c r="B269" s="24"/>
+      <c r="C269" s="7"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
       <c r="F269" s="7"/>
@@ -7872,7 +8019,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="24"/>
+      <c r="B270" s="21"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -7882,7 +8029,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="25"/>
+      <c r="B271" s="24"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -7912,7 +8059,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="26"/>
+      <c r="B274" s="25"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -7922,7 +8069,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="24"/>
+      <c r="B275" s="26"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -7962,7 +8109,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="25"/>
+      <c r="B279" s="24"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -7992,7 +8139,7 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
-      <c r="B282" s="24"/>
+      <c r="B282" s="25"/>
       <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -8002,7 +8149,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="25"/>
+      <c r="B283" s="24"/>
       <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -8010,15 +8157,15 @@
       <c r="G283" s="31"/>
       <c r="H283" s="7"/>
     </row>
-    <row r="284" spans="1:8" s="2" customFormat="1">
-      <c r="A284" s="4"/>
+    <row r="284" spans="1:8">
+      <c r="A284" s="7"/>
       <c r="B284" s="25"/>
       <c r="C284" s="4"/>
-      <c r="D284" s="4"/>
-      <c r="E284" s="4"/>
-      <c r="F284" s="4"/>
-      <c r="G284" s="35"/>
-      <c r="H284" s="4"/>
+      <c r="D284" s="7"/>
+      <c r="E284" s="7"/>
+      <c r="F284" s="7"/>
+      <c r="G284" s="31"/>
+      <c r="H284" s="7"/>
     </row>
     <row r="285" spans="1:8" s="2" customFormat="1">
       <c r="A285" s="4"/>
@@ -8030,19 +8177,19 @@
       <c r="G285" s="35"/>
       <c r="H285" s="4"/>
     </row>
-    <row r="286" spans="1:8">
-      <c r="A286" s="7"/>
+    <row r="286" spans="1:8" s="2" customFormat="1">
+      <c r="A286" s="4"/>
       <c r="B286" s="25"/>
       <c r="C286" s="4"/>
-      <c r="D286" s="7"/>
-      <c r="E286" s="7"/>
-      <c r="F286" s="7"/>
-      <c r="G286" s="31"/>
-      <c r="H286" s="7"/>
+      <c r="D286" s="4"/>
+      <c r="E286" s="4"/>
+      <c r="F286" s="4"/>
+      <c r="G286" s="35"/>
+      <c r="H286" s="4"/>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="7"/>
-      <c r="B287" s="24"/>
+      <c r="B287" s="25"/>
       <c r="C287" s="4"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -8052,7 +8199,7 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="7"/>
-      <c r="B288" s="25"/>
+      <c r="B288" s="24"/>
       <c r="C288" s="4"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -8082,7 +8229,7 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="7"/>
-      <c r="B291" s="23"/>
+      <c r="B291" s="25"/>
       <c r="C291" s="4"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
@@ -8092,7 +8239,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="7"/>
+      <c r="B292" s="23"/>
       <c r="C292" s="4"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -8112,7 +8259,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="21"/>
+      <c r="B294" s="7"/>
       <c r="C294" s="4"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -8132,7 +8279,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="7"/>
+      <c r="B296" s="21"/>
       <c r="C296" s="4"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -8163,7 +8310,7 @@
     <row r="299" spans="1:8">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
-      <c r="C299" s="7"/>
+      <c r="C299" s="4"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
       <c r="F299" s="7"/>
@@ -8172,7 +8319,7 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="7"/>
-      <c r="B300" s="6"/>
+      <c r="B300" s="7"/>
       <c r="C300" s="7"/>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
@@ -8182,7 +8329,7 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="7"/>
-      <c r="B301" s="7"/>
+      <c r="B301" s="6"/>
       <c r="C301" s="7"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
@@ -8262,7 +8409,7 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="7"/>
-      <c r="B309" s="6"/>
+      <c r="B309" s="7"/>
       <c r="C309" s="7"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
@@ -8272,8 +8419,8 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="7"/>
-      <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
+      <c r="B310" s="6"/>
+      <c r="C310" s="7"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
@@ -8282,7 +8429,7 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="7"/>
-      <c r="B311" s="20"/>
+      <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
@@ -8312,7 +8459,7 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="7"/>
-      <c r="B314" s="4"/>
+      <c r="B314" s="20"/>
       <c r="C314" s="4"/>
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
@@ -8372,7 +8519,7 @@
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="7"/>
-      <c r="B320" s="20"/>
+      <c r="B320" s="4"/>
       <c r="C320" s="4"/>
       <c r="D320" s="7"/>
       <c r="E320" s="7"/>
@@ -8392,7 +8539,7 @@
     </row>
     <row r="322" spans="1:8">
       <c r="A322" s="7"/>
-      <c r="B322" s="22"/>
+      <c r="B322" s="20"/>
       <c r="C322" s="4"/>
       <c r="D322" s="7"/>
       <c r="E322" s="7"/>
@@ -8402,8 +8549,8 @@
     </row>
     <row r="323" spans="1:8">
       <c r="A323" s="7"/>
-      <c r="B323" s="7"/>
-      <c r="C323" s="7"/>
+      <c r="B323" s="22"/>
+      <c r="C323" s="4"/>
       <c r="D323" s="7"/>
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
@@ -8412,7 +8559,7 @@
     </row>
     <row r="324" spans="1:8">
       <c r="A324" s="7"/>
-      <c r="B324" s="6"/>
+      <c r="B324" s="7"/>
       <c r="C324" s="7"/>
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
@@ -8420,15 +8567,15 @@
       <c r="G324" s="31"/>
       <c r="H324" s="7"/>
     </row>
-    <row r="325" spans="1:8" s="2" customFormat="1">
-      <c r="A325" s="4"/>
-      <c r="B325" s="4"/>
-      <c r="C325" s="9"/>
-      <c r="D325" s="4"/>
-      <c r="E325" s="4"/>
-      <c r="F325" s="4"/>
-      <c r="G325" s="35"/>
-      <c r="H325" s="4"/>
+    <row r="325" spans="1:8">
+      <c r="A325" s="7"/>
+      <c r="B325" s="6"/>
+      <c r="C325" s="7"/>
+      <c r="D325" s="7"/>
+      <c r="E325" s="7"/>
+      <c r="F325" s="7"/>
+      <c r="G325" s="31"/>
+      <c r="H325" s="7"/>
     </row>
     <row r="326" spans="1:8" s="2" customFormat="1">
       <c r="A326" s="4"/>
@@ -8452,7 +8599,7 @@
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="20"/>
+      <c r="B328" s="4"/>
       <c r="C328" s="9"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -8502,8 +8649,8 @@
     </row>
     <row r="333" spans="1:8" s="2" customFormat="1">
       <c r="A333" s="4"/>
-      <c r="B333" s="27"/>
-      <c r="C333" s="4"/>
+      <c r="B333" s="20"/>
+      <c r="C333" s="9"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
@@ -8552,7 +8699,7 @@
     </row>
     <row r="338" spans="1:8" s="2" customFormat="1">
       <c r="A338" s="4"/>
-      <c r="B338" s="22"/>
+      <c r="B338" s="27"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -8602,7 +8749,7 @@
     </row>
     <row r="343" spans="1:8" s="2" customFormat="1">
       <c r="A343" s="4"/>
-      <c r="B343" s="20"/>
+      <c r="B343" s="22"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -8612,7 +8759,7 @@
     </row>
     <row r="344" spans="1:8" s="2" customFormat="1">
       <c r="A344" s="4"/>
-      <c r="B344" s="22"/>
+      <c r="B344" s="20"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -8622,7 +8769,7 @@
     </row>
     <row r="345" spans="1:8" s="2" customFormat="1">
       <c r="A345" s="4"/>
-      <c r="B345" s="4"/>
+      <c r="B345" s="22"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -8630,20 +8777,20 @@
       <c r="G345" s="35"/>
       <c r="H345" s="4"/>
     </row>
-    <row r="346" spans="1:8">
-      <c r="A346" s="7"/>
-      <c r="B346" s="6"/>
-      <c r="C346" s="7"/>
-      <c r="D346" s="7"/>
-      <c r="E346" s="7"/>
-      <c r="F346" s="7"/>
-      <c r="G346" s="31"/>
-      <c r="H346" s="7"/>
+    <row r="346" spans="1:8" s="2" customFormat="1">
+      <c r="A346" s="4"/>
+      <c r="B346" s="4"/>
+      <c r="C346" s="4"/>
+      <c r="D346" s="4"/>
+      <c r="E346" s="4"/>
+      <c r="F346" s="4"/>
+      <c r="G346" s="35"/>
+      <c r="H346" s="4"/>
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="7"/>
-      <c r="C347" s="4"/>
+      <c r="B347" s="6"/>
+      <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
       <c r="F347" s="7"/>
@@ -8712,7 +8859,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="4"/>
+      <c r="B354" s="7"/>
       <c r="C354" s="4"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -8723,7 +8870,7 @@
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
       <c r="B355" s="4"/>
-      <c r="C355" s="7"/>
+      <c r="C355" s="4"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
@@ -8732,7 +8879,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="6"/>
+      <c r="B356" s="4"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -8742,7 +8889,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="7"/>
+      <c r="B357" s="6"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -8752,7 +8899,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="23"/>
+      <c r="B358" s="7"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -8762,7 +8909,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="7"/>
+      <c r="B359" s="23"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -8802,7 +8949,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="6"/>
+      <c r="B363" s="7"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -8812,7 +8959,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="7"/>
+      <c r="B364" s="6"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -8822,7 +8969,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="21"/>
+      <c r="B365" s="7"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -8852,7 +8999,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="23"/>
+      <c r="B368" s="21"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -8862,7 +9009,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="21"/>
+      <c r="B369" s="23"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -8882,7 +9029,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="23"/>
+      <c r="B371" s="21"/>
       <c r="C371" s="7"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -8892,7 +9039,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="21"/>
+      <c r="B372" s="23"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -8902,7 +9049,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="23"/>
+      <c r="B373" s="21"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -8912,7 +9059,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="21"/>
+      <c r="B374" s="23"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -8942,7 +9089,7 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="7"/>
-      <c r="B377" s="7"/>
+      <c r="B377" s="21"/>
       <c r="C377" s="7"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
@@ -8952,7 +9099,7 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="7"/>
-      <c r="B378" s="28"/>
+      <c r="B378" s="7"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
@@ -8962,7 +9109,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="23"/>
+      <c r="B379" s="28"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -8972,8 +9119,8 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="7"/>
-      <c r="C380" s="4"/>
+      <c r="B380" s="23"/>
+      <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
@@ -8982,7 +9129,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="21"/>
+      <c r="B381" s="7"/>
       <c r="C381" s="4"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -9012,7 +9159,7 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="7"/>
+      <c r="B384" s="21"/>
       <c r="C384" s="4"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -9042,7 +9189,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="21"/>
+      <c r="B387" s="7"/>
       <c r="C387" s="4"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -9062,8 +9209,8 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
-      <c r="B389" s="7"/>
-      <c r="C389" s="7"/>
+      <c r="B389" s="21"/>
+      <c r="C389" s="4"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
       <c r="F389" s="7"/>
@@ -9072,7 +9219,7 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
-      <c r="B390" s="6"/>
+      <c r="B390" s="7"/>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
@@ -9082,7 +9229,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="7"/>
+      <c r="B391" s="6"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -9142,7 +9289,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="6"/>
+      <c r="B397" s="7"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -9152,7 +9299,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="7"/>
+      <c r="B398" s="6"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -9173,7 +9320,7 @@
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
       <c r="B400" s="7"/>
-      <c r="C400" s="4"/>
+      <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
       <c r="F400" s="7"/>
@@ -9182,7 +9329,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="21"/>
+      <c r="B401" s="7"/>
       <c r="C401" s="4"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -9193,7 +9340,7 @@
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
       <c r="B402" s="21"/>
-      <c r="C402" s="7"/>
+      <c r="C402" s="4"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
       <c r="F402" s="7"/>
@@ -9202,7 +9349,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="28"/>
+      <c r="B403" s="21"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -9212,7 +9359,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="23"/>
+      <c r="B404" s="28"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -9262,7 +9409,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="7"/>
+      <c r="B409" s="23"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -9272,7 +9419,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="6"/>
+      <c r="B410" s="7"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -9282,7 +9429,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
+      <c r="B411" s="6"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -9292,7 +9439,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="21"/>
+      <c r="B412" s="7"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -9302,7 +9449,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="23"/>
+      <c r="B413" s="21"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -9322,7 +9469,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="21"/>
+      <c r="B415" s="23"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -9362,7 +9509,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="7"/>
+      <c r="B419" s="21"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -9372,7 +9519,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="21"/>
+      <c r="B420" s="7"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -9392,7 +9539,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="23"/>
+      <c r="B422" s="21"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -9402,7 +9549,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="7"/>
+      <c r="B423" s="23"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -9412,7 +9559,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="6"/>
+      <c r="B424" s="7"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -9422,7 +9569,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="7"/>
-      <c r="B425" s="7"/>
+      <c r="B425" s="6"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -9442,7 +9589,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="7"/>
-      <c r="B427" s="6"/>
+      <c r="B427" s="7"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -9452,7 +9599,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="7"/>
+      <c r="B428" s="6"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -9462,7 +9609,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="21"/>
+      <c r="B429" s="7"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -9482,7 +9629,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="7"/>
+      <c r="B431" s="21"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -9492,7 +9639,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="6"/>
+      <c r="B432" s="7"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -9502,7 +9649,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="7"/>
+      <c r="B433" s="6"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -9552,7 +9699,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="6"/>
+      <c r="B438" s="7"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -9562,7 +9709,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
-      <c r="B439" s="7"/>
+      <c r="B439" s="6"/>
       <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
@@ -9622,7 +9769,7 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
-      <c r="B445" s="6"/>
+      <c r="B445" s="7"/>
       <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
@@ -9632,7 +9779,7 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="7"/>
-      <c r="B446" s="7"/>
+      <c r="B446" s="6"/>
       <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
@@ -9652,7 +9799,7 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" s="7"/>
-      <c r="B448" s="6"/>
+      <c r="B448" s="7"/>
       <c r="C448" s="7"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
@@ -9662,7 +9809,7 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
-      <c r="B449" s="4"/>
+      <c r="B449" s="6"/>
       <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
@@ -9682,7 +9829,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="7"/>
+      <c r="B451" s="4"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -9712,7 +9859,7 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" s="7"/>
-      <c r="B454" s="6"/>
+      <c r="B454" s="7"/>
       <c r="C454" s="7"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
@@ -9722,8 +9869,8 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" s="7"/>
-      <c r="B455" s="7"/>
-      <c r="C455" s="4"/>
+      <c r="B455" s="6"/>
+      <c r="C455" s="7"/>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
       <c r="F455" s="7"/>
@@ -9773,7 +9920,7 @@
     <row r="460" spans="1:8">
       <c r="A460" s="7"/>
       <c r="B460" s="7"/>
-      <c r="C460" s="7"/>
+      <c r="C460" s="4"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
       <c r="F460" s="7"/>
@@ -9782,7 +9929,7 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="7"/>
-      <c r="B461" s="6"/>
+      <c r="B461" s="7"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -9792,8 +9939,8 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" s="7"/>
-      <c r="B462" s="7"/>
-      <c r="C462" s="4"/>
+      <c r="B462" s="6"/>
+      <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
       <c r="F462" s="7"/>
@@ -9833,7 +9980,7 @@
     <row r="466" spans="1:8">
       <c r="A466" s="7"/>
       <c r="B466" s="7"/>
-      <c r="C466" s="7"/>
+      <c r="C466" s="4"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
       <c r="F466" s="7"/>
@@ -9842,7 +9989,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="7"/>
-      <c r="B467" s="6"/>
+      <c r="B467" s="7"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
@@ -9852,7 +9999,7 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="7"/>
-      <c r="B468" s="23"/>
+      <c r="B468" s="6"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
@@ -9912,7 +10059,7 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="7"/>
+      <c r="B474" s="23"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
@@ -9922,7 +10069,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="6"/>
+      <c r="B475" s="7"/>
       <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
@@ -9932,7 +10079,7 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="23"/>
+      <c r="B476" s="6"/>
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
@@ -9961,8 +10108,8 @@
       <c r="H478" s="7"/>
     </row>
     <row r="479" spans="1:8">
-      <c r="A479" s="6"/>
-      <c r="B479" s="7"/>
+      <c r="A479" s="7"/>
+      <c r="B479" s="23"/>
       <c r="C479" s="7"/>
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
@@ -9971,7 +10118,7 @@
       <c r="H479" s="7"/>
     </row>
     <row r="480" spans="1:8">
-      <c r="A480" s="7"/>
+      <c r="A480" s="6"/>
       <c r="B480" s="7"/>
       <c r="C480" s="7"/>
       <c r="D480" s="7"/>
@@ -10012,7 +10159,7 @@
     </row>
     <row r="484" spans="1:8">
       <c r="A484" s="7"/>
-      <c r="B484" s="29"/>
+      <c r="B484" s="7"/>
       <c r="C484" s="7"/>
       <c r="D484" s="7"/>
       <c r="E484" s="7"/>
@@ -10042,7 +10189,7 @@
     </row>
     <row r="487" spans="1:8">
       <c r="A487" s="7"/>
-      <c r="B487" s="7"/>
+      <c r="B487" s="29"/>
       <c r="C487" s="7"/>
       <c r="D487" s="7"/>
       <c r="E487" s="7"/>
@@ -10052,7 +10199,7 @@
     </row>
     <row r="488" spans="1:8">
       <c r="A488" s="7"/>
-      <c r="B488" s="29"/>
+      <c r="B488" s="7"/>
       <c r="C488" s="7"/>
       <c r="D488" s="7"/>
       <c r="E488" s="7"/>
@@ -10062,7 +10209,7 @@
     </row>
     <row r="489" spans="1:8">
       <c r="A489" s="7"/>
-      <c r="B489" s="7"/>
+      <c r="B489" s="29"/>
       <c r="C489" s="7"/>
       <c r="D489" s="7"/>
       <c r="E489" s="7"/>
@@ -10072,21 +10219,21 @@
     </row>
     <row r="490" spans="1:8">
       <c r="A490" s="7"/>
-      <c r="B490" s="30"/>
-      <c r="C490" s="31"/>
+      <c r="B490" s="7"/>
+      <c r="C490" s="7"/>
       <c r="D490" s="7"/>
       <c r="E490" s="7"/>
-      <c r="F490" s="30"/>
+      <c r="F490" s="7"/>
       <c r="G490" s="31"/>
       <c r="H490" s="7"/>
     </row>
     <row r="491" spans="1:8">
       <c r="A491" s="7"/>
-      <c r="B491" s="7"/>
-      <c r="C491" s="7"/>
+      <c r="B491" s="30"/>
+      <c r="C491" s="31"/>
       <c r="D491" s="7"/>
       <c r="E491" s="7"/>
-      <c r="F491" s="7"/>
+      <c r="F491" s="30"/>
       <c r="G491" s="31"/>
       <c r="H491" s="7"/>
     </row>
@@ -13990,6 +14137,16 @@
       <c r="G881" s="31"/>
       <c r="H881" s="7"/>
     </row>
+    <row r="882" spans="1:8">
+      <c r="A882" s="7"/>
+      <c r="B882" s="7"/>
+      <c r="C882" s="7"/>
+      <c r="D882" s="7"/>
+      <c r="E882" s="7"/>
+      <c r="F882" s="7"/>
+      <c r="G882" s="31"/>
+      <c r="H882" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="182">
   <si>
     <t>Feature</t>
   </si>
@@ -558,6 +558,12 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>customize button</t>
+  </si>
+  <si>
+    <t>3.02.41</t>
   </si>
 </sst>
 </file>
@@ -806,8 +812,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954858"/>
-          <c:h val="0.89627228525120051"/>
+          <c:w val="0.9197807133095488"/>
+          <c:h val="0.8962722852512004"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -839,10 +845,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$68</c:f>
+              <c:f>Progress!$A$48:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -905,16 +911,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$68</c:f>
+              <c:f>Progress!$B$48:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -977,6 +986,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1009,10 +1021,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$68</c:f>
+              <c:f>Progress!$A$48:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1075,16 +1087,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$68</c:f>
+              <c:f>Progress!$C$48:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1146,6 +1161,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1179,10 +1197,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$68</c:f>
+              <c:f>Progress!$A$48:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1245,16 +1263,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$68</c:f>
+              <c:f>Progress!$D$48:$D$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1316,6 +1337,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1349,10 +1373,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$68</c:f>
+              <c:f>Progress!$A$48:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1415,16 +1439,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$72</c:f>
+              <c:f>Progress!$E$48:$E$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1488,10 +1515,13 @@
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1677,7 +1707,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000111" r="0.7500000000000111" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001121" r="0.75000000000001121" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1731,7 +1761,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127199E-2"/>
+          <c:x val="4.4510450248127206E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1766,10 +1796,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$68</c:f>
+              <c:f>Progress!$A$48:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1832,16 +1862,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$68</c:f>
+              <c:f>Progress!$G$48:$G$69</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1904,6 +1937,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.97802197802197799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97814207650273222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,7 +2055,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000111" r="0.7500000000000111" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001121" r="0.75000000000001121" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2070,10 +2106,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$68</c:f>
+              <c:f>Progress!$A$48:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -2136,16 +2172,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$68</c:f>
+              <c:f>Progress!$C$48:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2207,6 +2246,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -2240,10 +2282,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$68</c:f>
+              <c:f>Progress!$A$48:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -2306,16 +2348,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$68</c:f>
+              <c:f>Progress!$D$48:$D$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2377,6 +2422,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2522,7 +2570,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000111" r="0.7500000000000111" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001121" r="0.75000000000001121" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2980,10 +3028,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4581,40 +4629,44 @@
         <v>29</v>
       </c>
       <c r="C192" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="2:4" s="6" customFormat="1">
+      <c r="B193" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C193" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D192" s="4"/>
-    </row>
-    <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="23" t="s">
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="2:4" s="6" customFormat="1">
+      <c r="B194" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C193" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D193" s="4"/>
-    </row>
-    <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="21" t="s">
+      <c r="C194" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="2:4" s="6" customFormat="1">
+      <c r="B195" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C194" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D194" s="4"/>
-    </row>
-    <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="23" t="s">
+      <c r="C195" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="2:4" s="6" customFormat="1">
+      <c r="B196" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C195" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D195" s="4"/>
-    </row>
-    <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="23"/>
-      <c r="C196" s="7"/>
+      <c r="C196" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
@@ -4623,17 +4675,13 @@
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="23"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="2:4" s="6" customFormat="1">
+      <c r="B199" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D198" s="4"/>
-    </row>
-    <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="23" t="s">
-        <v>116</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>2</v>
@@ -4642,7 +4690,7 @@
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>2</v>
@@ -4651,7 +4699,7 @@
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
       <c r="B201" s="23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>2</v>
@@ -4660,7 +4708,7 @@
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
       <c r="B202" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>2</v>
@@ -4669,16 +4717,16 @@
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
       <c r="B203" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="2:4" s="6" customFormat="1">
+      <c r="B204" s="23" t="s">
         <v>120</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D203" s="4"/>
-    </row>
-    <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>2</v>
@@ -4687,7 +4735,7 @@
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
       <c r="B205" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>2</v>
@@ -4696,7 +4744,7 @@
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
       <c r="B206" s="21" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>2</v>
@@ -4705,7 +4753,7 @@
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
       <c r="B207" s="21" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>2</v>
@@ -4714,20 +4762,24 @@
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
       <c r="B208" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C208" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
       <c r="B209" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="21"/>
+      <c r="B210" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="C210" s="7"/>
       <c r="D210" s="4"/>
     </row>
@@ -4737,17 +4789,13 @@
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="21"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="4"/>
+    </row>
+    <row r="213" spans="2:4" s="6" customFormat="1">
+      <c r="B213" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D212" s="4"/>
-    </row>
-    <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="23" t="s">
-        <v>140</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>2</v>
@@ -4756,7 +4804,7 @@
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
       <c r="B214" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>2</v>
@@ -4765,16 +4813,20 @@
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
       <c r="B215" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" s="4"/>
+    </row>
+    <row r="216" spans="2:4" s="6" customFormat="1">
+      <c r="B216" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C215" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D215" s="4"/>
-    </row>
-    <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="23"/>
-      <c r="C216" s="7"/>
+      <c r="C216" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
@@ -4783,17 +4835,13 @@
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="23"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="4"/>
+    </row>
+    <row r="219" spans="2:4" s="6" customFormat="1">
+      <c r="B219" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D218" s="4"/>
-    </row>
-    <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="23" t="s">
-        <v>75</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>2</v>
@@ -4802,7 +4850,7 @@
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
       <c r="B220" s="23" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>2</v>
@@ -4811,35 +4859,35 @@
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
       <c r="B221" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="2:4" s="6" customFormat="1">
+      <c r="B222" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C221" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D221" s="4"/>
-    </row>
-    <row r="222" spans="2:4" s="6" customFormat="1">
-      <c r="B222" s="44"/>
-      <c r="C222" s="4"/>
+      <c r="C222" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D222" s="4"/>
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
-      <c r="B223" s="22"/>
+      <c r="B223" s="44"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="22"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="1:4" s="6" customFormat="1">
+      <c r="B225" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C224" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D224" s="4"/>
-    </row>
-    <row r="225" spans="1:4" s="6" customFormat="1">
-      <c r="B225" s="23" t="s">
-        <v>35</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>2</v>
@@ -4848,25 +4896,29 @@
     </row>
     <row r="226" spans="1:4" s="6" customFormat="1">
       <c r="B226" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="1:4" s="6" customFormat="1">
+      <c r="B227" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C226" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D226" s="4"/>
-    </row>
-    <row r="227" spans="1:4" s="6" customFormat="1">
-      <c r="B227" s="23"/>
-      <c r="C227" s="4"/>
+      <c r="C227" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="1:4" s="6" customFormat="1">
-      <c r="B228" s="20"/>
+      <c r="B228" s="23"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
     </row>
     <row r="229" spans="1:4" s="6" customFormat="1">
-      <c r="B229" s="22"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
     </row>
@@ -4875,76 +4927,81 @@
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="3"/>
-      <c r="B231" s="11"/>
-      <c r="C231" s="11"/>
-      <c r="D231" s="3"/>
+    <row r="231" spans="1:4" s="6" customFormat="1">
+      <c r="B231" s="22"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="3"/>
-      <c r="B232" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C232" s="6">
-        <f>COUNTIF(C5:C231,"y")</f>
-        <v>178</v>
-      </c>
-      <c r="D232" s="2"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="3"/>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="3"/>
       <c r="B233" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" s="6">
-        <f>COUNTIF(C5:C231,"n")</f>
-        <v>4</v>
+        <f>COUNTIF(C5:C232,"y")</f>
+        <v>179</v>
       </c>
       <c r="D233" s="2"/>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="3"/>
       <c r="B234" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C234" s="7">
-        <f>COUNTIF(C5:C231,"TBD")</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C234" s="6">
+        <f>COUNTIF(C5:C232,"n")</f>
+        <v>4</v>
       </c>
       <c r="D234" s="2"/>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="3"/>
       <c r="B235" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="7">
+        <f>COUNTIF(C5:C232,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D235" s="2"/>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="3"/>
+      <c r="B236" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C235">
-        <f>SUM(C232:C234)</f>
-        <v>182</v>
-      </c>
-      <c r="D235" s="2"/>
-    </row>
-    <row r="236" spans="1:4" ht="18">
-      <c r="A236" s="3"/>
-      <c r="B236" s="10"/>
-      <c r="C236" s="10" t="s">
+      <c r="C236">
+        <f>SUM(C233:C235)</f>
+        <v>183</v>
+      </c>
+      <c r="D236" s="2"/>
+    </row>
+    <row r="237" spans="1:4" ht="18">
+      <c r="A237" s="3"/>
+      <c r="B237" s="10"/>
+      <c r="C237" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D236" s="42">
-        <f>C232/(C233+C232 + C234)</f>
-        <v>0.97802197802197799</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="3"/>
-      <c r="B237" s="11"/>
-      <c r="C237" s="11"/>
-      <c r="D237" s="3"/>
+      <c r="D237" s="42">
+        <f>C233/(C234+C233 + C235)</f>
+        <v>0.97814207650273222</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="3"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C148:C64985 C1:C3 C6:C145">
+  <conditionalFormatting sqref="C148:C64986 C1:C3 C6:C145">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -4966,12 +5023,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT882"/>
+  <dimension ref="A1:IT883"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E47" sqref="E46:E47"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5250,7 +5307,7 @@
         <v>32</v>
       </c>
       <c r="G49" s="31">
-        <f t="shared" ref="G49:G68" si="0">B49/SUM(B49:E49)</f>
+        <f t="shared" ref="G49:G69" si="0">B49/SUM(B49:E49)</f>
         <v>0.52830188679245282</v>
       </c>
       <c r="H49" s="7"/>
@@ -5725,19 +5782,34 @@
         <v>152</v>
       </c>
       <c r="G68" s="31">
+        <f t="shared" ref="G68" si="12">B68/SUM(B68:E68)</f>
+        <v>0.97802197802197799</v>
+      </c>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="12">
+        <v>42203</v>
+      </c>
+      <c r="B69" s="4">
+        <v>179</v>
+      </c>
+      <c r="C69" s="4">
+        <v>4</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="G69" s="31">
         <f t="shared" si="0"/>
-        <v>0.97802197802197799</v>
-      </c>
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="12"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="31"/>
+        <v>0.97814207650273222</v>
+      </c>
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:10">
@@ -5746,84 +5818,84 @@
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="32"/>
+      <c r="F70" s="29"/>
       <c r="G70" s="31"/>
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="12"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B72" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C72" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D72" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E72" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F72" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="39">
-        <f>MIN(G68)</f>
-        <v>0.97802197802197799</v>
-      </c>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="40">
-        <f>SUM(B72:D72)</f>
-        <v>182</v>
-      </c>
-      <c r="B72" s="16">
-        <f>Features!C232</f>
-        <v>178</v>
-      </c>
-      <c r="C72" s="17">
+      <c r="G72" s="39">
+        <f>MIN(G69)</f>
+        <v>0.97814207650273222</v>
+      </c>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="40">
+        <f>SUM(B73:D73)</f>
+        <v>183</v>
+      </c>
+      <c r="B73" s="16">
         <f>Features!C233</f>
+        <v>179</v>
+      </c>
+      <c r="C73" s="17">
+        <f>Features!C234</f>
         <v>4</v>
       </c>
-      <c r="D72" s="18">
-        <f>Features!C234</f>
+      <c r="D73" s="18">
+        <f>Features!C235</f>
         <v>0</v>
       </c>
-      <c r="E72" s="19">
-        <f>MIN(E68)</f>
+      <c r="E73" s="19">
+        <f>MIN(E69)</f>
         <v>0</v>
       </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="4"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="31"/>
       <c r="H73" s="7"/>
-      <c r="J73" s="37"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="4"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="31"/>
       <c r="H74" s="7"/>
+      <c r="J74" s="37"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="4"/>
-      <c r="B75" s="20"/>
+      <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -5833,7 +5905,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="4"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -5853,7 +5925,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="4"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -5873,7 +5945,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="4"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -5893,7 +5965,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="4"/>
-      <c r="B82" s="7"/>
+      <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -5903,7 +5975,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="4"/>
-      <c r="B83" s="21"/>
+      <c r="B83" s="7"/>
       <c r="C83" s="4"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -5922,7 +5994,7 @@
       <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="7"/>
+      <c r="A85" s="4"/>
       <c r="B85" s="21"/>
       <c r="C85" s="4"/>
       <c r="D85" s="7"/>
@@ -5933,7 +6005,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="4"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -6064,7 +6136,7 @@
     <row r="99" spans="1:8">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
+      <c r="C99" s="4"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
@@ -6073,7 +6145,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="7"/>
-      <c r="B100" s="6"/>
+      <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -6081,15 +6153,15 @@
       <c r="G100" s="31"/>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" spans="1:8" s="2" customFormat="1">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="4"/>
+    <row r="101" spans="1:8">
+      <c r="A101" s="7"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="7"/>
     </row>
     <row r="102" spans="1:8" s="2" customFormat="1">
       <c r="A102" s="4"/>
@@ -6263,7 +6335,7 @@
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="6"/>
+      <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -6273,7 +6345,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -6303,7 +6375,7 @@
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="20"/>
+      <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -6343,7 +6415,7 @@
     </row>
     <row r="127" spans="1:8" s="2" customFormat="1">
       <c r="A127" s="4"/>
-      <c r="B127" s="22"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -6353,7 +6425,7 @@
     </row>
     <row r="128" spans="1:8" s="2" customFormat="1">
       <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -6363,7 +6435,7 @@
     </row>
     <row r="129" spans="1:8" s="2" customFormat="1">
       <c r="A129" s="4"/>
-      <c r="B129" s="6"/>
+      <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -6373,7 +6445,7 @@
     </row>
     <row r="130" spans="1:8" s="2" customFormat="1">
       <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
+      <c r="B130" s="6"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -6383,7 +6455,7 @@
     </row>
     <row r="131" spans="1:8" s="2" customFormat="1">
       <c r="A131" s="4"/>
-      <c r="B131" s="20"/>
+      <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -6403,7 +6475,7 @@
     </row>
     <row r="133" spans="1:8" s="2" customFormat="1">
       <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -6463,7 +6535,7 @@
     </row>
     <row r="139" spans="1:8" s="2" customFormat="1">
       <c r="A139" s="4"/>
-      <c r="B139" s="20"/>
+      <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -6521,7 +6593,7 @@
       <c r="G144" s="35"/>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="1:254" s="2" customFormat="1">
+    <row r="145" spans="1:8" s="2" customFormat="1">
       <c r="A145" s="4"/>
       <c r="B145" s="20"/>
       <c r="C145" s="4"/>
@@ -6531,7 +6603,7 @@
       <c r="G145" s="35"/>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="1:254" s="2" customFormat="1">
+    <row r="146" spans="1:8" s="2" customFormat="1">
       <c r="A146" s="4"/>
       <c r="B146" s="20"/>
       <c r="C146" s="4"/>
@@ -6541,7 +6613,7 @@
       <c r="G146" s="35"/>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="1:254" s="2" customFormat="1">
+    <row r="147" spans="1:8" s="2" customFormat="1">
       <c r="A147" s="4"/>
       <c r="B147" s="20"/>
       <c r="C147" s="4"/>
@@ -6551,7 +6623,7 @@
       <c r="G147" s="35"/>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="1:254" s="2" customFormat="1">
+    <row r="148" spans="1:8" s="2" customFormat="1">
       <c r="A148" s="4"/>
       <c r="B148" s="20"/>
       <c r="C148" s="4"/>
@@ -6561,9 +6633,9 @@
       <c r="G148" s="35"/>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="1:254" s="2" customFormat="1">
+    <row r="149" spans="1:8" s="2" customFormat="1">
       <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -6571,7 +6643,7 @@
       <c r="G149" s="35"/>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="1:254" s="2" customFormat="1">
+    <row r="150" spans="1:8" s="2" customFormat="1">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -6581,7 +6653,7 @@
       <c r="G150" s="35"/>
       <c r="H150" s="4"/>
     </row>
-    <row r="151" spans="1:254" s="2" customFormat="1">
+    <row r="151" spans="1:8" s="2" customFormat="1">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -6591,7 +6663,7 @@
       <c r="G151" s="35"/>
       <c r="H151" s="4"/>
     </row>
-    <row r="152" spans="1:254" s="2" customFormat="1">
+    <row r="152" spans="1:8" s="2" customFormat="1">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -6601,7 +6673,7 @@
       <c r="G152" s="35"/>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="1:254" s="2" customFormat="1">
+    <row r="153" spans="1:8" s="2" customFormat="1">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -6611,9 +6683,9 @@
       <c r="G153" s="35"/>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="1:254" s="2" customFormat="1">
+    <row r="154" spans="1:8" s="2" customFormat="1">
       <c r="A154" s="4"/>
-      <c r="B154" s="20"/>
+      <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -6621,7 +6693,7 @@
       <c r="G154" s="35"/>
       <c r="H154" s="4"/>
     </row>
-    <row r="155" spans="1:254" s="2" customFormat="1">
+    <row r="155" spans="1:8" s="2" customFormat="1">
       <c r="A155" s="4"/>
       <c r="B155" s="20"/>
       <c r="C155" s="4"/>
@@ -6631,9 +6703,9 @@
       <c r="G155" s="35"/>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="1:254" s="2" customFormat="1">
+    <row r="156" spans="1:8" s="2" customFormat="1">
       <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -6641,7 +6713,7 @@
       <c r="G156" s="35"/>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="1:254" s="2" customFormat="1">
+    <row r="157" spans="1:8" s="2" customFormat="1">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -6651,7 +6723,7 @@
       <c r="G157" s="35"/>
       <c r="H157" s="4"/>
     </row>
-    <row r="158" spans="1:254" s="2" customFormat="1">
+    <row r="158" spans="1:8" s="2" customFormat="1">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -6661,7 +6733,7 @@
       <c r="G158" s="35"/>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="1:254" s="2" customFormat="1">
+    <row r="159" spans="1:8" s="2" customFormat="1">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -6671,285 +6743,285 @@
       <c r="G159" s="35"/>
       <c r="H159" s="4"/>
     </row>
-    <row r="160" spans="1:254" s="2" customFormat="1">
-      <c r="A160" s="22"/>
-      <c r="B160" s="22"/>
-      <c r="C160" s="22"/>
-      <c r="D160" s="22"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="22"/>
-      <c r="G160" s="36"/>
-      <c r="H160" s="22"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5"/>
-      <c r="K160" s="5"/>
-      <c r="L160" s="5"/>
-      <c r="M160" s="5"/>
-      <c r="N160" s="5"/>
-      <c r="O160" s="5"/>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
-      <c r="U160" s="5"/>
-      <c r="V160" s="5"/>
-      <c r="W160" s="5"/>
-      <c r="X160" s="5"/>
-      <c r="Y160" s="5"/>
-      <c r="Z160" s="5"/>
-      <c r="AA160" s="5"/>
-      <c r="AB160" s="5"/>
-      <c r="AC160" s="5"/>
-      <c r="AD160" s="5"/>
-      <c r="AE160" s="5"/>
-      <c r="AF160" s="5"/>
-      <c r="AG160" s="5"/>
-      <c r="AH160" s="5"/>
-      <c r="AI160" s="5"/>
-      <c r="AJ160" s="5"/>
-      <c r="AK160" s="5"/>
-      <c r="AL160" s="5"/>
-      <c r="AM160" s="5"/>
-      <c r="AN160" s="5"/>
-      <c r="AO160" s="5"/>
-      <c r="AP160" s="5"/>
-      <c r="AQ160" s="5"/>
-      <c r="AR160" s="5"/>
-      <c r="AS160" s="5"/>
-      <c r="AT160" s="5"/>
-      <c r="AU160" s="5"/>
-      <c r="AV160" s="5"/>
-      <c r="AW160" s="5"/>
-      <c r="AX160" s="5"/>
-      <c r="AY160" s="5"/>
-      <c r="AZ160" s="5"/>
-      <c r="BA160" s="5"/>
-      <c r="BB160" s="5"/>
-      <c r="BC160" s="5"/>
-      <c r="BD160" s="5"/>
-      <c r="BE160" s="5"/>
-      <c r="BF160" s="5"/>
-      <c r="BG160" s="5"/>
-      <c r="BH160" s="5"/>
-      <c r="BI160" s="5"/>
-      <c r="BJ160" s="5"/>
-      <c r="BK160" s="5"/>
-      <c r="BL160" s="5"/>
-      <c r="BM160" s="5"/>
-      <c r="BN160" s="5"/>
-      <c r="BO160" s="5"/>
-      <c r="BP160" s="5"/>
-      <c r="BQ160" s="5"/>
-      <c r="BR160" s="5"/>
-      <c r="BS160" s="5"/>
-      <c r="BT160" s="5"/>
-      <c r="BU160" s="5"/>
-      <c r="BV160" s="5"/>
-      <c r="BW160" s="5"/>
-      <c r="BX160" s="5"/>
-      <c r="BY160" s="5"/>
-      <c r="BZ160" s="5"/>
-      <c r="CA160" s="5"/>
-      <c r="CB160" s="5"/>
-      <c r="CC160" s="5"/>
-      <c r="CD160" s="5"/>
-      <c r="CE160" s="5"/>
-      <c r="CF160" s="5"/>
-      <c r="CG160" s="5"/>
-      <c r="CH160" s="5"/>
-      <c r="CI160" s="5"/>
-      <c r="CJ160" s="5"/>
-      <c r="CK160" s="5"/>
-      <c r="CL160" s="5"/>
-      <c r="CM160" s="5"/>
-      <c r="CN160" s="5"/>
-      <c r="CO160" s="5"/>
-      <c r="CP160" s="5"/>
-      <c r="CQ160" s="5"/>
-      <c r="CR160" s="5"/>
-      <c r="CS160" s="5"/>
-      <c r="CT160" s="5"/>
-      <c r="CU160" s="5"/>
-      <c r="CV160" s="5"/>
-      <c r="CW160" s="5"/>
-      <c r="CX160" s="5"/>
-      <c r="CY160" s="5"/>
-      <c r="CZ160" s="5"/>
-      <c r="DA160" s="5"/>
-      <c r="DB160" s="5"/>
-      <c r="DC160" s="5"/>
-      <c r="DD160" s="5"/>
-      <c r="DE160" s="5"/>
-      <c r="DF160" s="5"/>
-      <c r="DG160" s="5"/>
-      <c r="DH160" s="5"/>
-      <c r="DI160" s="5"/>
-      <c r="DJ160" s="5"/>
-      <c r="DK160" s="5"/>
-      <c r="DL160" s="5"/>
-      <c r="DM160" s="5"/>
-      <c r="DN160" s="5"/>
-      <c r="DO160" s="5"/>
-      <c r="DP160" s="5"/>
-      <c r="DQ160" s="5"/>
-      <c r="DR160" s="5"/>
-      <c r="DS160" s="5"/>
-      <c r="DT160" s="5"/>
-      <c r="DU160" s="5"/>
-      <c r="DV160" s="5"/>
-      <c r="DW160" s="5"/>
-      <c r="DX160" s="5"/>
-      <c r="DY160" s="5"/>
-      <c r="DZ160" s="5"/>
-      <c r="EA160" s="5"/>
-      <c r="EB160" s="5"/>
-      <c r="EC160" s="5"/>
-      <c r="ED160" s="5"/>
-      <c r="EE160" s="5"/>
-      <c r="EF160" s="5"/>
-      <c r="EG160" s="5"/>
-      <c r="EH160" s="5"/>
-      <c r="EI160" s="5"/>
-      <c r="EJ160" s="5"/>
-      <c r="EK160" s="5"/>
-      <c r="EL160" s="5"/>
-      <c r="EM160" s="5"/>
-      <c r="EN160" s="5"/>
-      <c r="EO160" s="5"/>
-      <c r="EP160" s="5"/>
-      <c r="EQ160" s="5"/>
-      <c r="ER160" s="5"/>
-      <c r="ES160" s="5"/>
-      <c r="ET160" s="5"/>
-      <c r="EU160" s="5"/>
-      <c r="EV160" s="5"/>
-      <c r="EW160" s="5"/>
-      <c r="EX160" s="5"/>
-      <c r="EY160" s="5"/>
-      <c r="EZ160" s="5"/>
-      <c r="FA160" s="5"/>
-      <c r="FB160" s="5"/>
-      <c r="FC160" s="5"/>
-      <c r="FD160" s="5"/>
-      <c r="FE160" s="5"/>
-      <c r="FF160" s="5"/>
-      <c r="FG160" s="5"/>
-      <c r="FH160" s="5"/>
-      <c r="FI160" s="5"/>
-      <c r="FJ160" s="5"/>
-      <c r="FK160" s="5"/>
-      <c r="FL160" s="5"/>
-      <c r="FM160" s="5"/>
-      <c r="FN160" s="5"/>
-      <c r="FO160" s="5"/>
-      <c r="FP160" s="5"/>
-      <c r="FQ160" s="5"/>
-      <c r="FR160" s="5"/>
-      <c r="FS160" s="5"/>
-      <c r="FT160" s="5"/>
-      <c r="FU160" s="5"/>
-      <c r="FV160" s="5"/>
-      <c r="FW160" s="5"/>
-      <c r="FX160" s="5"/>
-      <c r="FY160" s="5"/>
-      <c r="FZ160" s="5"/>
-      <c r="GA160" s="5"/>
-      <c r="GB160" s="5"/>
-      <c r="GC160" s="5"/>
-      <c r="GD160" s="5"/>
-      <c r="GE160" s="5"/>
-      <c r="GF160" s="5"/>
-      <c r="GG160" s="5"/>
-      <c r="GH160" s="5"/>
-      <c r="GI160" s="5"/>
-      <c r="GJ160" s="5"/>
-      <c r="GK160" s="5"/>
-      <c r="GL160" s="5"/>
-      <c r="GM160" s="5"/>
-      <c r="GN160" s="5"/>
-      <c r="GO160" s="5"/>
-      <c r="GP160" s="5"/>
-      <c r="GQ160" s="5"/>
-      <c r="GR160" s="5"/>
-      <c r="GS160" s="5"/>
-      <c r="GT160" s="5"/>
-      <c r="GU160" s="5"/>
-      <c r="GV160" s="5"/>
-      <c r="GW160" s="5"/>
-      <c r="GX160" s="5"/>
-      <c r="GY160" s="5"/>
-      <c r="GZ160" s="5"/>
-      <c r="HA160" s="5"/>
-      <c r="HB160" s="5"/>
-      <c r="HC160" s="5"/>
-      <c r="HD160" s="5"/>
-      <c r="HE160" s="5"/>
-      <c r="HF160" s="5"/>
-      <c r="HG160" s="5"/>
-      <c r="HH160" s="5"/>
-      <c r="HI160" s="5"/>
-      <c r="HJ160" s="5"/>
-      <c r="HK160" s="5"/>
-      <c r="HL160" s="5"/>
-      <c r="HM160" s="5"/>
-      <c r="HN160" s="5"/>
-      <c r="HO160" s="5"/>
-      <c r="HP160" s="5"/>
-      <c r="HQ160" s="5"/>
-      <c r="HR160" s="5"/>
-      <c r="HS160" s="5"/>
-      <c r="HT160" s="5"/>
-      <c r="HU160" s="5"/>
-      <c r="HV160" s="5"/>
-      <c r="HW160" s="5"/>
-      <c r="HX160" s="5"/>
-      <c r="HY160" s="5"/>
-      <c r="HZ160" s="5"/>
-      <c r="IA160" s="5"/>
-      <c r="IB160" s="5"/>
-      <c r="IC160" s="5"/>
-      <c r="ID160" s="5"/>
-      <c r="IE160" s="5"/>
-      <c r="IF160" s="5"/>
-      <c r="IG160" s="5"/>
-      <c r="IH160" s="5"/>
-      <c r="II160" s="5"/>
-      <c r="IJ160" s="5"/>
-      <c r="IK160" s="5"/>
-      <c r="IL160" s="5"/>
-      <c r="IM160" s="5"/>
-      <c r="IN160" s="5"/>
-      <c r="IO160" s="5"/>
-      <c r="IP160" s="5"/>
-      <c r="IQ160" s="5"/>
-      <c r="IR160" s="5"/>
-      <c r="IS160" s="5"/>
-      <c r="IT160" s="5"/>
-    </row>
-    <row r="161" spans="1:8" s="2" customFormat="1">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="35"/>
-      <c r="H161" s="4"/>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="7"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="31"/>
-      <c r="H162" s="7"/>
-    </row>
-    <row r="163" spans="1:8">
+    <row r="160" spans="1:8" s="2" customFormat="1">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="35"/>
+      <c r="H160" s="4"/>
+    </row>
+    <row r="161" spans="1:254" s="2" customFormat="1">
+      <c r="A161" s="22"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="22"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="36"/>
+      <c r="H161" s="22"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="5"/>
+      <c r="T161" s="5"/>
+      <c r="U161" s="5"/>
+      <c r="V161" s="5"/>
+      <c r="W161" s="5"/>
+      <c r="X161" s="5"/>
+      <c r="Y161" s="5"/>
+      <c r="Z161" s="5"/>
+      <c r="AA161" s="5"/>
+      <c r="AB161" s="5"/>
+      <c r="AC161" s="5"/>
+      <c r="AD161" s="5"/>
+      <c r="AE161" s="5"/>
+      <c r="AF161" s="5"/>
+      <c r="AG161" s="5"/>
+      <c r="AH161" s="5"/>
+      <c r="AI161" s="5"/>
+      <c r="AJ161" s="5"/>
+      <c r="AK161" s="5"/>
+      <c r="AL161" s="5"/>
+      <c r="AM161" s="5"/>
+      <c r="AN161" s="5"/>
+      <c r="AO161" s="5"/>
+      <c r="AP161" s="5"/>
+      <c r="AQ161" s="5"/>
+      <c r="AR161" s="5"/>
+      <c r="AS161" s="5"/>
+      <c r="AT161" s="5"/>
+      <c r="AU161" s="5"/>
+      <c r="AV161" s="5"/>
+      <c r="AW161" s="5"/>
+      <c r="AX161" s="5"/>
+      <c r="AY161" s="5"/>
+      <c r="AZ161" s="5"/>
+      <c r="BA161" s="5"/>
+      <c r="BB161" s="5"/>
+      <c r="BC161" s="5"/>
+      <c r="BD161" s="5"/>
+      <c r="BE161" s="5"/>
+      <c r="BF161" s="5"/>
+      <c r="BG161" s="5"/>
+      <c r="BH161" s="5"/>
+      <c r="BI161" s="5"/>
+      <c r="BJ161" s="5"/>
+      <c r="BK161" s="5"/>
+      <c r="BL161" s="5"/>
+      <c r="BM161" s="5"/>
+      <c r="BN161" s="5"/>
+      <c r="BO161" s="5"/>
+      <c r="BP161" s="5"/>
+      <c r="BQ161" s="5"/>
+      <c r="BR161" s="5"/>
+      <c r="BS161" s="5"/>
+      <c r="BT161" s="5"/>
+      <c r="BU161" s="5"/>
+      <c r="BV161" s="5"/>
+      <c r="BW161" s="5"/>
+      <c r="BX161" s="5"/>
+      <c r="BY161" s="5"/>
+      <c r="BZ161" s="5"/>
+      <c r="CA161" s="5"/>
+      <c r="CB161" s="5"/>
+      <c r="CC161" s="5"/>
+      <c r="CD161" s="5"/>
+      <c r="CE161" s="5"/>
+      <c r="CF161" s="5"/>
+      <c r="CG161" s="5"/>
+      <c r="CH161" s="5"/>
+      <c r="CI161" s="5"/>
+      <c r="CJ161" s="5"/>
+      <c r="CK161" s="5"/>
+      <c r="CL161" s="5"/>
+      <c r="CM161" s="5"/>
+      <c r="CN161" s="5"/>
+      <c r="CO161" s="5"/>
+      <c r="CP161" s="5"/>
+      <c r="CQ161" s="5"/>
+      <c r="CR161" s="5"/>
+      <c r="CS161" s="5"/>
+      <c r="CT161" s="5"/>
+      <c r="CU161" s="5"/>
+      <c r="CV161" s="5"/>
+      <c r="CW161" s="5"/>
+      <c r="CX161" s="5"/>
+      <c r="CY161" s="5"/>
+      <c r="CZ161" s="5"/>
+      <c r="DA161" s="5"/>
+      <c r="DB161" s="5"/>
+      <c r="DC161" s="5"/>
+      <c r="DD161" s="5"/>
+      <c r="DE161" s="5"/>
+      <c r="DF161" s="5"/>
+      <c r="DG161" s="5"/>
+      <c r="DH161" s="5"/>
+      <c r="DI161" s="5"/>
+      <c r="DJ161" s="5"/>
+      <c r="DK161" s="5"/>
+      <c r="DL161" s="5"/>
+      <c r="DM161" s="5"/>
+      <c r="DN161" s="5"/>
+      <c r="DO161" s="5"/>
+      <c r="DP161" s="5"/>
+      <c r="DQ161" s="5"/>
+      <c r="DR161" s="5"/>
+      <c r="DS161" s="5"/>
+      <c r="DT161" s="5"/>
+      <c r="DU161" s="5"/>
+      <c r="DV161" s="5"/>
+      <c r="DW161" s="5"/>
+      <c r="DX161" s="5"/>
+      <c r="DY161" s="5"/>
+      <c r="DZ161" s="5"/>
+      <c r="EA161" s="5"/>
+      <c r="EB161" s="5"/>
+      <c r="EC161" s="5"/>
+      <c r="ED161" s="5"/>
+      <c r="EE161" s="5"/>
+      <c r="EF161" s="5"/>
+      <c r="EG161" s="5"/>
+      <c r="EH161" s="5"/>
+      <c r="EI161" s="5"/>
+      <c r="EJ161" s="5"/>
+      <c r="EK161" s="5"/>
+      <c r="EL161" s="5"/>
+      <c r="EM161" s="5"/>
+      <c r="EN161" s="5"/>
+      <c r="EO161" s="5"/>
+      <c r="EP161" s="5"/>
+      <c r="EQ161" s="5"/>
+      <c r="ER161" s="5"/>
+      <c r="ES161" s="5"/>
+      <c r="ET161" s="5"/>
+      <c r="EU161" s="5"/>
+      <c r="EV161" s="5"/>
+      <c r="EW161" s="5"/>
+      <c r="EX161" s="5"/>
+      <c r="EY161" s="5"/>
+      <c r="EZ161" s="5"/>
+      <c r="FA161" s="5"/>
+      <c r="FB161" s="5"/>
+      <c r="FC161" s="5"/>
+      <c r="FD161" s="5"/>
+      <c r="FE161" s="5"/>
+      <c r="FF161" s="5"/>
+      <c r="FG161" s="5"/>
+      <c r="FH161" s="5"/>
+      <c r="FI161" s="5"/>
+      <c r="FJ161" s="5"/>
+      <c r="FK161" s="5"/>
+      <c r="FL161" s="5"/>
+      <c r="FM161" s="5"/>
+      <c r="FN161" s="5"/>
+      <c r="FO161" s="5"/>
+      <c r="FP161" s="5"/>
+      <c r="FQ161" s="5"/>
+      <c r="FR161" s="5"/>
+      <c r="FS161" s="5"/>
+      <c r="FT161" s="5"/>
+      <c r="FU161" s="5"/>
+      <c r="FV161" s="5"/>
+      <c r="FW161" s="5"/>
+      <c r="FX161" s="5"/>
+      <c r="FY161" s="5"/>
+      <c r="FZ161" s="5"/>
+      <c r="GA161" s="5"/>
+      <c r="GB161" s="5"/>
+      <c r="GC161" s="5"/>
+      <c r="GD161" s="5"/>
+      <c r="GE161" s="5"/>
+      <c r="GF161" s="5"/>
+      <c r="GG161" s="5"/>
+      <c r="GH161" s="5"/>
+      <c r="GI161" s="5"/>
+      <c r="GJ161" s="5"/>
+      <c r="GK161" s="5"/>
+      <c r="GL161" s="5"/>
+      <c r="GM161" s="5"/>
+      <c r="GN161" s="5"/>
+      <c r="GO161" s="5"/>
+      <c r="GP161" s="5"/>
+      <c r="GQ161" s="5"/>
+      <c r="GR161" s="5"/>
+      <c r="GS161" s="5"/>
+      <c r="GT161" s="5"/>
+      <c r="GU161" s="5"/>
+      <c r="GV161" s="5"/>
+      <c r="GW161" s="5"/>
+      <c r="GX161" s="5"/>
+      <c r="GY161" s="5"/>
+      <c r="GZ161" s="5"/>
+      <c r="HA161" s="5"/>
+      <c r="HB161" s="5"/>
+      <c r="HC161" s="5"/>
+      <c r="HD161" s="5"/>
+      <c r="HE161" s="5"/>
+      <c r="HF161" s="5"/>
+      <c r="HG161" s="5"/>
+      <c r="HH161" s="5"/>
+      <c r="HI161" s="5"/>
+      <c r="HJ161" s="5"/>
+      <c r="HK161" s="5"/>
+      <c r="HL161" s="5"/>
+      <c r="HM161" s="5"/>
+      <c r="HN161" s="5"/>
+      <c r="HO161" s="5"/>
+      <c r="HP161" s="5"/>
+      <c r="HQ161" s="5"/>
+      <c r="HR161" s="5"/>
+      <c r="HS161" s="5"/>
+      <c r="HT161" s="5"/>
+      <c r="HU161" s="5"/>
+      <c r="HV161" s="5"/>
+      <c r="HW161" s="5"/>
+      <c r="HX161" s="5"/>
+      <c r="HY161" s="5"/>
+      <c r="HZ161" s="5"/>
+      <c r="IA161" s="5"/>
+      <c r="IB161" s="5"/>
+      <c r="IC161" s="5"/>
+      <c r="ID161" s="5"/>
+      <c r="IE161" s="5"/>
+      <c r="IF161" s="5"/>
+      <c r="IG161" s="5"/>
+      <c r="IH161" s="5"/>
+      <c r="II161" s="5"/>
+      <c r="IJ161" s="5"/>
+      <c r="IK161" s="5"/>
+      <c r="IL161" s="5"/>
+      <c r="IM161" s="5"/>
+      <c r="IN161" s="5"/>
+      <c r="IO161" s="5"/>
+      <c r="IP161" s="5"/>
+      <c r="IQ161" s="5"/>
+      <c r="IR161" s="5"/>
+      <c r="IS161" s="5"/>
+      <c r="IT161" s="5"/>
+    </row>
+    <row r="162" spans="1:254" s="2" customFormat="1">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="35"/>
+      <c r="H162" s="4"/>
+    </row>
+    <row r="163" spans="1:254">
       <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
+      <c r="B163" s="6"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -6957,9 +7029,9 @@
       <c r="G163" s="31"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:254">
       <c r="A164" s="7"/>
-      <c r="B164" s="21"/>
+      <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -6967,9 +7039,9 @@
       <c r="G164" s="31"/>
       <c r="H164" s="7"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:254">
       <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
+      <c r="B165" s="21"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -6977,17 +7049,17 @@
       <c r="G165" s="31"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:254">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
-      <c r="C166" s="4"/>
+      <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
       <c r="G166" s="31"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:254">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="4"/>
@@ -6997,7 +7069,7 @@
       <c r="G167" s="31"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:254">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="4"/>
@@ -7007,7 +7079,7 @@
       <c r="G168" s="31"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:254">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="4"/>
@@ -7017,19 +7089,19 @@
       <c r="G169" s="31"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:254">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
+      <c r="C170" s="4"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
       <c r="G170" s="31"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:254">
       <c r="A171" s="7"/>
-      <c r="B171" s="23"/>
+      <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -7037,7 +7109,7 @@
       <c r="G171" s="31"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:254">
       <c r="A172" s="7"/>
       <c r="B172" s="23"/>
       <c r="C172" s="7"/>
@@ -7047,9 +7119,9 @@
       <c r="G172" s="31"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:254">
       <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
+      <c r="B173" s="23"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -7057,9 +7129,9 @@
       <c r="G173" s="31"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:254">
       <c r="A174" s="7"/>
-      <c r="B174" s="21"/>
+      <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -7067,7 +7139,7 @@
       <c r="G174" s="31"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:254">
       <c r="A175" s="7"/>
       <c r="B175" s="21"/>
       <c r="C175" s="7"/>
@@ -7077,9 +7149,9 @@
       <c r="G175" s="31"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:254">
       <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
+      <c r="B176" s="21"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -7099,7 +7171,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="7"/>
-      <c r="B178" s="21"/>
+      <c r="B178" s="7"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -7119,7 +7191,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="7"/>
+      <c r="B180" s="21"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -7139,7 +7211,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="21"/>
+      <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -7159,7 +7231,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7"/>
-      <c r="B184" s="7"/>
+      <c r="B184" s="21"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -7199,7 +7271,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="6"/>
+      <c r="B188" s="7"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -7209,8 +7281,8 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
@@ -7219,7 +7291,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="20"/>
+      <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -7289,7 +7361,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="7"/>
-      <c r="B197" s="4"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="4"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -7299,7 +7371,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="7"/>
-      <c r="B198" s="20"/>
+      <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -7309,7 +7381,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="7"/>
-      <c r="B199" s="22"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="4"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -7329,7 +7401,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="20"/>
+      <c r="B201" s="22"/>
       <c r="C201" s="4"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -7370,7 +7442,7 @@
     <row r="205" spans="1:8">
       <c r="A205" s="7"/>
       <c r="B205" s="20"/>
-      <c r="C205" s="7"/>
+      <c r="C205" s="4"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
       <c r="F205" s="7"/>
@@ -7379,7 +7451,7 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="7"/>
-      <c r="B206" s="4"/>
+      <c r="B206" s="20"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -7399,7 +7471,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="20"/>
+      <c r="B208" s="4"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -7459,7 +7531,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="7"/>
-      <c r="B214" s="22"/>
+      <c r="B214" s="20"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -7499,7 +7571,7 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="7"/>
-      <c r="B218" s="4"/>
+      <c r="B218" s="22"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -7509,7 +7581,7 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="7"/>
-      <c r="B219" s="6"/>
+      <c r="B219" s="4"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -7519,7 +7591,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="4"/>
+      <c r="B220" s="6"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -7529,7 +7601,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="20"/>
+      <c r="B221" s="4"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -7579,7 +7651,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="22"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -7589,7 +7661,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="20"/>
+      <c r="B227" s="22"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -7639,7 +7711,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="22"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -7699,7 +7771,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="4"/>
+      <c r="B238" s="22"/>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -7709,7 +7781,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="7"/>
-      <c r="B239" s="6"/>
+      <c r="B239" s="4"/>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -7719,8 +7791,8 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="7"/>
-      <c r="B240" s="4"/>
-      <c r="C240" s="4"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
       <c r="F240" s="7"/>
@@ -7729,7 +7801,7 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="7"/>
-      <c r="B241" s="20"/>
+      <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -7739,7 +7811,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="7"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -7749,7 +7821,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="21"/>
+      <c r="B243" s="7"/>
       <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -7789,7 +7861,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
+      <c r="B247" s="21"/>
       <c r="C247" s="4"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -7799,7 +7871,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="21"/>
+      <c r="B248" s="7"/>
       <c r="C248" s="4"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -7809,7 +7881,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="24"/>
+      <c r="B249" s="21"/>
       <c r="C249" s="4"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -7829,7 +7901,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="21"/>
+      <c r="B251" s="24"/>
       <c r="C251" s="4"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -7869,7 +7941,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="7"/>
+      <c r="B255" s="21"/>
       <c r="C255" s="4"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -7879,7 +7951,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="21"/>
+      <c r="B256" s="7"/>
       <c r="C256" s="4"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -7929,7 +8001,7 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="7"/>
-      <c r="B261" s="7"/>
+      <c r="B261" s="21"/>
       <c r="C261" s="4"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -7939,8 +8011,8 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="7"/>
-      <c r="B262" s="21"/>
-      <c r="C262" s="7"/>
+      <c r="B262" s="7"/>
+      <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
       <c r="F262" s="7"/>
@@ -7949,7 +8021,7 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="7"/>
-      <c r="B263" s="7"/>
+      <c r="B263" s="21"/>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -7959,7 +8031,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="7"/>
-      <c r="B264" s="21"/>
+      <c r="B264" s="7"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -7969,7 +8041,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="24"/>
+      <c r="B265" s="21"/>
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -8019,8 +8091,8 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="21"/>
-      <c r="C270" s="4"/>
+      <c r="B270" s="24"/>
+      <c r="C270" s="7"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
       <c r="F270" s="7"/>
@@ -8029,7 +8101,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="24"/>
+      <c r="B271" s="21"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -8039,7 +8111,7 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="7"/>
-      <c r="B272" s="25"/>
+      <c r="B272" s="24"/>
       <c r="C272" s="4"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -8069,7 +8141,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="26"/>
+      <c r="B275" s="25"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -8079,7 +8151,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="24"/>
+      <c r="B276" s="26"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -8119,7 +8191,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="7"/>
-      <c r="B280" s="25"/>
+      <c r="B280" s="24"/>
       <c r="C280" s="4"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -8149,7 +8221,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="24"/>
+      <c r="B283" s="25"/>
       <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -8159,7 +8231,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="25"/>
+      <c r="B284" s="24"/>
       <c r="C284" s="4"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -8167,15 +8239,15 @@
       <c r="G284" s="31"/>
       <c r="H284" s="7"/>
     </row>
-    <row r="285" spans="1:8" s="2" customFormat="1">
-      <c r="A285" s="4"/>
+    <row r="285" spans="1:8">
+      <c r="A285" s="7"/>
       <c r="B285" s="25"/>
       <c r="C285" s="4"/>
-      <c r="D285" s="4"/>
-      <c r="E285" s="4"/>
-      <c r="F285" s="4"/>
-      <c r="G285" s="35"/>
-      <c r="H285" s="4"/>
+      <c r="D285" s="7"/>
+      <c r="E285" s="7"/>
+      <c r="F285" s="7"/>
+      <c r="G285" s="31"/>
+      <c r="H285" s="7"/>
     </row>
     <row r="286" spans="1:8" s="2" customFormat="1">
       <c r="A286" s="4"/>
@@ -8187,19 +8259,19 @@
       <c r="G286" s="35"/>
       <c r="H286" s="4"/>
     </row>
-    <row r="287" spans="1:8">
-      <c r="A287" s="7"/>
+    <row r="287" spans="1:8" s="2" customFormat="1">
+      <c r="A287" s="4"/>
       <c r="B287" s="25"/>
       <c r="C287" s="4"/>
-      <c r="D287" s="7"/>
-      <c r="E287" s="7"/>
-      <c r="F287" s="7"/>
-      <c r="G287" s="31"/>
-      <c r="H287" s="7"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="4"/>
+      <c r="F287" s="4"/>
+      <c r="G287" s="35"/>
+      <c r="H287" s="4"/>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="7"/>
-      <c r="B288" s="24"/>
+      <c r="B288" s="25"/>
       <c r="C288" s="4"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -8209,7 +8281,7 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="7"/>
-      <c r="B289" s="25"/>
+      <c r="B289" s="24"/>
       <c r="C289" s="4"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
@@ -8239,7 +8311,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="23"/>
+      <c r="B292" s="25"/>
       <c r="C292" s="4"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -8249,7 +8321,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="7"/>
+      <c r="B293" s="23"/>
       <c r="C293" s="4"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
@@ -8269,7 +8341,7 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="7"/>
-      <c r="B295" s="21"/>
+      <c r="B295" s="7"/>
       <c r="C295" s="4"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
@@ -8289,7 +8361,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="7"/>
+      <c r="B297" s="21"/>
       <c r="C297" s="4"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -8320,7 +8392,7 @@
     <row r="300" spans="1:8">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
-      <c r="C300" s="7"/>
+      <c r="C300" s="4"/>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
       <c r="F300" s="7"/>
@@ -8329,7 +8401,7 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="7"/>
-      <c r="B301" s="6"/>
+      <c r="B301" s="7"/>
       <c r="C301" s="7"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
@@ -8339,7 +8411,7 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="7"/>
-      <c r="B302" s="7"/>
+      <c r="B302" s="6"/>
       <c r="C302" s="7"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
@@ -8419,7 +8491,7 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="7"/>
-      <c r="B310" s="6"/>
+      <c r="B310" s="7"/>
       <c r="C310" s="7"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
@@ -8429,8 +8501,8 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="7"/>
-      <c r="B311" s="4"/>
-      <c r="C311" s="4"/>
+      <c r="B311" s="6"/>
+      <c r="C311" s="7"/>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
       <c r="F311" s="7"/>
@@ -8439,7 +8511,7 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="7"/>
-      <c r="B312" s="20"/>
+      <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
@@ -8469,7 +8541,7 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="7"/>
-      <c r="B315" s="4"/>
+      <c r="B315" s="20"/>
       <c r="C315" s="4"/>
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
@@ -8529,7 +8601,7 @@
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="7"/>
-      <c r="B321" s="20"/>
+      <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="7"/>
       <c r="E321" s="7"/>
@@ -8549,7 +8621,7 @@
     </row>
     <row r="323" spans="1:8">
       <c r="A323" s="7"/>
-      <c r="B323" s="22"/>
+      <c r="B323" s="20"/>
       <c r="C323" s="4"/>
       <c r="D323" s="7"/>
       <c r="E323" s="7"/>
@@ -8559,8 +8631,8 @@
     </row>
     <row r="324" spans="1:8">
       <c r="A324" s="7"/>
-      <c r="B324" s="7"/>
-      <c r="C324" s="7"/>
+      <c r="B324" s="22"/>
+      <c r="C324" s="4"/>
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
@@ -8569,7 +8641,7 @@
     </row>
     <row r="325" spans="1:8">
       <c r="A325" s="7"/>
-      <c r="B325" s="6"/>
+      <c r="B325" s="7"/>
       <c r="C325" s="7"/>
       <c r="D325" s="7"/>
       <c r="E325" s="7"/>
@@ -8577,15 +8649,15 @@
       <c r="G325" s="31"/>
       <c r="H325" s="7"/>
     </row>
-    <row r="326" spans="1:8" s="2" customFormat="1">
-      <c r="A326" s="4"/>
-      <c r="B326" s="4"/>
-      <c r="C326" s="9"/>
-      <c r="D326" s="4"/>
-      <c r="E326" s="4"/>
-      <c r="F326" s="4"/>
-      <c r="G326" s="35"/>
-      <c r="H326" s="4"/>
+    <row r="326" spans="1:8">
+      <c r="A326" s="7"/>
+      <c r="B326" s="6"/>
+      <c r="C326" s="7"/>
+      <c r="D326" s="7"/>
+      <c r="E326" s="7"/>
+      <c r="F326" s="7"/>
+      <c r="G326" s="31"/>
+      <c r="H326" s="7"/>
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1">
       <c r="A327" s="4"/>
@@ -8609,7 +8681,7 @@
     </row>
     <row r="329" spans="1:8" s="2" customFormat="1">
       <c r="A329" s="4"/>
-      <c r="B329" s="20"/>
+      <c r="B329" s="4"/>
       <c r="C329" s="9"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -8659,8 +8731,8 @@
     </row>
     <row r="334" spans="1:8" s="2" customFormat="1">
       <c r="A334" s="4"/>
-      <c r="B334" s="27"/>
-      <c r="C334" s="4"/>
+      <c r="B334" s="20"/>
+      <c r="C334" s="9"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
@@ -8709,7 +8781,7 @@
     </row>
     <row r="339" spans="1:8" s="2" customFormat="1">
       <c r="A339" s="4"/>
-      <c r="B339" s="22"/>
+      <c r="B339" s="27"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -8759,7 +8831,7 @@
     </row>
     <row r="344" spans="1:8" s="2" customFormat="1">
       <c r="A344" s="4"/>
-      <c r="B344" s="20"/>
+      <c r="B344" s="22"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -8769,7 +8841,7 @@
     </row>
     <row r="345" spans="1:8" s="2" customFormat="1">
       <c r="A345" s="4"/>
-      <c r="B345" s="22"/>
+      <c r="B345" s="20"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -8779,7 +8851,7 @@
     </row>
     <row r="346" spans="1:8" s="2" customFormat="1">
       <c r="A346" s="4"/>
-      <c r="B346" s="4"/>
+      <c r="B346" s="22"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -8787,20 +8859,20 @@
       <c r="G346" s="35"/>
       <c r="H346" s="4"/>
     </row>
-    <row r="347" spans="1:8">
-      <c r="A347" s="7"/>
-      <c r="B347" s="6"/>
-      <c r="C347" s="7"/>
-      <c r="D347" s="7"/>
-      <c r="E347" s="7"/>
-      <c r="F347" s="7"/>
-      <c r="G347" s="31"/>
-      <c r="H347" s="7"/>
+    <row r="347" spans="1:8" s="2" customFormat="1">
+      <c r="A347" s="4"/>
+      <c r="B347" s="4"/>
+      <c r="C347" s="4"/>
+      <c r="D347" s="4"/>
+      <c r="E347" s="4"/>
+      <c r="F347" s="4"/>
+      <c r="G347" s="35"/>
+      <c r="H347" s="4"/>
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="7"/>
-      <c r="C348" s="4"/>
+      <c r="B348" s="6"/>
+      <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
@@ -8869,7 +8941,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="4"/>
+      <c r="B355" s="7"/>
       <c r="C355" s="4"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -8880,7 +8952,7 @@
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
       <c r="B356" s="4"/>
-      <c r="C356" s="7"/>
+      <c r="C356" s="4"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
       <c r="F356" s="7"/>
@@ -8889,7 +8961,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="6"/>
+      <c r="B357" s="4"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -8899,7 +8971,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="7"/>
+      <c r="B358" s="6"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -8909,7 +8981,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="23"/>
+      <c r="B359" s="7"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -8919,7 +8991,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="7"/>
+      <c r="B360" s="23"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -8959,7 +9031,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="6"/>
+      <c r="B364" s="7"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -8969,7 +9041,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="7"/>
+      <c r="B365" s="6"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -8979,7 +9051,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="21"/>
+      <c r="B366" s="7"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -9009,7 +9081,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="23"/>
+      <c r="B369" s="21"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -9019,7 +9091,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="21"/>
+      <c r="B370" s="23"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -9039,7 +9111,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="23"/>
+      <c r="B372" s="21"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -9049,7 +9121,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="21"/>
+      <c r="B373" s="23"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -9059,7 +9131,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="23"/>
+      <c r="B374" s="21"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -9069,7 +9141,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="21"/>
+      <c r="B375" s="23"/>
       <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
@@ -9099,7 +9171,7 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="7"/>
-      <c r="B378" s="7"/>
+      <c r="B378" s="21"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
@@ -9109,7 +9181,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="28"/>
+      <c r="B379" s="7"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -9119,7 +9191,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="23"/>
+      <c r="B380" s="28"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -9129,8 +9201,8 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="7"/>
-      <c r="C381" s="4"/>
+      <c r="B381" s="23"/>
+      <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
       <c r="F381" s="7"/>
@@ -9139,7 +9211,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
-      <c r="B382" s="21"/>
+      <c r="B382" s="7"/>
       <c r="C382" s="4"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
@@ -9169,7 +9241,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="7"/>
+      <c r="B385" s="21"/>
       <c r="C385" s="4"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -9199,7 +9271,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
-      <c r="B388" s="21"/>
+      <c r="B388" s="7"/>
       <c r="C388" s="4"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -9219,8 +9291,8 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
-      <c r="B390" s="7"/>
-      <c r="C390" s="7"/>
+      <c r="B390" s="21"/>
+      <c r="C390" s="4"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
@@ -9229,7 +9301,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="6"/>
+      <c r="B391" s="7"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -9239,7 +9311,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="7"/>
+      <c r="B392" s="6"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -9299,7 +9371,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="6"/>
+      <c r="B398" s="7"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -9309,7 +9381,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="7"/>
+      <c r="B399" s="6"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -9330,7 +9402,7 @@
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
       <c r="B401" s="7"/>
-      <c r="C401" s="4"/>
+      <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
       <c r="F401" s="7"/>
@@ -9339,7 +9411,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="21"/>
+      <c r="B402" s="7"/>
       <c r="C402" s="4"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -9350,7 +9422,7 @@
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
       <c r="B403" s="21"/>
-      <c r="C403" s="7"/>
+      <c r="C403" s="4"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
       <c r="F403" s="7"/>
@@ -9359,7 +9431,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="28"/>
+      <c r="B404" s="21"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -9369,7 +9441,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="23"/>
+      <c r="B405" s="28"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -9419,7 +9491,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="23"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -9429,7 +9501,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="6"/>
+      <c r="B411" s="7"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -9439,7 +9511,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
+      <c r="B412" s="6"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -9449,7 +9521,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="21"/>
+      <c r="B413" s="7"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -9459,7 +9531,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="23"/>
+      <c r="B414" s="21"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -9479,7 +9551,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="21"/>
+      <c r="B416" s="23"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -9519,7 +9591,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="7"/>
+      <c r="B420" s="21"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -9529,7 +9601,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="21"/>
+      <c r="B421" s="7"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -9549,7 +9621,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="23"/>
+      <c r="B423" s="21"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -9559,7 +9631,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="7"/>
+      <c r="B424" s="23"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -9569,7 +9641,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="7"/>
-      <c r="B425" s="6"/>
+      <c r="B425" s="7"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -9579,7 +9651,7 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" s="7"/>
-      <c r="B426" s="7"/>
+      <c r="B426" s="6"/>
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
@@ -9599,7 +9671,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="6"/>
+      <c r="B428" s="7"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -9609,7 +9681,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="7"/>
+      <c r="B429" s="6"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -9619,7 +9691,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="21"/>
+      <c r="B430" s="7"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -9639,7 +9711,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="7"/>
+      <c r="B432" s="21"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -9649,7 +9721,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="6"/>
+      <c r="B433" s="7"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -9659,7 +9731,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="7"/>
+      <c r="B434" s="6"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -9709,7 +9781,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
-      <c r="B439" s="6"/>
+      <c r="B439" s="7"/>
       <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
@@ -9719,7 +9791,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="7"/>
-      <c r="B440" s="7"/>
+      <c r="B440" s="6"/>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
@@ -9779,7 +9851,7 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="7"/>
-      <c r="B446" s="6"/>
+      <c r="B446" s="7"/>
       <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
@@ -9789,7 +9861,7 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="7"/>
-      <c r="B447" s="7"/>
+      <c r="B447" s="6"/>
       <c r="C447" s="7"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
@@ -9809,7 +9881,7 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
-      <c r="B449" s="6"/>
+      <c r="B449" s="7"/>
       <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
@@ -9819,7 +9891,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="4"/>
+      <c r="B450" s="6"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -9839,7 +9911,7 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
-      <c r="B452" s="7"/>
+      <c r="B452" s="4"/>
       <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
@@ -9869,7 +9941,7 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" s="7"/>
-      <c r="B455" s="6"/>
+      <c r="B455" s="7"/>
       <c r="C455" s="7"/>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
@@ -9879,8 +9951,8 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="7"/>
-      <c r="B456" s="7"/>
-      <c r="C456" s="4"/>
+      <c r="B456" s="6"/>
+      <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
       <c r="F456" s="7"/>
@@ -9930,7 +10002,7 @@
     <row r="461" spans="1:8">
       <c r="A461" s="7"/>
       <c r="B461" s="7"/>
-      <c r="C461" s="7"/>
+      <c r="C461" s="4"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
       <c r="F461" s="7"/>
@@ -9939,7 +10011,7 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" s="7"/>
-      <c r="B462" s="6"/>
+      <c r="B462" s="7"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -9949,8 +10021,8 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" s="7"/>
-      <c r="B463" s="7"/>
-      <c r="C463" s="4"/>
+      <c r="B463" s="6"/>
+      <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
       <c r="F463" s="7"/>
@@ -9990,7 +10062,7 @@
     <row r="467" spans="1:8">
       <c r="A467" s="7"/>
       <c r="B467" s="7"/>
-      <c r="C467" s="7"/>
+      <c r="C467" s="4"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
       <c r="F467" s="7"/>
@@ -9999,7 +10071,7 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="7"/>
-      <c r="B468" s="6"/>
+      <c r="B468" s="7"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
@@ -10009,7 +10081,7 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="7"/>
-      <c r="B469" s="23"/>
+      <c r="B469" s="6"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -10069,7 +10141,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="7"/>
+      <c r="B475" s="23"/>
       <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
@@ -10079,7 +10151,7 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="6"/>
+      <c r="B476" s="7"/>
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
@@ -10089,7 +10161,7 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="7"/>
-      <c r="B477" s="23"/>
+      <c r="B477" s="6"/>
       <c r="C477" s="7"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
@@ -10118,8 +10190,8 @@
       <c r="H479" s="7"/>
     </row>
     <row r="480" spans="1:8">
-      <c r="A480" s="6"/>
-      <c r="B480" s="7"/>
+      <c r="A480" s="7"/>
+      <c r="B480" s="23"/>
       <c r="C480" s="7"/>
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
@@ -10128,7 +10200,7 @@
       <c r="H480" s="7"/>
     </row>
     <row r="481" spans="1:8">
-      <c r="A481" s="7"/>
+      <c r="A481" s="6"/>
       <c r="B481" s="7"/>
       <c r="C481" s="7"/>
       <c r="D481" s="7"/>
@@ -10169,7 +10241,7 @@
     </row>
     <row r="485" spans="1:8">
       <c r="A485" s="7"/>
-      <c r="B485" s="29"/>
+      <c r="B485" s="7"/>
       <c r="C485" s="7"/>
       <c r="D485" s="7"/>
       <c r="E485" s="7"/>
@@ -10199,7 +10271,7 @@
     </row>
     <row r="488" spans="1:8">
       <c r="A488" s="7"/>
-      <c r="B488" s="7"/>
+      <c r="B488" s="29"/>
       <c r="C488" s="7"/>
       <c r="D488" s="7"/>
       <c r="E488" s="7"/>
@@ -10209,7 +10281,7 @@
     </row>
     <row r="489" spans="1:8">
       <c r="A489" s="7"/>
-      <c r="B489" s="29"/>
+      <c r="B489" s="7"/>
       <c r="C489" s="7"/>
       <c r="D489" s="7"/>
       <c r="E489" s="7"/>
@@ -10219,7 +10291,7 @@
     </row>
     <row r="490" spans="1:8">
       <c r="A490" s="7"/>
-      <c r="B490" s="7"/>
+      <c r="B490" s="29"/>
       <c r="C490" s="7"/>
       <c r="D490" s="7"/>
       <c r="E490" s="7"/>
@@ -10229,21 +10301,21 @@
     </row>
     <row r="491" spans="1:8">
       <c r="A491" s="7"/>
-      <c r="B491" s="30"/>
-      <c r="C491" s="31"/>
+      <c r="B491" s="7"/>
+      <c r="C491" s="7"/>
       <c r="D491" s="7"/>
       <c r="E491" s="7"/>
-      <c r="F491" s="30"/>
+      <c r="F491" s="7"/>
       <c r="G491" s="31"/>
       <c r="H491" s="7"/>
     </row>
     <row r="492" spans="1:8">
       <c r="A492" s="7"/>
-      <c r="B492" s="7"/>
-      <c r="C492" s="7"/>
+      <c r="B492" s="30"/>
+      <c r="C492" s="31"/>
       <c r="D492" s="7"/>
       <c r="E492" s="7"/>
-      <c r="F492" s="7"/>
+      <c r="F492" s="30"/>
       <c r="G492" s="31"/>
       <c r="H492" s="7"/>
     </row>
@@ -14147,6 +14219,16 @@
       <c r="G882" s="31"/>
       <c r="H882" s="7"/>
     </row>
+    <row r="883" spans="1:8">
+      <c r="A883" s="7"/>
+      <c r="B883" s="7"/>
+      <c r="C883" s="7"/>
+      <c r="D883" s="7"/>
+      <c r="E883" s="7"/>
+      <c r="F883" s="7"/>
+      <c r="G883" s="31"/>
+      <c r="H883" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="183">
   <si>
     <t>Feature</t>
   </si>
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>3.02.41</t>
+  </si>
+  <si>
+    <t>3.02.43</t>
   </si>
 </sst>
 </file>
@@ -812,8 +815,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.9197807133095488"/>
-          <c:h val="0.8962722852512004"/>
+          <c:w val="0.91978071330954891"/>
+          <c:h val="0.89627228525120028"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -845,10 +848,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$69</c:f>
+              <c:f>Progress!$A$48:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -914,16 +917,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>42203</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$69</c:f>
+              <c:f>Progress!$B$48:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -988,6 +994,9 @@
                   <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>179</c:v>
                 </c:pt>
               </c:numCache>
@@ -1021,10 +1030,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$69</c:f>
+              <c:f>Progress!$A$48:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1090,16 +1099,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>42203</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$69</c:f>
+              <c:f>Progress!$C$48:$C$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1164,6 +1176,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1197,10 +1212,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$69</c:f>
+              <c:f>Progress!$A$48:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1266,16 +1281,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>42203</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$69</c:f>
+              <c:f>Progress!$D$48:$D$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1340,6 +1358,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1373,10 +1394,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$69</c:f>
+              <c:f>Progress!$A$48:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1442,16 +1463,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>42203</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$73</c:f>
+              <c:f>Progress!$E$48:$E$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1518,21 +1542,24 @@
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="119860608"/>
-        <c:axId val="119678080"/>
+        <c:axId val="120647040"/>
+        <c:axId val="120464512"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="119860608"/>
+        <c:axId val="120647040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1565,7 +1592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119678080"/>
+        <c:crossAx val="120464512"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1575,7 +1602,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="119678080"/>
+        <c:axId val="120464512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,7 +1644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119860608"/>
+        <c:crossAx val="120647040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1707,7 +1734,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001121" r="0.75000000000001121" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001132" r="0.75000000000001132" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1761,7 +1788,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127206E-2"/>
+          <c:x val="4.4510450248127227E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1796,10 +1823,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$69</c:f>
+              <c:f>Progress!$A$48:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1865,16 +1892,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>42203</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$69</c:f>
+              <c:f>Progress!$G$48:$G$70</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1939,17 +1969,20 @@
                   <c:v>0.97802197802197799</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.97814207650273222</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.97814207650273222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="119691520"/>
-        <c:axId val="119701504"/>
+        <c:axId val="120477952"/>
+        <c:axId val="120483840"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="119691520"/>
+        <c:axId val="120477952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,13 +1990,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="119701504"/>
+        <c:crossAx val="120483840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="119701504"/>
+        <c:axId val="120483840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2006,7 +2039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119691520"/>
+        <c:crossAx val="120477952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2055,7 +2088,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001121" r="0.75000000000001121" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001132" r="0.75000000000001132" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2106,10 +2139,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$69</c:f>
+              <c:f>Progress!$A$48:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -2175,16 +2208,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>42203</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$69</c:f>
+              <c:f>Progress!$C$48:$C$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2249,6 +2285,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -2282,10 +2321,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$69</c:f>
+              <c:f>Progress!$A$48:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -2351,16 +2390,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>42203</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$69</c:f>
+              <c:f>Progress!$D$48:$D$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2425,17 +2467,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="119723136"/>
-        <c:axId val="119724672"/>
+        <c:axId val="120505472"/>
+        <c:axId val="120507008"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="119723136"/>
+        <c:axId val="120505472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,7 +2513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119724672"/>
+        <c:crossAx val="120507008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2479,7 +2524,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="119724672"/>
+        <c:axId val="120507008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2521,7 +2566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119723136"/>
+        <c:crossAx val="120505472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2570,7 +2615,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001121" r="0.75000000000001121" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001132" r="0.75000000000001132" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -5023,12 +5068,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT883"/>
+  <dimension ref="A1:IT884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E47" sqref="E46:E47"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5307,7 +5352,7 @@
         <v>32</v>
       </c>
       <c r="G49" s="31">
-        <f t="shared" ref="G49:G69" si="0">B49/SUM(B49:E49)</f>
+        <f t="shared" ref="G49:G70" si="0">B49/SUM(B49:E49)</f>
         <v>0.52830188679245282</v>
       </c>
       <c r="H49" s="7"/>
@@ -5807,19 +5852,34 @@
         <v>181</v>
       </c>
       <c r="G69" s="31">
+        <f t="shared" ref="G69" si="13">B69/SUM(B69:E69)</f>
+        <v>0.97814207650273222</v>
+      </c>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="12">
+        <v>42342</v>
+      </c>
+      <c r="B70" s="4">
+        <v>179</v>
+      </c>
+      <c r="C70" s="4">
+        <v>4</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="G70" s="31">
         <f t="shared" si="0"/>
         <v>0.97814207650273222</v>
       </c>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="12"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="31"/>
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:10">
@@ -5828,84 +5888,84 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="32"/>
+      <c r="F71" s="29"/>
       <c r="G71" s="31"/>
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="12"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B73" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D73" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E73" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F73" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="39">
-        <f>MIN(G69)</f>
+      <c r="G73" s="39">
+        <f>MIN(G70)</f>
         <v>0.97814207650273222</v>
       </c>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="40">
-        <f>SUM(B73:D73)</f>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="40">
+        <f>SUM(B74:D74)</f>
         <v>183</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B74" s="16">
         <f>Features!C233</f>
         <v>179</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C74" s="17">
         <f>Features!C234</f>
         <v>4</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D74" s="18">
         <f>Features!C235</f>
         <v>0</v>
       </c>
-      <c r="E73" s="19">
-        <f>MIN(E69)</f>
+      <c r="E74" s="19">
+        <f>MIN(E70)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="4"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="31"/>
       <c r="H74" s="7"/>
-      <c r="J74" s="37"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="4"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="31"/>
       <c r="H75" s="7"/>
+      <c r="J75" s="37"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="4"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -5915,7 +5975,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="4"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -5935,7 +5995,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="4"/>
-      <c r="B79" s="20"/>
+      <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -5955,7 +6015,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="4"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -5975,7 +6035,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="4"/>
-      <c r="B83" s="7"/>
+      <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -5985,7 +6045,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="4"/>
-      <c r="B84" s="21"/>
+      <c r="B84" s="7"/>
       <c r="C84" s="4"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -6004,7 +6064,7 @@
       <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="7"/>
+      <c r="A86" s="4"/>
       <c r="B86" s="21"/>
       <c r="C86" s="4"/>
       <c r="D86" s="7"/>
@@ -6015,7 +6075,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="4"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -6146,7 +6206,7 @@
     <row r="100" spans="1:8">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
+      <c r="C100" s="4"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -6155,7 +6215,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="7"/>
-      <c r="B101" s="6"/>
+      <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -6163,15 +6223,15 @@
       <c r="G101" s="31"/>
       <c r="H101" s="7"/>
     </row>
-    <row r="102" spans="1:8" s="2" customFormat="1">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="4"/>
+    <row r="102" spans="1:8">
+      <c r="A102" s="7"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8" s="2" customFormat="1">
       <c r="A103" s="4"/>
@@ -6345,7 +6405,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="6"/>
+      <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -6355,7 +6415,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
+      <c r="B121" s="6"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -6385,7 +6445,7 @@
     </row>
     <row r="124" spans="1:8" s="2" customFormat="1">
       <c r="A124" s="4"/>
-      <c r="B124" s="20"/>
+      <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -6425,7 +6485,7 @@
     </row>
     <row r="128" spans="1:8" s="2" customFormat="1">
       <c r="A128" s="4"/>
-      <c r="B128" s="22"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -6435,7 +6495,7 @@
     </row>
     <row r="129" spans="1:8" s="2" customFormat="1">
       <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -6445,7 +6505,7 @@
     </row>
     <row r="130" spans="1:8" s="2" customFormat="1">
       <c r="A130" s="4"/>
-      <c r="B130" s="6"/>
+      <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -6455,7 +6515,7 @@
     </row>
     <row r="131" spans="1:8" s="2" customFormat="1">
       <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
+      <c r="B131" s="6"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -6465,7 +6525,7 @@
     </row>
     <row r="132" spans="1:8" s="2" customFormat="1">
       <c r="A132" s="4"/>
-      <c r="B132" s="20"/>
+      <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -6485,7 +6545,7 @@
     </row>
     <row r="134" spans="1:8" s="2" customFormat="1">
       <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -6545,7 +6605,7 @@
     </row>
     <row r="140" spans="1:8" s="2" customFormat="1">
       <c r="A140" s="4"/>
-      <c r="B140" s="20"/>
+      <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -6645,7 +6705,7 @@
     </row>
     <row r="150" spans="1:8" s="2" customFormat="1">
       <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -6695,7 +6755,7 @@
     </row>
     <row r="155" spans="1:8" s="2" customFormat="1">
       <c r="A155" s="4"/>
-      <c r="B155" s="20"/>
+      <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -6715,7 +6775,7 @@
     </row>
     <row r="157" spans="1:8" s="2" customFormat="1">
       <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -6754,284 +6814,284 @@
       <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:254" s="2" customFormat="1">
-      <c r="A161" s="22"/>
-      <c r="B161" s="22"/>
-      <c r="C161" s="22"/>
-      <c r="D161" s="22"/>
-      <c r="E161" s="22"/>
-      <c r="F161" s="22"/>
-      <c r="G161" s="36"/>
-      <c r="H161" s="22"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="5"/>
-      <c r="K161" s="5"/>
-      <c r="L161" s="5"/>
-      <c r="M161" s="5"/>
-      <c r="N161" s="5"/>
-      <c r="O161" s="5"/>
-      <c r="P161" s="5"/>
-      <c r="Q161" s="5"/>
-      <c r="R161" s="5"/>
-      <c r="S161" s="5"/>
-      <c r="T161" s="5"/>
-      <c r="U161" s="5"/>
-      <c r="V161" s="5"/>
-      <c r="W161" s="5"/>
-      <c r="X161" s="5"/>
-      <c r="Y161" s="5"/>
-      <c r="Z161" s="5"/>
-      <c r="AA161" s="5"/>
-      <c r="AB161" s="5"/>
-      <c r="AC161" s="5"/>
-      <c r="AD161" s="5"/>
-      <c r="AE161" s="5"/>
-      <c r="AF161" s="5"/>
-      <c r="AG161" s="5"/>
-      <c r="AH161" s="5"/>
-      <c r="AI161" s="5"/>
-      <c r="AJ161" s="5"/>
-      <c r="AK161" s="5"/>
-      <c r="AL161" s="5"/>
-      <c r="AM161" s="5"/>
-      <c r="AN161" s="5"/>
-      <c r="AO161" s="5"/>
-      <c r="AP161" s="5"/>
-      <c r="AQ161" s="5"/>
-      <c r="AR161" s="5"/>
-      <c r="AS161" s="5"/>
-      <c r="AT161" s="5"/>
-      <c r="AU161" s="5"/>
-      <c r="AV161" s="5"/>
-      <c r="AW161" s="5"/>
-      <c r="AX161" s="5"/>
-      <c r="AY161" s="5"/>
-      <c r="AZ161" s="5"/>
-      <c r="BA161" s="5"/>
-      <c r="BB161" s="5"/>
-      <c r="BC161" s="5"/>
-      <c r="BD161" s="5"/>
-      <c r="BE161" s="5"/>
-      <c r="BF161" s="5"/>
-      <c r="BG161" s="5"/>
-      <c r="BH161" s="5"/>
-      <c r="BI161" s="5"/>
-      <c r="BJ161" s="5"/>
-      <c r="BK161" s="5"/>
-      <c r="BL161" s="5"/>
-      <c r="BM161" s="5"/>
-      <c r="BN161" s="5"/>
-      <c r="BO161" s="5"/>
-      <c r="BP161" s="5"/>
-      <c r="BQ161" s="5"/>
-      <c r="BR161" s="5"/>
-      <c r="BS161" s="5"/>
-      <c r="BT161" s="5"/>
-      <c r="BU161" s="5"/>
-      <c r="BV161" s="5"/>
-      <c r="BW161" s="5"/>
-      <c r="BX161" s="5"/>
-      <c r="BY161" s="5"/>
-      <c r="BZ161" s="5"/>
-      <c r="CA161" s="5"/>
-      <c r="CB161" s="5"/>
-      <c r="CC161" s="5"/>
-      <c r="CD161" s="5"/>
-      <c r="CE161" s="5"/>
-      <c r="CF161" s="5"/>
-      <c r="CG161" s="5"/>
-      <c r="CH161" s="5"/>
-      <c r="CI161" s="5"/>
-      <c r="CJ161" s="5"/>
-      <c r="CK161" s="5"/>
-      <c r="CL161" s="5"/>
-      <c r="CM161" s="5"/>
-      <c r="CN161" s="5"/>
-      <c r="CO161" s="5"/>
-      <c r="CP161" s="5"/>
-      <c r="CQ161" s="5"/>
-      <c r="CR161" s="5"/>
-      <c r="CS161" s="5"/>
-      <c r="CT161" s="5"/>
-      <c r="CU161" s="5"/>
-      <c r="CV161" s="5"/>
-      <c r="CW161" s="5"/>
-      <c r="CX161" s="5"/>
-      <c r="CY161" s="5"/>
-      <c r="CZ161" s="5"/>
-      <c r="DA161" s="5"/>
-      <c r="DB161" s="5"/>
-      <c r="DC161" s="5"/>
-      <c r="DD161" s="5"/>
-      <c r="DE161" s="5"/>
-      <c r="DF161" s="5"/>
-      <c r="DG161" s="5"/>
-      <c r="DH161" s="5"/>
-      <c r="DI161" s="5"/>
-      <c r="DJ161" s="5"/>
-      <c r="DK161" s="5"/>
-      <c r="DL161" s="5"/>
-      <c r="DM161" s="5"/>
-      <c r="DN161" s="5"/>
-      <c r="DO161" s="5"/>
-      <c r="DP161" s="5"/>
-      <c r="DQ161" s="5"/>
-      <c r="DR161" s="5"/>
-      <c r="DS161" s="5"/>
-      <c r="DT161" s="5"/>
-      <c r="DU161" s="5"/>
-      <c r="DV161" s="5"/>
-      <c r="DW161" s="5"/>
-      <c r="DX161" s="5"/>
-      <c r="DY161" s="5"/>
-      <c r="DZ161" s="5"/>
-      <c r="EA161" s="5"/>
-      <c r="EB161" s="5"/>
-      <c r="EC161" s="5"/>
-      <c r="ED161" s="5"/>
-      <c r="EE161" s="5"/>
-      <c r="EF161" s="5"/>
-      <c r="EG161" s="5"/>
-      <c r="EH161" s="5"/>
-      <c r="EI161" s="5"/>
-      <c r="EJ161" s="5"/>
-      <c r="EK161" s="5"/>
-      <c r="EL161" s="5"/>
-      <c r="EM161" s="5"/>
-      <c r="EN161" s="5"/>
-      <c r="EO161" s="5"/>
-      <c r="EP161" s="5"/>
-      <c r="EQ161" s="5"/>
-      <c r="ER161" s="5"/>
-      <c r="ES161" s="5"/>
-      <c r="ET161" s="5"/>
-      <c r="EU161" s="5"/>
-      <c r="EV161" s="5"/>
-      <c r="EW161" s="5"/>
-      <c r="EX161" s="5"/>
-      <c r="EY161" s="5"/>
-      <c r="EZ161" s="5"/>
-      <c r="FA161" s="5"/>
-      <c r="FB161" s="5"/>
-      <c r="FC161" s="5"/>
-      <c r="FD161" s="5"/>
-      <c r="FE161" s="5"/>
-      <c r="FF161" s="5"/>
-      <c r="FG161" s="5"/>
-      <c r="FH161" s="5"/>
-      <c r="FI161" s="5"/>
-      <c r="FJ161" s="5"/>
-      <c r="FK161" s="5"/>
-      <c r="FL161" s="5"/>
-      <c r="FM161" s="5"/>
-      <c r="FN161" s="5"/>
-      <c r="FO161" s="5"/>
-      <c r="FP161" s="5"/>
-      <c r="FQ161" s="5"/>
-      <c r="FR161" s="5"/>
-      <c r="FS161" s="5"/>
-      <c r="FT161" s="5"/>
-      <c r="FU161" s="5"/>
-      <c r="FV161" s="5"/>
-      <c r="FW161" s="5"/>
-      <c r="FX161" s="5"/>
-      <c r="FY161" s="5"/>
-      <c r="FZ161" s="5"/>
-      <c r="GA161" s="5"/>
-      <c r="GB161" s="5"/>
-      <c r="GC161" s="5"/>
-      <c r="GD161" s="5"/>
-      <c r="GE161" s="5"/>
-      <c r="GF161" s="5"/>
-      <c r="GG161" s="5"/>
-      <c r="GH161" s="5"/>
-      <c r="GI161" s="5"/>
-      <c r="GJ161" s="5"/>
-      <c r="GK161" s="5"/>
-      <c r="GL161" s="5"/>
-      <c r="GM161" s="5"/>
-      <c r="GN161" s="5"/>
-      <c r="GO161" s="5"/>
-      <c r="GP161" s="5"/>
-      <c r="GQ161" s="5"/>
-      <c r="GR161" s="5"/>
-      <c r="GS161" s="5"/>
-      <c r="GT161" s="5"/>
-      <c r="GU161" s="5"/>
-      <c r="GV161" s="5"/>
-      <c r="GW161" s="5"/>
-      <c r="GX161" s="5"/>
-      <c r="GY161" s="5"/>
-      <c r="GZ161" s="5"/>
-      <c r="HA161" s="5"/>
-      <c r="HB161" s="5"/>
-      <c r="HC161" s="5"/>
-      <c r="HD161" s="5"/>
-      <c r="HE161" s="5"/>
-      <c r="HF161" s="5"/>
-      <c r="HG161" s="5"/>
-      <c r="HH161" s="5"/>
-      <c r="HI161" s="5"/>
-      <c r="HJ161" s="5"/>
-      <c r="HK161" s="5"/>
-      <c r="HL161" s="5"/>
-      <c r="HM161" s="5"/>
-      <c r="HN161" s="5"/>
-      <c r="HO161" s="5"/>
-      <c r="HP161" s="5"/>
-      <c r="HQ161" s="5"/>
-      <c r="HR161" s="5"/>
-      <c r="HS161" s="5"/>
-      <c r="HT161" s="5"/>
-      <c r="HU161" s="5"/>
-      <c r="HV161" s="5"/>
-      <c r="HW161" s="5"/>
-      <c r="HX161" s="5"/>
-      <c r="HY161" s="5"/>
-      <c r="HZ161" s="5"/>
-      <c r="IA161" s="5"/>
-      <c r="IB161" s="5"/>
-      <c r="IC161" s="5"/>
-      <c r="ID161" s="5"/>
-      <c r="IE161" s="5"/>
-      <c r="IF161" s="5"/>
-      <c r="IG161" s="5"/>
-      <c r="IH161" s="5"/>
-      <c r="II161" s="5"/>
-      <c r="IJ161" s="5"/>
-      <c r="IK161" s="5"/>
-      <c r="IL161" s="5"/>
-      <c r="IM161" s="5"/>
-      <c r="IN161" s="5"/>
-      <c r="IO161" s="5"/>
-      <c r="IP161" s="5"/>
-      <c r="IQ161" s="5"/>
-      <c r="IR161" s="5"/>
-      <c r="IS161" s="5"/>
-      <c r="IT161" s="5"/>
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="35"/>
+      <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:254" s="2" customFormat="1">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="35"/>
-      <c r="H162" s="4"/>
-    </row>
-    <row r="163" spans="1:254">
-      <c r="A163" s="7"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="31"/>
-      <c r="H163" s="7"/>
+      <c r="A162" s="22"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="22"/>
+      <c r="E162" s="22"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="36"/>
+      <c r="H162" s="22"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="5"/>
+      <c r="S162" s="5"/>
+      <c r="T162" s="5"/>
+      <c r="U162" s="5"/>
+      <c r="V162" s="5"/>
+      <c r="W162" s="5"/>
+      <c r="X162" s="5"/>
+      <c r="Y162" s="5"/>
+      <c r="Z162" s="5"/>
+      <c r="AA162" s="5"/>
+      <c r="AB162" s="5"/>
+      <c r="AC162" s="5"/>
+      <c r="AD162" s="5"/>
+      <c r="AE162" s="5"/>
+      <c r="AF162" s="5"/>
+      <c r="AG162" s="5"/>
+      <c r="AH162" s="5"/>
+      <c r="AI162" s="5"/>
+      <c r="AJ162" s="5"/>
+      <c r="AK162" s="5"/>
+      <c r="AL162" s="5"/>
+      <c r="AM162" s="5"/>
+      <c r="AN162" s="5"/>
+      <c r="AO162" s="5"/>
+      <c r="AP162" s="5"/>
+      <c r="AQ162" s="5"/>
+      <c r="AR162" s="5"/>
+      <c r="AS162" s="5"/>
+      <c r="AT162" s="5"/>
+      <c r="AU162" s="5"/>
+      <c r="AV162" s="5"/>
+      <c r="AW162" s="5"/>
+      <c r="AX162" s="5"/>
+      <c r="AY162" s="5"/>
+      <c r="AZ162" s="5"/>
+      <c r="BA162" s="5"/>
+      <c r="BB162" s="5"/>
+      <c r="BC162" s="5"/>
+      <c r="BD162" s="5"/>
+      <c r="BE162" s="5"/>
+      <c r="BF162" s="5"/>
+      <c r="BG162" s="5"/>
+      <c r="BH162" s="5"/>
+      <c r="BI162" s="5"/>
+      <c r="BJ162" s="5"/>
+      <c r="BK162" s="5"/>
+      <c r="BL162" s="5"/>
+      <c r="BM162" s="5"/>
+      <c r="BN162" s="5"/>
+      <c r="BO162" s="5"/>
+      <c r="BP162" s="5"/>
+      <c r="BQ162" s="5"/>
+      <c r="BR162" s="5"/>
+      <c r="BS162" s="5"/>
+      <c r="BT162" s="5"/>
+      <c r="BU162" s="5"/>
+      <c r="BV162" s="5"/>
+      <c r="BW162" s="5"/>
+      <c r="BX162" s="5"/>
+      <c r="BY162" s="5"/>
+      <c r="BZ162" s="5"/>
+      <c r="CA162" s="5"/>
+      <c r="CB162" s="5"/>
+      <c r="CC162" s="5"/>
+      <c r="CD162" s="5"/>
+      <c r="CE162" s="5"/>
+      <c r="CF162" s="5"/>
+      <c r="CG162" s="5"/>
+      <c r="CH162" s="5"/>
+      <c r="CI162" s="5"/>
+      <c r="CJ162" s="5"/>
+      <c r="CK162" s="5"/>
+      <c r="CL162" s="5"/>
+      <c r="CM162" s="5"/>
+      <c r="CN162" s="5"/>
+      <c r="CO162" s="5"/>
+      <c r="CP162" s="5"/>
+      <c r="CQ162" s="5"/>
+      <c r="CR162" s="5"/>
+      <c r="CS162" s="5"/>
+      <c r="CT162" s="5"/>
+      <c r="CU162" s="5"/>
+      <c r="CV162" s="5"/>
+      <c r="CW162" s="5"/>
+      <c r="CX162" s="5"/>
+      <c r="CY162" s="5"/>
+      <c r="CZ162" s="5"/>
+      <c r="DA162" s="5"/>
+      <c r="DB162" s="5"/>
+      <c r="DC162" s="5"/>
+      <c r="DD162" s="5"/>
+      <c r="DE162" s="5"/>
+      <c r="DF162" s="5"/>
+      <c r="DG162" s="5"/>
+      <c r="DH162" s="5"/>
+      <c r="DI162" s="5"/>
+      <c r="DJ162" s="5"/>
+      <c r="DK162" s="5"/>
+      <c r="DL162" s="5"/>
+      <c r="DM162" s="5"/>
+      <c r="DN162" s="5"/>
+      <c r="DO162" s="5"/>
+      <c r="DP162" s="5"/>
+      <c r="DQ162" s="5"/>
+      <c r="DR162" s="5"/>
+      <c r="DS162" s="5"/>
+      <c r="DT162" s="5"/>
+      <c r="DU162" s="5"/>
+      <c r="DV162" s="5"/>
+      <c r="DW162" s="5"/>
+      <c r="DX162" s="5"/>
+      <c r="DY162" s="5"/>
+      <c r="DZ162" s="5"/>
+      <c r="EA162" s="5"/>
+      <c r="EB162" s="5"/>
+      <c r="EC162" s="5"/>
+      <c r="ED162" s="5"/>
+      <c r="EE162" s="5"/>
+      <c r="EF162" s="5"/>
+      <c r="EG162" s="5"/>
+      <c r="EH162" s="5"/>
+      <c r="EI162" s="5"/>
+      <c r="EJ162" s="5"/>
+      <c r="EK162" s="5"/>
+      <c r="EL162" s="5"/>
+      <c r="EM162" s="5"/>
+      <c r="EN162" s="5"/>
+      <c r="EO162" s="5"/>
+      <c r="EP162" s="5"/>
+      <c r="EQ162" s="5"/>
+      <c r="ER162" s="5"/>
+      <c r="ES162" s="5"/>
+      <c r="ET162" s="5"/>
+      <c r="EU162" s="5"/>
+      <c r="EV162" s="5"/>
+      <c r="EW162" s="5"/>
+      <c r="EX162" s="5"/>
+      <c r="EY162" s="5"/>
+      <c r="EZ162" s="5"/>
+      <c r="FA162" s="5"/>
+      <c r="FB162" s="5"/>
+      <c r="FC162" s="5"/>
+      <c r="FD162" s="5"/>
+      <c r="FE162" s="5"/>
+      <c r="FF162" s="5"/>
+      <c r="FG162" s="5"/>
+      <c r="FH162" s="5"/>
+      <c r="FI162" s="5"/>
+      <c r="FJ162" s="5"/>
+      <c r="FK162" s="5"/>
+      <c r="FL162" s="5"/>
+      <c r="FM162" s="5"/>
+      <c r="FN162" s="5"/>
+      <c r="FO162" s="5"/>
+      <c r="FP162" s="5"/>
+      <c r="FQ162" s="5"/>
+      <c r="FR162" s="5"/>
+      <c r="FS162" s="5"/>
+      <c r="FT162" s="5"/>
+      <c r="FU162" s="5"/>
+      <c r="FV162" s="5"/>
+      <c r="FW162" s="5"/>
+      <c r="FX162" s="5"/>
+      <c r="FY162" s="5"/>
+      <c r="FZ162" s="5"/>
+      <c r="GA162" s="5"/>
+      <c r="GB162" s="5"/>
+      <c r="GC162" s="5"/>
+      <c r="GD162" s="5"/>
+      <c r="GE162" s="5"/>
+      <c r="GF162" s="5"/>
+      <c r="GG162" s="5"/>
+      <c r="GH162" s="5"/>
+      <c r="GI162" s="5"/>
+      <c r="GJ162" s="5"/>
+      <c r="GK162" s="5"/>
+      <c r="GL162" s="5"/>
+      <c r="GM162" s="5"/>
+      <c r="GN162" s="5"/>
+      <c r="GO162" s="5"/>
+      <c r="GP162" s="5"/>
+      <c r="GQ162" s="5"/>
+      <c r="GR162" s="5"/>
+      <c r="GS162" s="5"/>
+      <c r="GT162" s="5"/>
+      <c r="GU162" s="5"/>
+      <c r="GV162" s="5"/>
+      <c r="GW162" s="5"/>
+      <c r="GX162" s="5"/>
+      <c r="GY162" s="5"/>
+      <c r="GZ162" s="5"/>
+      <c r="HA162" s="5"/>
+      <c r="HB162" s="5"/>
+      <c r="HC162" s="5"/>
+      <c r="HD162" s="5"/>
+      <c r="HE162" s="5"/>
+      <c r="HF162" s="5"/>
+      <c r="HG162" s="5"/>
+      <c r="HH162" s="5"/>
+      <c r="HI162" s="5"/>
+      <c r="HJ162" s="5"/>
+      <c r="HK162" s="5"/>
+      <c r="HL162" s="5"/>
+      <c r="HM162" s="5"/>
+      <c r="HN162" s="5"/>
+      <c r="HO162" s="5"/>
+      <c r="HP162" s="5"/>
+      <c r="HQ162" s="5"/>
+      <c r="HR162" s="5"/>
+      <c r="HS162" s="5"/>
+      <c r="HT162" s="5"/>
+      <c r="HU162" s="5"/>
+      <c r="HV162" s="5"/>
+      <c r="HW162" s="5"/>
+      <c r="HX162" s="5"/>
+      <c r="HY162" s="5"/>
+      <c r="HZ162" s="5"/>
+      <c r="IA162" s="5"/>
+      <c r="IB162" s="5"/>
+      <c r="IC162" s="5"/>
+      <c r="ID162" s="5"/>
+      <c r="IE162" s="5"/>
+      <c r="IF162" s="5"/>
+      <c r="IG162" s="5"/>
+      <c r="IH162" s="5"/>
+      <c r="II162" s="5"/>
+      <c r="IJ162" s="5"/>
+      <c r="IK162" s="5"/>
+      <c r="IL162" s="5"/>
+      <c r="IM162" s="5"/>
+      <c r="IN162" s="5"/>
+      <c r="IO162" s="5"/>
+      <c r="IP162" s="5"/>
+      <c r="IQ162" s="5"/>
+      <c r="IR162" s="5"/>
+      <c r="IS162" s="5"/>
+      <c r="IT162" s="5"/>
+    </row>
+    <row r="163" spans="1:254" s="2" customFormat="1">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="35"/>
+      <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:254">
       <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
+      <c r="B164" s="6"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -7041,7 +7101,7 @@
     </row>
     <row r="165" spans="1:254">
       <c r="A165" s="7"/>
-      <c r="B165" s="21"/>
+      <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -7051,7 +7111,7 @@
     </row>
     <row r="166" spans="1:254">
       <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="21"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -7062,7 +7122,7 @@
     <row r="167" spans="1:254">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
-      <c r="C167" s="4"/>
+      <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
@@ -7102,7 +7162,7 @@
     <row r="171" spans="1:254">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
+      <c r="C171" s="4"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
@@ -7111,7 +7171,7 @@
     </row>
     <row r="172" spans="1:254">
       <c r="A172" s="7"/>
-      <c r="B172" s="23"/>
+      <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -7131,7 +7191,7 @@
     </row>
     <row r="174" spans="1:254">
       <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
+      <c r="B174" s="23"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -7141,7 +7201,7 @@
     </row>
     <row r="175" spans="1:254">
       <c r="A175" s="7"/>
-      <c r="B175" s="21"/>
+      <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -7161,7 +7221,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="7"/>
-      <c r="B177" s="7"/>
+      <c r="B177" s="21"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -7181,7 +7241,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="21"/>
+      <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -7201,7 +7261,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="7"/>
+      <c r="B181" s="21"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -7221,7 +7281,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="21"/>
+      <c r="B183" s="7"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -7241,7 +7301,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="7"/>
-      <c r="B185" s="7"/>
+      <c r="B185" s="21"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -7281,7 +7341,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="6"/>
+      <c r="B189" s="7"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -7291,8 +7351,8 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
@@ -7301,7 +7361,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="7"/>
-      <c r="B191" s="20"/>
+      <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -7371,7 +7431,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="7"/>
-      <c r="B198" s="4"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="4"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -7381,7 +7441,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="7"/>
-      <c r="B199" s="20"/>
+      <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -7391,7 +7451,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="22"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="4"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -7411,7 +7471,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="20"/>
+      <c r="B202" s="22"/>
       <c r="C202" s="4"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -7452,7 +7512,7 @@
     <row r="206" spans="1:8">
       <c r="A206" s="7"/>
       <c r="B206" s="20"/>
-      <c r="C206" s="7"/>
+      <c r="C206" s="4"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
@@ -7461,7 +7521,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
-      <c r="B207" s="4"/>
+      <c r="B207" s="20"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -7481,7 +7541,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="20"/>
+      <c r="B209" s="4"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -7541,7 +7601,7 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="7"/>
-      <c r="B215" s="22"/>
+      <c r="B215" s="20"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -7581,7 +7641,7 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="7"/>
-      <c r="B219" s="4"/>
+      <c r="B219" s="22"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -7591,7 +7651,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="6"/>
+      <c r="B220" s="4"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -7601,7 +7661,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="4"/>
+      <c r="B221" s="6"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -7611,7 +7671,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="20"/>
+      <c r="B222" s="4"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -7661,7 +7721,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="22"/>
+      <c r="B227" s="20"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -7671,7 +7731,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="20"/>
+      <c r="B228" s="22"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -7721,7 +7781,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="22"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -7781,7 +7841,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="7"/>
-      <c r="B239" s="4"/>
+      <c r="B239" s="22"/>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -7791,7 +7851,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="7"/>
-      <c r="B240" s="6"/>
+      <c r="B240" s="4"/>
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -7801,8 +7861,8 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="7"/>
-      <c r="B241" s="4"/>
-      <c r="C241" s="4"/>
+      <c r="B241" s="6"/>
+      <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
       <c r="F241" s="7"/>
@@ -7811,7 +7871,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="20"/>
+      <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -7821,7 +7881,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="7"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -7831,7 +7891,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="21"/>
+      <c r="B244" s="7"/>
       <c r="C244" s="4"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -7871,7 +7931,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="7"/>
+      <c r="B248" s="21"/>
       <c r="C248" s="4"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -7881,7 +7941,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="21"/>
+      <c r="B249" s="7"/>
       <c r="C249" s="4"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -7891,7 +7951,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="7"/>
-      <c r="B250" s="24"/>
+      <c r="B250" s="21"/>
       <c r="C250" s="4"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -7911,7 +7971,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="21"/>
+      <c r="B252" s="24"/>
       <c r="C252" s="4"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -7951,7 +8011,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="7"/>
+      <c r="B256" s="21"/>
       <c r="C256" s="4"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -7961,7 +8021,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="21"/>
+      <c r="B257" s="7"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -8011,7 +8071,7 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="7"/>
-      <c r="B262" s="7"/>
+      <c r="B262" s="21"/>
       <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -8021,8 +8081,8 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="7"/>
-      <c r="B263" s="21"/>
-      <c r="C263" s="7"/>
+      <c r="B263" s="7"/>
+      <c r="C263" s="4"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
@@ -8031,7 +8091,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="7"/>
-      <c r="B264" s="7"/>
+      <c r="B264" s="21"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -8041,7 +8101,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="21"/>
+      <c r="B265" s="7"/>
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -8051,7 +8111,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="24"/>
+      <c r="B266" s="21"/>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -8101,8 +8161,8 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="21"/>
-      <c r="C271" s="4"/>
+      <c r="B271" s="24"/>
+      <c r="C271" s="7"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
       <c r="F271" s="7"/>
@@ -8111,7 +8171,7 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="7"/>
-      <c r="B272" s="24"/>
+      <c r="B272" s="21"/>
       <c r="C272" s="4"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -8121,7 +8181,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
-      <c r="B273" s="25"/>
+      <c r="B273" s="24"/>
       <c r="C273" s="4"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -8151,7 +8211,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="26"/>
+      <c r="B276" s="25"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -8161,7 +8221,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="24"/>
+      <c r="B277" s="26"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -8201,7 +8261,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
-      <c r="B281" s="25"/>
+      <c r="B281" s="24"/>
       <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -8231,7 +8291,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="24"/>
+      <c r="B284" s="25"/>
       <c r="C284" s="4"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -8241,7 +8301,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="7"/>
-      <c r="B285" s="25"/>
+      <c r="B285" s="24"/>
       <c r="C285" s="4"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -8249,15 +8309,15 @@
       <c r="G285" s="31"/>
       <c r="H285" s="7"/>
     </row>
-    <row r="286" spans="1:8" s="2" customFormat="1">
-      <c r="A286" s="4"/>
+    <row r="286" spans="1:8">
+      <c r="A286" s="7"/>
       <c r="B286" s="25"/>
       <c r="C286" s="4"/>
-      <c r="D286" s="4"/>
-      <c r="E286" s="4"/>
-      <c r="F286" s="4"/>
-      <c r="G286" s="35"/>
-      <c r="H286" s="4"/>
+      <c r="D286" s="7"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="7"/>
+      <c r="G286" s="31"/>
+      <c r="H286" s="7"/>
     </row>
     <row r="287" spans="1:8" s="2" customFormat="1">
       <c r="A287" s="4"/>
@@ -8269,19 +8329,19 @@
       <c r="G287" s="35"/>
       <c r="H287" s="4"/>
     </row>
-    <row r="288" spans="1:8">
-      <c r="A288" s="7"/>
+    <row r="288" spans="1:8" s="2" customFormat="1">
+      <c r="A288" s="4"/>
       <c r="B288" s="25"/>
       <c r="C288" s="4"/>
-      <c r="D288" s="7"/>
-      <c r="E288" s="7"/>
-      <c r="F288" s="7"/>
-      <c r="G288" s="31"/>
-      <c r="H288" s="7"/>
+      <c r="D288" s="4"/>
+      <c r="E288" s="4"/>
+      <c r="F288" s="4"/>
+      <c r="G288" s="35"/>
+      <c r="H288" s="4"/>
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="7"/>
-      <c r="B289" s="24"/>
+      <c r="B289" s="25"/>
       <c r="C289" s="4"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
@@ -8291,7 +8351,7 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="7"/>
-      <c r="B290" s="25"/>
+      <c r="B290" s="24"/>
       <c r="C290" s="4"/>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
@@ -8321,7 +8381,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="23"/>
+      <c r="B293" s="25"/>
       <c r="C293" s="4"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
@@ -8331,7 +8391,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="7"/>
+      <c r="B294" s="23"/>
       <c r="C294" s="4"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -8351,7 +8411,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="21"/>
+      <c r="B296" s="7"/>
       <c r="C296" s="4"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -8371,7 +8431,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="7"/>
-      <c r="B298" s="7"/>
+      <c r="B298" s="21"/>
       <c r="C298" s="4"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
@@ -8402,7 +8462,7 @@
     <row r="301" spans="1:8">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
-      <c r="C301" s="7"/>
+      <c r="C301" s="4"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
@@ -8411,7 +8471,7 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="7"/>
-      <c r="B302" s="6"/>
+      <c r="B302" s="7"/>
       <c r="C302" s="7"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
@@ -8421,7 +8481,7 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="7"/>
-      <c r="B303" s="7"/>
+      <c r="B303" s="6"/>
       <c r="C303" s="7"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -8501,7 +8561,7 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="7"/>
-      <c r="B311" s="6"/>
+      <c r="B311" s="7"/>
       <c r="C311" s="7"/>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
@@ -8511,8 +8571,8 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="7"/>
-      <c r="B312" s="4"/>
-      <c r="C312" s="4"/>
+      <c r="B312" s="6"/>
+      <c r="C312" s="7"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
@@ -8521,7 +8581,7 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="7"/>
-      <c r="B313" s="20"/>
+      <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
@@ -8551,7 +8611,7 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="7"/>
-      <c r="B316" s="4"/>
+      <c r="B316" s="20"/>
       <c r="C316" s="4"/>
       <c r="D316" s="7"/>
       <c r="E316" s="7"/>
@@ -8611,7 +8671,7 @@
     </row>
     <row r="322" spans="1:8">
       <c r="A322" s="7"/>
-      <c r="B322" s="20"/>
+      <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="7"/>
       <c r="E322" s="7"/>
@@ -8631,7 +8691,7 @@
     </row>
     <row r="324" spans="1:8">
       <c r="A324" s="7"/>
-      <c r="B324" s="22"/>
+      <c r="B324" s="20"/>
       <c r="C324" s="4"/>
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
@@ -8641,8 +8701,8 @@
     </row>
     <row r="325" spans="1:8">
       <c r="A325" s="7"/>
-      <c r="B325" s="7"/>
-      <c r="C325" s="7"/>
+      <c r="B325" s="22"/>
+      <c r="C325" s="4"/>
       <c r="D325" s="7"/>
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
@@ -8651,7 +8711,7 @@
     </row>
     <row r="326" spans="1:8">
       <c r="A326" s="7"/>
-      <c r="B326" s="6"/>
+      <c r="B326" s="7"/>
       <c r="C326" s="7"/>
       <c r="D326" s="7"/>
       <c r="E326" s="7"/>
@@ -8659,15 +8719,15 @@
       <c r="G326" s="31"/>
       <c r="H326" s="7"/>
     </row>
-    <row r="327" spans="1:8" s="2" customFormat="1">
-      <c r="A327" s="4"/>
-      <c r="B327" s="4"/>
-      <c r="C327" s="9"/>
-      <c r="D327" s="4"/>
-      <c r="E327" s="4"/>
-      <c r="F327" s="4"/>
-      <c r="G327" s="35"/>
-      <c r="H327" s="4"/>
+    <row r="327" spans="1:8">
+      <c r="A327" s="7"/>
+      <c r="B327" s="6"/>
+      <c r="C327" s="7"/>
+      <c r="D327" s="7"/>
+      <c r="E327" s="7"/>
+      <c r="F327" s="7"/>
+      <c r="G327" s="31"/>
+      <c r="H327" s="7"/>
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
@@ -8691,7 +8751,7 @@
     </row>
     <row r="330" spans="1:8" s="2" customFormat="1">
       <c r="A330" s="4"/>
-      <c r="B330" s="20"/>
+      <c r="B330" s="4"/>
       <c r="C330" s="9"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -8741,8 +8801,8 @@
     </row>
     <row r="335" spans="1:8" s="2" customFormat="1">
       <c r="A335" s="4"/>
-      <c r="B335" s="27"/>
-      <c r="C335" s="4"/>
+      <c r="B335" s="20"/>
+      <c r="C335" s="9"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
@@ -8791,7 +8851,7 @@
     </row>
     <row r="340" spans="1:8" s="2" customFormat="1">
       <c r="A340" s="4"/>
-      <c r="B340" s="22"/>
+      <c r="B340" s="27"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -8841,7 +8901,7 @@
     </row>
     <row r="345" spans="1:8" s="2" customFormat="1">
       <c r="A345" s="4"/>
-      <c r="B345" s="20"/>
+      <c r="B345" s="22"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -8851,7 +8911,7 @@
     </row>
     <row r="346" spans="1:8" s="2" customFormat="1">
       <c r="A346" s="4"/>
-      <c r="B346" s="22"/>
+      <c r="B346" s="20"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -8861,7 +8921,7 @@
     </row>
     <row r="347" spans="1:8" s="2" customFormat="1">
       <c r="A347" s="4"/>
-      <c r="B347" s="4"/>
+      <c r="B347" s="22"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -8869,20 +8929,20 @@
       <c r="G347" s="35"/>
       <c r="H347" s="4"/>
     </row>
-    <row r="348" spans="1:8">
-      <c r="A348" s="7"/>
-      <c r="B348" s="6"/>
-      <c r="C348" s="7"/>
-      <c r="D348" s="7"/>
-      <c r="E348" s="7"/>
-      <c r="F348" s="7"/>
-      <c r="G348" s="31"/>
-      <c r="H348" s="7"/>
+    <row r="348" spans="1:8" s="2" customFormat="1">
+      <c r="A348" s="4"/>
+      <c r="B348" s="4"/>
+      <c r="C348" s="4"/>
+      <c r="D348" s="4"/>
+      <c r="E348" s="4"/>
+      <c r="F348" s="4"/>
+      <c r="G348" s="35"/>
+      <c r="H348" s="4"/>
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="7"/>
-      <c r="C349" s="4"/>
+      <c r="B349" s="6"/>
+      <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
@@ -8951,7 +9011,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="4"/>
+      <c r="B356" s="7"/>
       <c r="C356" s="4"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -8962,7 +9022,7 @@
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
       <c r="B357" s="4"/>
-      <c r="C357" s="7"/>
+      <c r="C357" s="4"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
       <c r="F357" s="7"/>
@@ -8971,7 +9031,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="6"/>
+      <c r="B358" s="4"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -8981,7 +9041,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="7"/>
+      <c r="B359" s="6"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -8991,7 +9051,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="23"/>
+      <c r="B360" s="7"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -9001,7 +9061,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="7"/>
+      <c r="B361" s="23"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -9041,7 +9101,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="6"/>
+      <c r="B365" s="7"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -9051,7 +9111,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="7"/>
+      <c r="B366" s="6"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -9061,7 +9121,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="21"/>
+      <c r="B367" s="7"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -9091,7 +9151,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="23"/>
+      <c r="B370" s="21"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -9101,7 +9161,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="21"/>
+      <c r="B371" s="23"/>
       <c r="C371" s="7"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -9121,7 +9181,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="23"/>
+      <c r="B373" s="21"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -9131,7 +9191,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="21"/>
+      <c r="B374" s="23"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -9141,7 +9201,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="23"/>
+      <c r="B375" s="21"/>
       <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
@@ -9151,7 +9211,7 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="21"/>
+      <c r="B376" s="23"/>
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
@@ -9181,7 +9241,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="7"/>
+      <c r="B379" s="21"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -9191,7 +9251,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="28"/>
+      <c r="B380" s="7"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -9201,7 +9261,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="23"/>
+      <c r="B381" s="28"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -9211,8 +9271,8 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
-      <c r="B382" s="7"/>
-      <c r="C382" s="4"/>
+      <c r="B382" s="23"/>
+      <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
@@ -9221,7 +9281,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="21"/>
+      <c r="B383" s="7"/>
       <c r="C383" s="4"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -9251,7 +9311,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="7"/>
+      <c r="B386" s="21"/>
       <c r="C386" s="4"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -9281,7 +9341,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
-      <c r="B389" s="21"/>
+      <c r="B389" s="7"/>
       <c r="C389" s="4"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
@@ -9301,8 +9361,8 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="7"/>
-      <c r="C391" s="7"/>
+      <c r="B391" s="21"/>
+      <c r="C391" s="4"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
       <c r="F391" s="7"/>
@@ -9311,7 +9371,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="6"/>
+      <c r="B392" s="7"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -9321,7 +9381,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="7"/>
+      <c r="B393" s="6"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -9381,7 +9441,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="6"/>
+      <c r="B399" s="7"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -9391,7 +9451,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="7"/>
+      <c r="B400" s="6"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -9412,7 +9472,7 @@
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
       <c r="B402" s="7"/>
-      <c r="C402" s="4"/>
+      <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
       <c r="F402" s="7"/>
@@ -9421,7 +9481,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="21"/>
+      <c r="B403" s="7"/>
       <c r="C403" s="4"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -9432,7 +9492,7 @@
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
       <c r="B404" s="21"/>
-      <c r="C404" s="7"/>
+      <c r="C404" s="4"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
       <c r="F404" s="7"/>
@@ -9441,7 +9501,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="28"/>
+      <c r="B405" s="21"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -9451,7 +9511,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="23"/>
+      <c r="B406" s="28"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -9501,7 +9561,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
+      <c r="B411" s="23"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -9511,7 +9571,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="6"/>
+      <c r="B412" s="7"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -9521,7 +9581,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
+      <c r="B413" s="6"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -9531,7 +9591,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="21"/>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -9541,7 +9601,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="23"/>
+      <c r="B415" s="21"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -9561,7 +9621,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="21"/>
+      <c r="B417" s="23"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -9601,7 +9661,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
+      <c r="B421" s="21"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -9611,7 +9671,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="21"/>
+      <c r="B422" s="7"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -9631,7 +9691,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="23"/>
+      <c r="B424" s="21"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -9641,7 +9701,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="7"/>
-      <c r="B425" s="7"/>
+      <c r="B425" s="23"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -9651,7 +9711,7 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" s="7"/>
-      <c r="B426" s="6"/>
+      <c r="B426" s="7"/>
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
@@ -9661,7 +9721,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="7"/>
-      <c r="B427" s="7"/>
+      <c r="B427" s="6"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -9681,7 +9741,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="6"/>
+      <c r="B429" s="7"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -9691,7 +9751,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="7"/>
+      <c r="B430" s="6"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -9701,7 +9761,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="21"/>
+      <c r="B431" s="7"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -9721,7 +9781,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="7"/>
+      <c r="B433" s="21"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -9731,7 +9791,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="6"/>
+      <c r="B434" s="7"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -9741,7 +9801,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="7"/>
-      <c r="B435" s="7"/>
+      <c r="B435" s="6"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -9791,7 +9851,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="7"/>
-      <c r="B440" s="6"/>
+      <c r="B440" s="7"/>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
@@ -9801,7 +9861,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="7"/>
-      <c r="B441" s="7"/>
+      <c r="B441" s="6"/>
       <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
@@ -9861,7 +9921,7 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="7"/>
-      <c r="B447" s="6"/>
+      <c r="B447" s="7"/>
       <c r="C447" s="7"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
@@ -9871,7 +9931,7 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" s="7"/>
-      <c r="B448" s="7"/>
+      <c r="B448" s="6"/>
       <c r="C448" s="7"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
@@ -9891,7 +9951,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="6"/>
+      <c r="B450" s="7"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -9901,7 +9961,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="4"/>
+      <c r="B451" s="6"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -9921,7 +9981,7 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
-      <c r="B453" s="7"/>
+      <c r="B453" s="4"/>
       <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
@@ -9951,7 +10011,7 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="7"/>
-      <c r="B456" s="6"/>
+      <c r="B456" s="7"/>
       <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
@@ -9961,8 +10021,8 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="7"/>
-      <c r="C457" s="4"/>
+      <c r="B457" s="6"/>
+      <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
       <c r="F457" s="7"/>
@@ -10012,7 +10072,7 @@
     <row r="462" spans="1:8">
       <c r="A462" s="7"/>
       <c r="B462" s="7"/>
-      <c r="C462" s="7"/>
+      <c r="C462" s="4"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
       <c r="F462" s="7"/>
@@ -10021,7 +10081,7 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" s="7"/>
-      <c r="B463" s="6"/>
+      <c r="B463" s="7"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -10031,8 +10091,8 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" s="7"/>
-      <c r="B464" s="7"/>
-      <c r="C464" s="4"/>
+      <c r="B464" s="6"/>
+      <c r="C464" s="7"/>
       <c r="D464" s="7"/>
       <c r="E464" s="7"/>
       <c r="F464" s="7"/>
@@ -10072,7 +10132,7 @@
     <row r="468" spans="1:8">
       <c r="A468" s="7"/>
       <c r="B468" s="7"/>
-      <c r="C468" s="7"/>
+      <c r="C468" s="4"/>
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
       <c r="F468" s="7"/>
@@ -10081,7 +10141,7 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="7"/>
-      <c r="B469" s="6"/>
+      <c r="B469" s="7"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -10091,7 +10151,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="23"/>
+      <c r="B470" s="6"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -10151,7 +10211,7 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="7"/>
+      <c r="B476" s="23"/>
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
@@ -10161,7 +10221,7 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="7"/>
-      <c r="B477" s="6"/>
+      <c r="B477" s="7"/>
       <c r="C477" s="7"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
@@ -10171,7 +10231,7 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="7"/>
-      <c r="B478" s="23"/>
+      <c r="B478" s="6"/>
       <c r="C478" s="7"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
@@ -10200,8 +10260,8 @@
       <c r="H480" s="7"/>
     </row>
     <row r="481" spans="1:8">
-      <c r="A481" s="6"/>
-      <c r="B481" s="7"/>
+      <c r="A481" s="7"/>
+      <c r="B481" s="23"/>
       <c r="C481" s="7"/>
       <c r="D481" s="7"/>
       <c r="E481" s="7"/>
@@ -10210,7 +10270,7 @@
       <c r="H481" s="7"/>
     </row>
     <row r="482" spans="1:8">
-      <c r="A482" s="7"/>
+      <c r="A482" s="6"/>
       <c r="B482" s="7"/>
       <c r="C482" s="7"/>
       <c r="D482" s="7"/>
@@ -10251,7 +10311,7 @@
     </row>
     <row r="486" spans="1:8">
       <c r="A486" s="7"/>
-      <c r="B486" s="29"/>
+      <c r="B486" s="7"/>
       <c r="C486" s="7"/>
       <c r="D486" s="7"/>
       <c r="E486" s="7"/>
@@ -10281,7 +10341,7 @@
     </row>
     <row r="489" spans="1:8">
       <c r="A489" s="7"/>
-      <c r="B489" s="7"/>
+      <c r="B489" s="29"/>
       <c r="C489" s="7"/>
       <c r="D489" s="7"/>
       <c r="E489" s="7"/>
@@ -10291,7 +10351,7 @@
     </row>
     <row r="490" spans="1:8">
       <c r="A490" s="7"/>
-      <c r="B490" s="29"/>
+      <c r="B490" s="7"/>
       <c r="C490" s="7"/>
       <c r="D490" s="7"/>
       <c r="E490" s="7"/>
@@ -10301,7 +10361,7 @@
     </row>
     <row r="491" spans="1:8">
       <c r="A491" s="7"/>
-      <c r="B491" s="7"/>
+      <c r="B491" s="29"/>
       <c r="C491" s="7"/>
       <c r="D491" s="7"/>
       <c r="E491" s="7"/>
@@ -10311,21 +10371,21 @@
     </row>
     <row r="492" spans="1:8">
       <c r="A492" s="7"/>
-      <c r="B492" s="30"/>
-      <c r="C492" s="31"/>
+      <c r="B492" s="7"/>
+      <c r="C492" s="7"/>
       <c r="D492" s="7"/>
       <c r="E492" s="7"/>
-      <c r="F492" s="30"/>
+      <c r="F492" s="7"/>
       <c r="G492" s="31"/>
       <c r="H492" s="7"/>
     </row>
     <row r="493" spans="1:8">
       <c r="A493" s="7"/>
-      <c r="B493" s="7"/>
-      <c r="C493" s="7"/>
+      <c r="B493" s="30"/>
+      <c r="C493" s="31"/>
       <c r="D493" s="7"/>
       <c r="E493" s="7"/>
-      <c r="F493" s="7"/>
+      <c r="F493" s="30"/>
       <c r="G493" s="31"/>
       <c r="H493" s="7"/>
     </row>
@@ -14229,6 +14289,16 @@
       <c r="G883" s="31"/>
       <c r="H883" s="7"/>
     </row>
+    <row r="884" spans="1:8">
+      <c r="A884" s="7"/>
+      <c r="B884" s="7"/>
+      <c r="C884" s="7"/>
+      <c r="D884" s="7"/>
+      <c r="E884" s="7"/>
+      <c r="F884" s="7"/>
+      <c r="G884" s="31"/>
+      <c r="H884" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="8580" windowHeight="9252" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Features!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="212">
   <si>
     <t>Feature</t>
   </si>
@@ -272,9 +272,6 @@
     <t>generates new key for each save operation</t>
   </si>
   <si>
-    <t>clear clipboard on lock or exit</t>
-  </si>
-  <si>
     <t>interface language</t>
   </si>
   <si>
@@ -567,6 +564,96 @@
   </si>
   <si>
     <t>3.02.43</t>
+  </si>
+  <si>
+    <t>data v2</t>
+  </si>
+  <si>
+    <t>data v3</t>
+  </si>
+  <si>
+    <t>xsalsa20-poly1305</t>
+  </si>
+  <si>
+    <t>argon2id</t>
+  </si>
+  <si>
+    <t>memory safe encryption</t>
+  </si>
+  <si>
+    <t>clear password on lock or exit</t>
+  </si>
+  <si>
+    <t>Generate Password Dialog</t>
+  </si>
+  <si>
+    <t>alphabet</t>
+  </si>
+  <si>
+    <t>must include symbols</t>
+  </si>
+  <si>
+    <t>uppercase</t>
+  </si>
+  <si>
+    <t>lowercase</t>
+  </si>
+  <si>
+    <t>digits</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>8 .. 64</t>
+  </si>
+  <si>
+    <t>editable</t>
+  </si>
+  <si>
+    <t>generated password, not editable</t>
+  </si>
+  <si>
+    <t>taken from parent dialog</t>
+  </si>
+  <si>
+    <t>cancel button</t>
+  </si>
+  <si>
+    <t>generate button</t>
+  </si>
+  <si>
+    <t>ok button</t>
+  </si>
+  <si>
+    <t>generate password button</t>
+  </si>
+  <si>
+    <t>change button</t>
+  </si>
+  <si>
+    <t>add button</t>
+  </si>
+  <si>
+    <t>disabled when generating</t>
+  </si>
+  <si>
+    <t>disabled when error</t>
+  </si>
+  <si>
+    <t>error field</t>
+  </si>
+  <si>
+    <t>standard popup menu if clear</t>
+  </si>
+  <si>
+    <t>hide password in this dialog</t>
+  </si>
+  <si>
+    <t>latin</t>
+  </si>
+  <si>
+    <t>cyrillic</t>
   </si>
 </sst>
 </file>
@@ -776,7 +863,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -815,8 +923,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954891"/>
-          <c:h val="0.89627228525120028"/>
+          <c:w val="0.91978071330954903"/>
+          <c:h val="0.89627228525120017"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -848,10 +956,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$70</c:f>
+              <c:f>Progress!$A$48:$A$72</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:formatCode>dd-mm-yy</c:formatCode>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -920,16 +1028,22 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>42342</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$70</c:f>
+              <c:f>Progress!$B$48:$B$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -998,6 +1112,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,10 +1150,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$70</c:f>
+              <c:f>Progress!$A$48:$A$72</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:formatCode>dd-mm-yy</c:formatCode>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1102,16 +1222,22 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>42342</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$70</c:f>
+              <c:f>Progress!$C$48:$C$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1180,6 +1306,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,10 +1344,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$70</c:f>
+              <c:f>Progress!$A$48:$A$72</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:formatCode>dd-mm-yy</c:formatCode>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1284,16 +1416,22 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>42342</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$70</c:f>
+              <c:f>Progress!$D$48:$D$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1361,6 +1499,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1394,10 +1538,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$70</c:f>
+              <c:f>Progress!$A$48:$A$72</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:formatCode>dd-mm-yy</c:formatCode>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1466,16 +1610,22 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>42342</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$74</c:f>
+              <c:f>Progress!$E$48:$E$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1545,26 +1695,32 @@
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120647040"/>
-        <c:axId val="120464512"/>
+        <c:axId val="179489408"/>
+        <c:axId val="179499392"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120647040"/>
+        <c:axId val="179489408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/yyyy" sourceLinked="0"/>
+        <c:numFmt formatCode="m\/yyyy" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1592,17 +1748,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120464512"/>
+        <c:crossAx val="179499392"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
         <c:majorUnit val="1"/>
         <c:majorTimeUnit val="years"/>
-        <c:minorUnit val="1"/>
-        <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120464512"/>
+        <c:axId val="179499392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,9 +1798,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120647040"/>
+        <c:crossAx val="179489408"/>
         <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1734,7 +1888,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001132" r="0.75000000000001132" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001144" r="0.75000000000001144" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1788,7 +1942,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127227E-2"/>
+          <c:x val="4.4510450248127248E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1823,10 +1977,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$70</c:f>
+              <c:f>Progress!$A$48:$A$72</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:formatCode>dd-mm-yy</c:formatCode>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1895,16 +2049,22 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>42342</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$70</c:f>
+              <c:f>Progress!$G$48:$G$72</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1973,30 +2133,36 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.97814207650273222</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97814207650273222</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.85185185185185186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120477952"/>
-        <c:axId val="120483840"/>
+        <c:axId val="179316992"/>
+        <c:axId val="179470336"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120477952"/>
+        <c:axId val="179316992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120483840"/>
+        <c:crossAx val="179470336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120483840"/>
+        <c:axId val="179470336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2039,7 +2205,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120477952"/>
+        <c:crossAx val="179316992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2088,7 +2254,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001132" r="0.75000000000001132" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001144" r="0.75000000000001144" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2139,10 +2305,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$70</c:f>
+              <c:f>Progress!$A$48:$A$72</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:formatCode>dd-mm-yy</c:formatCode>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -2211,16 +2377,22 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>42342</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$70</c:f>
+              <c:f>Progress!$C$48:$C$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2289,6 +2461,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2321,10 +2499,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$70</c:f>
+              <c:f>Progress!$A$48:$A$72</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:formatCode>dd-mm-yy</c:formatCode>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -2393,16 +2571,22 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>42342</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$70</c:f>
+              <c:f>Progress!$D$48:$D$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2470,22 +2654,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120505472"/>
-        <c:axId val="120507008"/>
+        <c:axId val="179368320"/>
+        <c:axId val="179369856"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120505472"/>
+        <c:axId val="179368320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/yyyy" sourceLinked="0"/>
+        <c:numFmt formatCode="m\/yyyy" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2513,7 +2703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120507008"/>
+        <c:crossAx val="179369856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2524,7 +2714,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120507008"/>
+        <c:axId val="179369856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2566,7 +2756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120505472"/>
+        <c:crossAx val="179368320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2615,7 +2805,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001132" r="0.75000000000001132" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001144" r="0.75000000000001144" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2658,14 +2848,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2689,14 +2879,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -3073,21 +3263,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D238"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="45" customWidth="1"/>
-    <col min="2" max="2" width="72.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="72.85546875" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="45.83203125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="17.399999999999999">
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3119,7 +3309,7 @@
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="B6" s="7" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>2</v>
@@ -3127,8 +3317,8 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1">
-      <c r="B7" s="7" t="s">
-        <v>148</v>
+      <c r="B7" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>2</v>
@@ -3136,8 +3326,8 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
-      <c r="B8" s="7" t="s">
-        <v>83</v>
+      <c r="B8" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -3146,34 +3336,34 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="7" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
-      <c r="B10" s="7" t="s">
-        <v>78</v>
+      <c r="B10" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
-      <c r="B11" s="7" t="s">
-        <v>112</v>
+      <c r="B11" s="21" t="s">
+        <v>185</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
-      <c r="B12" s="7" t="s">
-        <v>147</v>
+      <c r="B12" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>14</v>
@@ -3181,13 +3371,17 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="B14" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>2</v>
@@ -3196,7 +3390,7 @@
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="B15" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>2</v>
@@ -3205,7 +3399,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="7" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>2</v>
@@ -3213,71 +3407,75 @@
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" s="6" customFormat="1">
-      <c r="B17" s="20"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" s="6" customFormat="1">
+      <c r="B20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" s="6" customFormat="1">
+      <c r="B21" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:4" s="6" customFormat="1">
+      <c r="B22" s="20"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:4" s="6" customFormat="1">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="2:4" s="6" customFormat="1">
+      <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:4" s="6" customFormat="1">
-      <c r="B20" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:4" s="6" customFormat="1">
-      <c r="B21" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="2:4" s="6" customFormat="1">
-      <c r="B22" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" s="6" customFormat="1">
-      <c r="B23" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:4" s="6" customFormat="1">
-      <c r="B24" s="23"/>
       <c r="C24" s="7"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
-      <c r="B25" s="23"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
-      <c r="B26" s="3" t="s">
-        <v>153</v>
+      <c r="B26" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>2</v>
@@ -3285,8 +3483,8 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
-      <c r="B27" s="23" t="s">
-        <v>154</v>
+      <c r="B27" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>2</v>
@@ -3294,8 +3492,8 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="21" t="s">
-        <v>35</v>
+      <c r="B28" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>2</v>
@@ -3303,24 +3501,18 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
-      <c r="B29" s="21" t="s">
-        <v>155</v>
-      </c>
+      <c r="B29" s="23"/>
       <c r="C29" s="7"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
-      <c r="B30" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
-      <c r="B31" s="24" t="s">
-        <v>107</v>
+      <c r="B31" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -3328,8 +3520,8 @@
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
-      <c r="B32" s="24" t="s">
-        <v>129</v>
+      <c r="B32" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>2</v>
@@ -3337,8 +3529,8 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
-      <c r="B33" s="23" t="s">
-        <v>156</v>
+      <c r="B33" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -3347,16 +3539,14 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C34" s="7"/>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="21" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -3364,8 +3554,8 @@
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="23" t="s">
-        <v>158</v>
+      <c r="B36" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -3373,54 +3563,62 @@
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="2:4" s="6" customFormat="1">
+      <c r="B38" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="2:4" s="6" customFormat="1">
+      <c r="B39" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="2:4" s="6" customFormat="1">
+      <c r="B40" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="2:4" s="6" customFormat="1">
+      <c r="B41" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="2:4" s="6" customFormat="1">
+      <c r="B42" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="2:4" s="6" customFormat="1">
+      <c r="B43" s="21" t="s">
         <v>108</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:4" s="6" customFormat="1">
-      <c r="B40" s="23"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="23"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="2:4" s="6" customFormat="1">
-      <c r="B43" s="23" t="s">
-        <v>64</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>2</v>
@@ -3429,7 +3627,7 @@
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
       <c r="B44" s="23" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>2</v>
@@ -3437,26 +3635,18 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="23" t="s">
-        <v>62</v>
+      <c r="B47" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>2</v>
@@ -3464,8 +3654,8 @@
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
-      <c r="B48" s="21" t="s">
-        <v>131</v>
+      <c r="B48" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>2</v>
@@ -3474,7 +3664,7 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="23" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>2</v>
@@ -3483,7 +3673,7 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="23" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>2</v>
@@ -3491,8 +3681,8 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="23" t="s">
-        <v>89</v>
+      <c r="B51" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>2</v>
@@ -3500,13 +3690,17 @@
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="23"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="23" t="s">
-        <v>67</v>
+      <c r="B53" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>2</v>
@@ -3515,7 +3709,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>2</v>
@@ -3523,8 +3717,8 @@
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
-      <c r="B55" s="21" t="s">
-        <v>68</v>
+      <c r="B55" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -3532,22 +3726,22 @@
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="23"/>
-      <c r="C56" s="7"/>
+      <c r="B56" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>2</v>
@@ -3556,7 +3750,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="23" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2</v>
@@ -3564,8 +3758,12 @@
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="23"/>
-      <c r="C60" s="7"/>
+      <c r="B60" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
@@ -3574,8 +3772,8 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="3" t="s">
-        <v>36</v>
+      <c r="B62" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>2</v>
@@ -3584,7 +3782,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="23" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>2</v>
@@ -3593,79 +3791,71 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="2:4" s="6" customFormat="1">
+      <c r="B65" s="23"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="2:4" s="6" customFormat="1">
+      <c r="B66" s="23"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="2:4" s="6" customFormat="1">
+      <c r="B67" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="2:4" s="6" customFormat="1">
+      <c r="B68" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="2:4" s="6" customFormat="1">
+      <c r="B69" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C65" s="7" t="s">
+      <c r="C69" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="2:4" s="6" customFormat="1">
+      <c r="B70" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>2</v>
       </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="21" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="23" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>2</v>
@@ -3674,7 +3864,7 @@
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
       <c r="B73" s="21" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>2</v>
@@ -3682,8 +3872,8 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="23" t="s">
-        <v>127</v>
+      <c r="B74" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>2</v>
@@ -3691,8 +3881,8 @@
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="21" t="s">
-        <v>125</v>
+      <c r="B75" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>2</v>
@@ -3700,8 +3890,8 @@
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="23" t="s">
-        <v>102</v>
+      <c r="B76" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>2</v>
@@ -3710,7 +3900,7 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="23" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>2</v>
@@ -3718,113 +3908,113 @@
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="20"/>
-      <c r="C78" s="4"/>
+      <c r="B78" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C81" s="9" t="s">
+      <c r="B81" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="20"/>
-      <c r="C82" s="4"/>
+      <c r="B82" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="4"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C84" s="7" t="s">
+      <c r="B84" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C85" s="7" t="s">
+      <c r="B85" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
       <c r="B86" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" s="6" customFormat="1">
+      <c r="B87" s="20"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="2:4" s="6" customFormat="1">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="2:4" s="6" customFormat="1">
+      <c r="B89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="2:4" s="6" customFormat="1">
+      <c r="B90" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="2:4" s="6" customFormat="1">
+      <c r="B91" s="21" t="s">
         <v>15</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="2:4" s="6" customFormat="1">
-      <c r="B91" s="24" t="s">
-        <v>42</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>2</v>
@@ -3833,7 +4023,7 @@
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
       <c r="B92" s="24" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>2</v>
@@ -3842,7 +4032,7 @@
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
       <c r="B93" s="24" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>2</v>
@@ -3851,7 +4041,7 @@
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
       <c r="B94" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>2</v>
@@ -3859,8 +4049,8 @@
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="21" t="s">
-        <v>20</v>
+      <c r="B95" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>2</v>
@@ -3869,7 +4059,7 @@
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
       <c r="B96" s="24" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>2</v>
@@ -3878,7 +4068,7 @@
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
       <c r="B97" s="24" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>2</v>
@@ -3887,7 +4077,7 @@
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
       <c r="B98" s="24" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>2</v>
@@ -3896,7 +4086,7 @@
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
       <c r="B99" s="24" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>2</v>
@@ -3904,8 +4094,8 @@
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
-      <c r="B100" s="24" t="s">
-        <v>44</v>
+      <c r="B100" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>2</v>
@@ -3914,7 +4104,7 @@
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
       <c r="B101" s="24" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>2</v>
@@ -3922,8 +4112,8 @@
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="21" t="s">
-        <v>16</v>
+      <c r="B102" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>2</v>
@@ -3932,7 +4122,7 @@
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
       <c r="B103" s="24" t="s">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>2</v>
@@ -3941,7 +4131,7 @@
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
       <c r="B104" s="24" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>2</v>
@@ -3950,7 +4140,7 @@
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
       <c r="B105" s="24" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>2</v>
@@ -3959,7 +4149,7 @@
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
       <c r="B106" s="24" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>2</v>
@@ -3967,8 +4157,8 @@
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="24" t="s">
-        <v>138</v>
+      <c r="B107" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>2</v>
@@ -3977,7 +4167,7 @@
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
       <c r="B108" s="24" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>2</v>
@@ -3986,66 +4176,66 @@
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="2:4" s="6" customFormat="1">
+      <c r="B110" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="2:4" s="6" customFormat="1">
+      <c r="B111" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="2:4" s="6" customFormat="1">
+      <c r="B112" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="2:4" s="6" customFormat="1">
+      <c r="B113" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="2:4" s="6" customFormat="1">
+      <c r="B114" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C109" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="23"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="23" t="s">
+      <c r="C114" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="2:4" s="6" customFormat="1">
+      <c r="B115" s="23"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="2:4" s="6" customFormat="1">
+      <c r="B116" s="23" t="s">
         <v>31</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="21" t="s">
-        <v>88</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>2</v>
@@ -4054,7 +4244,7 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="21" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>2</v>
@@ -4062,13 +4252,17 @@
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="23"/>
-      <c r="C118" s="7"/>
+      <c r="B118" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="23" t="s">
-        <v>27</v>
+      <c r="B119" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>2</v>
@@ -4077,7 +4271,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="21" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>2</v>
@@ -4085,13 +4279,17 @@
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="23"/>
-      <c r="C121" s="7"/>
+      <c r="B121" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="23" t="s">
-        <v>49</v>
+      <c r="B122" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>2</v>
@@ -4099,17 +4297,13 @@
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B123" s="23"/>
+      <c r="C123" s="7"/>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="24" t="s">
-        <v>169</v>
+      <c r="B124" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>2</v>
@@ -4118,52 +4312,48 @@
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
       <c r="B125" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="2:4" s="6" customFormat="1">
+      <c r="B126" s="23"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="2:4" s="6" customFormat="1">
+      <c r="B127" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="2:4" s="6" customFormat="1">
+      <c r="B128" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="2:4" s="6" customFormat="1">
+      <c r="B129" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="2:4" s="6" customFormat="1">
+      <c r="B130" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>2</v>
@@ -4172,7 +4362,7 @@
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
       <c r="B131" s="24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>2</v>
@@ -4180,8 +4370,8 @@
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="24" t="s">
-        <v>168</v>
+      <c r="B132" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>2</v>
@@ -4190,7 +4380,7 @@
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
       <c r="B133" s="25" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>2</v>
@@ -4198,8 +4388,8 @@
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="25" t="s">
-        <v>171</v>
+      <c r="B134" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>2</v>
@@ -4207,8 +4397,8 @@
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="21" t="s">
-        <v>53</v>
+      <c r="B135" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>2</v>
@@ -4217,7 +4407,7 @@
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
       <c r="B136" s="24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>2</v>
@@ -4225,63 +4415,71 @@
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="23" t="s">
+      <c r="B137" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="2:4" s="6" customFormat="1">
+      <c r="B138" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="2:4" s="6" customFormat="1">
+      <c r="B139" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="2:4" s="6" customFormat="1">
+      <c r="B140" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="2:4" s="6" customFormat="1">
+      <c r="B141" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="2:4" s="6" customFormat="1">
+      <c r="B142" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C137" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="23" t="s">
+      <c r="C142" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="2:4" s="6" customFormat="1">
+      <c r="B143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C138" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="23"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="23"/>
-      <c r="C143" s="7"/>
+      <c r="C143" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
       <c r="B144" s="23" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>2</v>
@@ -4289,116 +4487,108 @@
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B145" s="23"/>
+      <c r="C145" s="7"/>
       <c r="D145" s="4"/>
     </row>
+    <row r="146" spans="2:4" s="6" customFormat="1">
+      <c r="B146" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="2:4" s="6" customFormat="1">
+      <c r="B147" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="4"/>
+    </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B148" s="23"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
       <c r="B149" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="2:4" s="6" customFormat="1">
+      <c r="B150" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="153" spans="2:4" s="6" customFormat="1">
+      <c r="B153" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="2:4" s="6" customFormat="1">
+      <c r="B154" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C149" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D149" s="4"/>
-    </row>
-    <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D150" s="4"/>
-    </row>
-    <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="23" t="s">
+      <c r="C154" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="2:4" s="6" customFormat="1">
+      <c r="B155" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="2:4" s="6" customFormat="1">
+      <c r="B156" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C151" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D151" s="4"/>
-    </row>
-    <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="23" t="s">
+      <c r="C156" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="2:4" s="6" customFormat="1">
+      <c r="B157" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="2:4" s="6" customFormat="1">
+      <c r="B158" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C153" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D154" s="4"/>
-    </row>
-    <row r="155" spans="2:4" s="6" customFormat="1">
-      <c r="B155" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D155" s="4"/>
-    </row>
-    <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D156" s="4"/>
-    </row>
-    <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="21" t="s">
-        <v>93</v>
-      </c>
       <c r="C158" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="23" t="s">
-        <v>95</v>
+      <c r="B159" s="24" t="s">
+        <v>172</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>2</v>
@@ -4407,7 +4597,7 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>2</v>
@@ -4415,8 +4605,8 @@
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="23" t="s">
-        <v>53</v>
+      <c r="B161" s="21" t="s">
+        <v>173</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>2</v>
@@ -4424,8 +4614,8 @@
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="24" t="s">
-        <v>169</v>
+      <c r="B162" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>2</v>
@@ -4433,18 +4623,26 @@
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="23"/>
-      <c r="C163" s="7"/>
+      <c r="B163" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
-      <c r="B164" s="23"/>
-      <c r="C164" s="7"/>
+      <c r="B164" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="3" t="s">
-        <v>96</v>
+      <c r="B165" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>2</v>
@@ -4453,7 +4651,7 @@
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>2</v>
@@ -4461,8 +4659,8 @@
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="23" t="s">
-        <v>91</v>
+      <c r="B167" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>2</v>
@@ -4470,26 +4668,22 @@
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B168" s="23"/>
+      <c r="C168" s="7"/>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
       <c r="B169" s="23" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="21" t="s">
-        <v>93</v>
+      <c r="B170" s="23" t="s">
+        <v>199</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>2</v>
@@ -4498,7 +4692,7 @@
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
       <c r="B171" s="23" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>2</v>
@@ -4506,12 +4700,8 @@
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B172" s="23"/>
+      <c r="C172" s="7"/>
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
@@ -4520,13 +4710,17 @@
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="23"/>
-      <c r="C174" s="7"/>
+      <c r="B174" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="3" t="s">
-        <v>143</v>
+      <c r="B175" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>2</v>
@@ -4535,7 +4729,7 @@
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
       <c r="B176" s="23" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>2</v>
@@ -4543,8 +4737,8 @@
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="23" t="s">
-        <v>52</v>
+      <c r="B177" s="21" t="s">
+        <v>173</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>2</v>
@@ -4562,7 +4756,7 @@
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
       <c r="B179" s="21" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>2</v>
@@ -4571,7 +4765,7 @@
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
       <c r="B180" s="23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>2</v>
@@ -4579,8 +4773,8 @@
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="21" t="s">
-        <v>93</v>
+      <c r="B181" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>2</v>
@@ -4588,54 +4782,50 @@
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B182" s="23"/>
+      <c r="C182" s="7"/>
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
       <c r="B183" s="23" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="23"/>
-      <c r="C184" s="7"/>
+      <c r="B184" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="23"/>
-      <c r="C185" s="7"/>
+      <c r="B185" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B186" s="23"/>
+      <c r="C186" s="7"/>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B187" s="23"/>
+      <c r="C187" s="7"/>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="21" t="s">
-        <v>85</v>
+      <c r="B188" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>2</v>
@@ -4643,8 +4833,8 @@
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="24" t="s">
-        <v>150</v>
+      <c r="B189" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>2</v>
@@ -4652,8 +4842,8 @@
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="24" t="s">
-        <v>122</v>
+      <c r="B190" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>2</v>
@@ -4661,8 +4851,8 @@
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="24" t="s">
-        <v>146</v>
+      <c r="B191" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>2</v>
@@ -4671,7 +4861,7 @@
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
       <c r="B192" s="21" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>2</v>
@@ -4679,17 +4869,17 @@
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="24" t="s">
-        <v>180</v>
+      <c r="B193" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="23" t="s">
-        <v>58</v>
+      <c r="B194" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>2</v>
@@ -4697,8 +4887,8 @@
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="21" t="s">
-        <v>176</v>
+      <c r="B195" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>2</v>
@@ -4707,7 +4897,7 @@
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
       <c r="B196" s="23" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>2</v>
@@ -4726,327 +4916,674 @@
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
       <c r="B199" s="3" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="23" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="23" t="s">
-        <v>118</v>
+      <c r="B201" s="21" t="s">
+        <v>210</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="23" t="s">
-        <v>117</v>
+      <c r="B202" s="21" t="s">
+        <v>211</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
       <c r="B203" s="23" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
       <c r="B204" s="23" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D204" s="4"/>
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
-      <c r="B205" s="21" t="s">
-        <v>121</v>
+      <c r="B205" s="23" t="s">
+        <v>192</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D205" s="4"/>
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="21" t="s">
-        <v>122</v>
+      <c r="B206" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D206" s="4"/>
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="21" t="s">
-        <v>146</v>
+      <c r="B207" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
       <c r="B208" s="21" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
       <c r="B209" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C209" s="7"/>
+        <v>196</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C210" s="7"/>
+      <c r="B210" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
-      <c r="B211" s="21"/>
-      <c r="C211" s="7"/>
+      <c r="B211" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="21"/>
-      <c r="C212" s="7"/>
+      <c r="B212" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B213" s="23"/>
+      <c r="C213" s="7"/>
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
       <c r="B214" s="23" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
-      <c r="B215" s="23" t="s">
-        <v>141</v>
+      <c r="B215" s="21" t="s">
+        <v>198</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B216" s="23"/>
+      <c r="C216" s="7"/>
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
-      <c r="B217" s="23"/>
-      <c r="C217" s="7"/>
+      <c r="B217" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="23"/>
-      <c r="C218" s="7"/>
+      <c r="B218" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="3" t="s">
-        <v>74</v>
+      <c r="B219" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
       <c r="B220" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D220" s="4"/>
+    </row>
+    <row r="221" spans="2:4" s="6" customFormat="1">
+      <c r="B221" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="2:4" s="6" customFormat="1">
+      <c r="B222" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D222" s="4"/>
+    </row>
+    <row r="223" spans="2:4" s="6" customFormat="1">
+      <c r="B223" s="23"/>
+      <c r="C223" s="7"/>
+      <c r="D223" s="4"/>
+    </row>
+    <row r="224" spans="2:4" s="6" customFormat="1">
+      <c r="B224" s="23"/>
+      <c r="C224" s="7"/>
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="2:4" s="6" customFormat="1">
+      <c r="B225" s="23"/>
+      <c r="C225" s="7"/>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="2:4" s="6" customFormat="1">
+      <c r="B226" s="23"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="2:4" s="6" customFormat="1">
+      <c r="B227" s="23"/>
+      <c r="C227" s="7"/>
+      <c r="D227" s="4"/>
+    </row>
+    <row r="228" spans="2:4" s="6" customFormat="1">
+      <c r="B228" s="23"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="4"/>
+    </row>
+    <row r="229" spans="2:4" s="6" customFormat="1">
+      <c r="B229" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="2:4" s="6" customFormat="1">
+      <c r="B230" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="2:4" s="6" customFormat="1">
+      <c r="B231" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="4"/>
+    </row>
+    <row r="232" spans="2:4" s="6" customFormat="1">
+      <c r="B232" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232" s="4"/>
+    </row>
+    <row r="233" spans="2:4" s="6" customFormat="1">
+      <c r="B233" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" s="4"/>
+    </row>
+    <row r="234" spans="2:4" s="6" customFormat="1">
+      <c r="B234" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" s="4"/>
+    </row>
+    <row r="235" spans="2:4" s="6" customFormat="1">
+      <c r="B235" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="4"/>
+    </row>
+    <row r="236" spans="2:4" s="6" customFormat="1">
+      <c r="B236" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D236" s="4"/>
+    </row>
+    <row r="237" spans="2:4" s="6" customFormat="1">
+      <c r="B237" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237" s="4"/>
+    </row>
+    <row r="238" spans="2:4" s="6" customFormat="1">
+      <c r="B238" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="4"/>
+    </row>
+    <row r="239" spans="2:4" s="6" customFormat="1">
+      <c r="B239" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D239" s="4"/>
+    </row>
+    <row r="240" spans="2:4" s="6" customFormat="1">
+      <c r="B240" s="23"/>
+      <c r="C240" s="7"/>
+      <c r="D240" s="4"/>
+    </row>
+    <row r="241" spans="2:4" s="6" customFormat="1">
+      <c r="B241" s="23"/>
+      <c r="C241" s="7"/>
+      <c r="D241" s="4"/>
+    </row>
+    <row r="242" spans="2:4" s="6" customFormat="1">
+      <c r="B242" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" s="4"/>
+    </row>
+    <row r="243" spans="2:4" s="6" customFormat="1">
+      <c r="B243" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243" s="4"/>
+    </row>
+    <row r="244" spans="2:4" s="6" customFormat="1">
+      <c r="B244" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" s="4"/>
+    </row>
+    <row r="245" spans="2:4" s="6" customFormat="1">
+      <c r="B245" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" s="4"/>
+    </row>
+    <row r="246" spans="2:4" s="6" customFormat="1">
+      <c r="B246" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="2:4" s="6" customFormat="1">
+      <c r="B247" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="2:4" s="6" customFormat="1">
+      <c r="B248" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" s="4"/>
+    </row>
+    <row r="249" spans="2:4" s="6" customFormat="1">
+      <c r="B249" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="2:4" s="6" customFormat="1">
+      <c r="B250" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" s="4"/>
+    </row>
+    <row r="251" spans="2:4" s="6" customFormat="1">
+      <c r="B251" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" s="4"/>
+    </row>
+    <row r="252" spans="2:4" s="6" customFormat="1">
+      <c r="B252" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C252" s="7"/>
+      <c r="D252" s="4"/>
+    </row>
+    <row r="253" spans="2:4" s="6" customFormat="1">
+      <c r="B253" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C253" s="7"/>
+      <c r="D253" s="4"/>
+    </row>
+    <row r="254" spans="2:4" s="6" customFormat="1">
+      <c r="B254" s="21"/>
+      <c r="C254" s="7"/>
+      <c r="D254" s="4"/>
+    </row>
+    <row r="255" spans="2:4" s="6" customFormat="1">
+      <c r="B255" s="21"/>
+      <c r="C255" s="7"/>
+      <c r="D255" s="4"/>
+    </row>
+    <row r="256" spans="2:4" s="6" customFormat="1">
+      <c r="B256" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" s="4"/>
+    </row>
+    <row r="257" spans="2:4" s="6" customFormat="1">
+      <c r="B257" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" s="4"/>
+    </row>
+    <row r="258" spans="2:4" s="6" customFormat="1">
+      <c r="B258" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258" s="4"/>
+    </row>
+    <row r="259" spans="2:4" s="6" customFormat="1">
+      <c r="B259" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259" s="4"/>
+    </row>
+    <row r="260" spans="2:4" s="6" customFormat="1">
+      <c r="B260" s="23"/>
+      <c r="C260" s="7"/>
+      <c r="D260" s="4"/>
+    </row>
+    <row r="261" spans="2:4" s="6" customFormat="1">
+      <c r="B261" s="23"/>
+      <c r="C261" s="7"/>
+      <c r="D261" s="4"/>
+    </row>
+    <row r="262" spans="2:4" s="6" customFormat="1">
+      <c r="B262" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262" s="4"/>
+    </row>
+    <row r="263" spans="2:4" s="6" customFormat="1">
+      <c r="B263" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C220" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D220" s="4"/>
-    </row>
-    <row r="221" spans="2:4" s="6" customFormat="1">
-      <c r="B221" s="23" t="s">
+      <c r="C263" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263" s="4"/>
+    </row>
+    <row r="264" spans="2:4" s="6" customFormat="1">
+      <c r="B264" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264" s="4"/>
+    </row>
+    <row r="265" spans="2:4" s="6" customFormat="1">
+      <c r="B265" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C221" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D221" s="4"/>
-    </row>
-    <row r="222" spans="2:4" s="6" customFormat="1">
-      <c r="B222" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D222" s="4"/>
-    </row>
-    <row r="223" spans="2:4" s="6" customFormat="1">
-      <c r="B223" s="44"/>
-      <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
-    </row>
-    <row r="224" spans="2:4" s="6" customFormat="1">
-      <c r="B224" s="22"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
-    </row>
-    <row r="225" spans="1:4" s="6" customFormat="1">
-      <c r="B225" s="3" t="s">
+      <c r="C265" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" s="4"/>
+    </row>
+    <row r="266" spans="2:4" s="6" customFormat="1">
+      <c r="B266" s="44"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+    </row>
+    <row r="267" spans="2:4" s="6" customFormat="1">
+      <c r="B267" s="22"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+    </row>
+    <row r="268" spans="2:4" s="6" customFormat="1">
+      <c r="B268" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C225" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D225" s="4"/>
-    </row>
-    <row r="226" spans="1:4" s="6" customFormat="1">
-      <c r="B226" s="23" t="s">
+      <c r="C268" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268" s="4"/>
+    </row>
+    <row r="269" spans="2:4" s="6" customFormat="1">
+      <c r="B269" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C226" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D226" s="4"/>
-    </row>
-    <row r="227" spans="1:4" s="6" customFormat="1">
-      <c r="B227" s="23" t="s">
+      <c r="C269" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269" s="4"/>
+    </row>
+    <row r="270" spans="2:4" s="6" customFormat="1">
+      <c r="B270" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C227" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D227" s="4"/>
-    </row>
-    <row r="228" spans="1:4" s="6" customFormat="1">
-      <c r="B228" s="23"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-    </row>
-    <row r="229" spans="1:4" s="6" customFormat="1">
-      <c r="B229" s="20"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
-    </row>
-    <row r="230" spans="1:4" s="6" customFormat="1">
-      <c r="B230" s="22"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
-    </row>
-    <row r="231" spans="1:4" s="6" customFormat="1">
-      <c r="B231" s="22"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="3"/>
-      <c r="B232" s="11"/>
-      <c r="C232" s="11"/>
-      <c r="D232" s="3"/>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="3"/>
-      <c r="B233" s="8" t="s">
+      <c r="C270" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D270" s="4"/>
+    </row>
+    <row r="271" spans="2:4" s="6" customFormat="1">
+      <c r="B271" s="23"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4"/>
+    </row>
+    <row r="272" spans="2:4" s="6" customFormat="1">
+      <c r="B272" s="20"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
+    </row>
+    <row r="273" spans="1:4" s="6" customFormat="1">
+      <c r="B273" s="22"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
+    </row>
+    <row r="274" spans="1:4" s="6" customFormat="1">
+      <c r="B274" s="22"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4"/>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="3"/>
+      <c r="B275" s="11"/>
+      <c r="C275" s="11"/>
+      <c r="D275" s="3"/>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="3"/>
+      <c r="B276" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C233" s="6">
-        <f>COUNTIF(C5:C232,"y")</f>
-        <v>179</v>
-      </c>
-      <c r="D233" s="2"/>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="3"/>
-      <c r="B234" s="8" t="s">
+      <c r="C276" s="6">
+        <f>COUNTIF(C5:C275,"y")</f>
+        <v>184</v>
+      </c>
+      <c r="D276" s="2"/>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="3"/>
+      <c r="B277" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C234" s="6">
-        <f>COUNTIF(C5:C232,"n")</f>
+      <c r="C277" s="6">
+        <f>COUNTIF(C5:C275,"n")</f>
+        <v>32</v>
+      </c>
+      <c r="D277" s="2"/>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="3"/>
+      <c r="B278" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" s="7">
+        <f>COUNTIF(C5:C275,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D278" s="2"/>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="3"/>
+      <c r="B279" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D234" s="2"/>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="3"/>
-      <c r="B235" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C235" s="7">
-        <f>COUNTIF(C5:C232,"TBD")</f>
-        <v>0</v>
-      </c>
-      <c r="D235" s="2"/>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="3"/>
-      <c r="B236" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236">
-        <f>SUM(C233:C235)</f>
-        <v>183</v>
-      </c>
-      <c r="D236" s="2"/>
-    </row>
-    <row r="237" spans="1:4" ht="18">
-      <c r="A237" s="3"/>
-      <c r="B237" s="10"/>
-      <c r="C237" s="10" t="s">
+      <c r="C279">
+        <f>SUM(C276:C278)</f>
+        <v>216</v>
+      </c>
+      <c r="D279" s="2"/>
+    </row>
+    <row r="280" spans="1:4" ht="17.399999999999999">
+      <c r="A280" s="3"/>
+      <c r="B280" s="10"/>
+      <c r="C280" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D237" s="42">
-        <f>C233/(C234+C233 + C235)</f>
-        <v>0.97814207650273222</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="3"/>
-      <c r="B238" s="11"/>
-      <c r="C238" s="11"/>
-      <c r="D238" s="3"/>
+      <c r="D280" s="42">
+        <f>C276/(C277+C276 + C278)</f>
+        <v>0.85185185185185186</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="3"/>
+      <c r="B281" s="11"/>
+      <c r="C281" s="11"/>
+      <c r="D281" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C148:C64986 C1:C3 C6:C145">
+  <conditionalFormatting sqref="C7:C150 C1:C3 C153:C65029">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5068,31 +5605,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT884"/>
+  <dimension ref="A1:IT886"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
+      <pane ySplit="10020" topLeftCell="A52" activePane="bottomLeft"/>
       <selection activeCell="E47" sqref="E46:E47"/>
-      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="34" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="34" customWidth="1"/>
     <col min="8" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18">
+    <row r="1" spans="2:6" ht="17.399999999999999">
       <c r="E1" s="38" t="s">
         <v>34</v>
       </c>
@@ -5352,7 +5889,7 @@
         <v>32</v>
       </c>
       <c r="G49" s="31">
-        <f t="shared" ref="G49:G70" si="0">B49/SUM(B49:E49)</f>
+        <f t="shared" ref="G49:G72" si="0">B49/SUM(B49:E49)</f>
         <v>0.52830188679245282</v>
       </c>
       <c r="H49" s="7"/>
@@ -5649,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G61" s="31">
         <f t="shared" ref="G61:G62" si="7">B61/SUM(B61:E61)</f>
@@ -5674,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G62" s="31">
         <f t="shared" si="7"/>
@@ -5699,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G63" s="31">
         <f t="shared" ref="G63" si="8">B63/SUM(B63:E63)</f>
@@ -5724,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G64" s="31">
         <f t="shared" ref="G64:G65" si="9">B64/SUM(B64:E64)</f>
@@ -5749,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G65" s="31">
         <f t="shared" si="9"/>
@@ -5774,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G66" s="31">
         <f t="shared" ref="G66" si="10">B66/SUM(B66:E66)</f>
@@ -5799,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G67" s="31">
         <f t="shared" ref="G67" si="11">B67/SUM(B67:E67)</f>
@@ -5824,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G68" s="31">
         <f t="shared" ref="G68" si="12">B68/SUM(B68:E68)</f>
@@ -5849,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G69" s="31">
         <f t="shared" ref="G69" si="13">B69/SUM(B69:E69)</f>
@@ -5874,101 +6411,130 @@
         <v>0</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G70" s="31">
+        <f t="shared" ref="G70:G71" si="14">B70/SUM(B70:E70)</f>
+        <v>0.97814207650273222</v>
+      </c>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="12">
+        <v>44562</v>
+      </c>
+      <c r="B71" s="4">
+        <v>179</v>
+      </c>
+      <c r="C71" s="4">
+        <v>4</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="G71" s="31">
+        <f t="shared" si="14"/>
+        <v>0.97814207650273222</v>
+      </c>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="12">
+        <v>44581</v>
+      </c>
+      <c r="B72" s="4">
+        <v>184</v>
+      </c>
+      <c r="C72" s="4">
+        <v>32</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="G72" s="31">
         <f t="shared" si="0"/>
-        <v>0.97814207650273222</v>
-      </c>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="12"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="12"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="31"/>
+        <v>0.85185185185185186</v>
+      </c>
       <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="39">
-        <f>MIN(G70)</f>
-        <v>0.97814207650273222</v>
-      </c>
+      <c r="A73" s="12"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="31"/>
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="40">
-        <f>SUM(B74:D74)</f>
-        <v>183</v>
-      </c>
-      <c r="B74" s="16">
-        <f>Features!C233</f>
-        <v>179</v>
-      </c>
-      <c r="C74" s="17">
-        <f>Features!C234</f>
-        <v>4</v>
-      </c>
-      <c r="D74" s="18">
-        <f>Features!C235</f>
-        <v>0</v>
-      </c>
-      <c r="E74" s="19">
-        <f>MIN(E70)</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="7"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="32"/>
       <c r="G74" s="31"/>
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="4"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="31"/>
+      <c r="A75" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="39">
+        <f>MIN(G72)</f>
+        <v>0.85185185185185186</v>
+      </c>
       <c r="H75" s="7"/>
-      <c r="J75" s="37"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
+      <c r="A76" s="40">
+        <f>SUM(B76:D76)</f>
+        <v>216</v>
+      </c>
+      <c r="B76" s="16">
+        <f>Features!C276</f>
+        <v>184</v>
+      </c>
+      <c r="C76" s="17">
+        <f>Features!C277</f>
+        <v>32</v>
+      </c>
+      <c r="D76" s="18">
+        <f>Features!C278</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="19">
+        <f>MIN(E72)</f>
+        <v>0</v>
+      </c>
       <c r="F76" s="7"/>
       <c r="G76" s="31"/>
       <c r="H76" s="7"/>
@@ -5982,6 +6548,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="31"/>
       <c r="H77" s="7"/>
+      <c r="J77" s="37"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="4"/>
@@ -5995,7 +6562,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="4"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -6005,7 +6572,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="4"/>
-      <c r="B80" s="20"/>
+      <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -6015,7 +6582,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="4"/>
-      <c r="B81" s="20"/>
+      <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -6025,7 +6592,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="4"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -6035,7 +6602,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="4"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -6045,7 +6612,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="4"/>
-      <c r="B84" s="7"/>
+      <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -6055,7 +6622,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="4"/>
-      <c r="B85" s="21"/>
+      <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -6065,7 +6632,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="4"/>
-      <c r="B86" s="21"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="4"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -6074,7 +6641,7 @@
       <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="7"/>
+      <c r="A87" s="4"/>
       <c r="B87" s="21"/>
       <c r="C87" s="4"/>
       <c r="D87" s="7"/>
@@ -6084,8 +6651,8 @@
       <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
+      <c r="A88" s="4"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="4"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -6095,7 +6662,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="4"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -6216,7 +6783,7 @@
     <row r="101" spans="1:8">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
+      <c r="C101" s="4"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
@@ -6225,33 +6792,33 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="7"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="4"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="31"/>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" spans="1:8" s="2" customFormat="1">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="4"/>
-    </row>
-    <row r="104" spans="1:8" s="2" customFormat="1">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="4"/>
+    <row r="103" spans="1:8">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="7"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="7"/>
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1">
       <c r="A105" s="4"/>
@@ -6415,7 +6982,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="6"/>
+      <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -6435,7 +7002,7 @@
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
+      <c r="B123" s="6"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -6455,7 +7022,7 @@
     </row>
     <row r="125" spans="1:8" s="2" customFormat="1">
       <c r="A125" s="4"/>
-      <c r="B125" s="20"/>
+      <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -6465,7 +7032,7 @@
     </row>
     <row r="126" spans="1:8" s="2" customFormat="1">
       <c r="A126" s="4"/>
-      <c r="B126" s="20"/>
+      <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -6495,7 +7062,7 @@
     </row>
     <row r="129" spans="1:8" s="2" customFormat="1">
       <c r="A129" s="4"/>
-      <c r="B129" s="22"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -6505,7 +7072,7 @@
     </row>
     <row r="130" spans="1:8" s="2" customFormat="1">
       <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -6515,7 +7082,7 @@
     </row>
     <row r="131" spans="1:8" s="2" customFormat="1">
       <c r="A131" s="4"/>
-      <c r="B131" s="6"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -6535,7 +7102,7 @@
     </row>
     <row r="133" spans="1:8" s="2" customFormat="1">
       <c r="A133" s="4"/>
-      <c r="B133" s="20"/>
+      <c r="B133" s="6"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -6545,7 +7112,7 @@
     </row>
     <row r="134" spans="1:8" s="2" customFormat="1">
       <c r="A134" s="4"/>
-      <c r="B134" s="20"/>
+      <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -6555,7 +7122,7 @@
     </row>
     <row r="135" spans="1:8" s="2" customFormat="1">
       <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -6565,7 +7132,7 @@
     </row>
     <row r="136" spans="1:8" s="2" customFormat="1">
       <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -6615,7 +7182,7 @@
     </row>
     <row r="141" spans="1:8" s="2" customFormat="1">
       <c r="A141" s="4"/>
-      <c r="B141" s="20"/>
+      <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -6625,7 +7192,7 @@
     </row>
     <row r="142" spans="1:8" s="2" customFormat="1">
       <c r="A142" s="4"/>
-      <c r="B142" s="20"/>
+      <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -6715,7 +7282,7 @@
     </row>
     <row r="151" spans="1:8" s="2" customFormat="1">
       <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -6725,7 +7292,7 @@
     </row>
     <row r="152" spans="1:8" s="2" customFormat="1">
       <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -6765,7 +7332,7 @@
     </row>
     <row r="156" spans="1:8" s="2" customFormat="1">
       <c r="A156" s="4"/>
-      <c r="B156" s="20"/>
+      <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -6775,7 +7342,7 @@
     </row>
     <row r="157" spans="1:8" s="2" customFormat="1">
       <c r="A157" s="4"/>
-      <c r="B157" s="20"/>
+      <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -6785,7 +7352,7 @@
     </row>
     <row r="158" spans="1:8" s="2" customFormat="1">
       <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -6795,7 +7362,7 @@
     </row>
     <row r="159" spans="1:8" s="2" customFormat="1">
       <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -6824,260 +7391,14 @@
       <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:254" s="2" customFormat="1">
-      <c r="A162" s="22"/>
-      <c r="B162" s="22"/>
-      <c r="C162" s="22"/>
-      <c r="D162" s="22"/>
-      <c r="E162" s="22"/>
-      <c r="F162" s="22"/>
-      <c r="G162" s="36"/>
-      <c r="H162" s="22"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5"/>
-      <c r="K162" s="5"/>
-      <c r="L162" s="5"/>
-      <c r="M162" s="5"/>
-      <c r="N162" s="5"/>
-      <c r="O162" s="5"/>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
-      <c r="R162" s="5"/>
-      <c r="S162" s="5"/>
-      <c r="T162" s="5"/>
-      <c r="U162" s="5"/>
-      <c r="V162" s="5"/>
-      <c r="W162" s="5"/>
-      <c r="X162" s="5"/>
-      <c r="Y162" s="5"/>
-      <c r="Z162" s="5"/>
-      <c r="AA162" s="5"/>
-      <c r="AB162" s="5"/>
-      <c r="AC162" s="5"/>
-      <c r="AD162" s="5"/>
-      <c r="AE162" s="5"/>
-      <c r="AF162" s="5"/>
-      <c r="AG162" s="5"/>
-      <c r="AH162" s="5"/>
-      <c r="AI162" s="5"/>
-      <c r="AJ162" s="5"/>
-      <c r="AK162" s="5"/>
-      <c r="AL162" s="5"/>
-      <c r="AM162" s="5"/>
-      <c r="AN162" s="5"/>
-      <c r="AO162" s="5"/>
-      <c r="AP162" s="5"/>
-      <c r="AQ162" s="5"/>
-      <c r="AR162" s="5"/>
-      <c r="AS162" s="5"/>
-      <c r="AT162" s="5"/>
-      <c r="AU162" s="5"/>
-      <c r="AV162" s="5"/>
-      <c r="AW162" s="5"/>
-      <c r="AX162" s="5"/>
-      <c r="AY162" s="5"/>
-      <c r="AZ162" s="5"/>
-      <c r="BA162" s="5"/>
-      <c r="BB162" s="5"/>
-      <c r="BC162" s="5"/>
-      <c r="BD162" s="5"/>
-      <c r="BE162" s="5"/>
-      <c r="BF162" s="5"/>
-      <c r="BG162" s="5"/>
-      <c r="BH162" s="5"/>
-      <c r="BI162" s="5"/>
-      <c r="BJ162" s="5"/>
-      <c r="BK162" s="5"/>
-      <c r="BL162" s="5"/>
-      <c r="BM162" s="5"/>
-      <c r="BN162" s="5"/>
-      <c r="BO162" s="5"/>
-      <c r="BP162" s="5"/>
-      <c r="BQ162" s="5"/>
-      <c r="BR162" s="5"/>
-      <c r="BS162" s="5"/>
-      <c r="BT162" s="5"/>
-      <c r="BU162" s="5"/>
-      <c r="BV162" s="5"/>
-      <c r="BW162" s="5"/>
-      <c r="BX162" s="5"/>
-      <c r="BY162" s="5"/>
-      <c r="BZ162" s="5"/>
-      <c r="CA162" s="5"/>
-      <c r="CB162" s="5"/>
-      <c r="CC162" s="5"/>
-      <c r="CD162" s="5"/>
-      <c r="CE162" s="5"/>
-      <c r="CF162" s="5"/>
-      <c r="CG162" s="5"/>
-      <c r="CH162" s="5"/>
-      <c r="CI162" s="5"/>
-      <c r="CJ162" s="5"/>
-      <c r="CK162" s="5"/>
-      <c r="CL162" s="5"/>
-      <c r="CM162" s="5"/>
-      <c r="CN162" s="5"/>
-      <c r="CO162" s="5"/>
-      <c r="CP162" s="5"/>
-      <c r="CQ162" s="5"/>
-      <c r="CR162" s="5"/>
-      <c r="CS162" s="5"/>
-      <c r="CT162" s="5"/>
-      <c r="CU162" s="5"/>
-      <c r="CV162" s="5"/>
-      <c r="CW162" s="5"/>
-      <c r="CX162" s="5"/>
-      <c r="CY162" s="5"/>
-      <c r="CZ162" s="5"/>
-      <c r="DA162" s="5"/>
-      <c r="DB162" s="5"/>
-      <c r="DC162" s="5"/>
-      <c r="DD162" s="5"/>
-      <c r="DE162" s="5"/>
-      <c r="DF162" s="5"/>
-      <c r="DG162" s="5"/>
-      <c r="DH162" s="5"/>
-      <c r="DI162" s="5"/>
-      <c r="DJ162" s="5"/>
-      <c r="DK162" s="5"/>
-      <c r="DL162" s="5"/>
-      <c r="DM162" s="5"/>
-      <c r="DN162" s="5"/>
-      <c r="DO162" s="5"/>
-      <c r="DP162" s="5"/>
-      <c r="DQ162" s="5"/>
-      <c r="DR162" s="5"/>
-      <c r="DS162" s="5"/>
-      <c r="DT162" s="5"/>
-      <c r="DU162" s="5"/>
-      <c r="DV162" s="5"/>
-      <c r="DW162" s="5"/>
-      <c r="DX162" s="5"/>
-      <c r="DY162" s="5"/>
-      <c r="DZ162" s="5"/>
-      <c r="EA162" s="5"/>
-      <c r="EB162" s="5"/>
-      <c r="EC162" s="5"/>
-      <c r="ED162" s="5"/>
-      <c r="EE162" s="5"/>
-      <c r="EF162" s="5"/>
-      <c r="EG162" s="5"/>
-      <c r="EH162" s="5"/>
-      <c r="EI162" s="5"/>
-      <c r="EJ162" s="5"/>
-      <c r="EK162" s="5"/>
-      <c r="EL162" s="5"/>
-      <c r="EM162" s="5"/>
-      <c r="EN162" s="5"/>
-      <c r="EO162" s="5"/>
-      <c r="EP162" s="5"/>
-      <c r="EQ162" s="5"/>
-      <c r="ER162" s="5"/>
-      <c r="ES162" s="5"/>
-      <c r="ET162" s="5"/>
-      <c r="EU162" s="5"/>
-      <c r="EV162" s="5"/>
-      <c r="EW162" s="5"/>
-      <c r="EX162" s="5"/>
-      <c r="EY162" s="5"/>
-      <c r="EZ162" s="5"/>
-      <c r="FA162" s="5"/>
-      <c r="FB162" s="5"/>
-      <c r="FC162" s="5"/>
-      <c r="FD162" s="5"/>
-      <c r="FE162" s="5"/>
-      <c r="FF162" s="5"/>
-      <c r="FG162" s="5"/>
-      <c r="FH162" s="5"/>
-      <c r="FI162" s="5"/>
-      <c r="FJ162" s="5"/>
-      <c r="FK162" s="5"/>
-      <c r="FL162" s="5"/>
-      <c r="FM162" s="5"/>
-      <c r="FN162" s="5"/>
-      <c r="FO162" s="5"/>
-      <c r="FP162" s="5"/>
-      <c r="FQ162" s="5"/>
-      <c r="FR162" s="5"/>
-      <c r="FS162" s="5"/>
-      <c r="FT162" s="5"/>
-      <c r="FU162" s="5"/>
-      <c r="FV162" s="5"/>
-      <c r="FW162" s="5"/>
-      <c r="FX162" s="5"/>
-      <c r="FY162" s="5"/>
-      <c r="FZ162" s="5"/>
-      <c r="GA162" s="5"/>
-      <c r="GB162" s="5"/>
-      <c r="GC162" s="5"/>
-      <c r="GD162" s="5"/>
-      <c r="GE162" s="5"/>
-      <c r="GF162" s="5"/>
-      <c r="GG162" s="5"/>
-      <c r="GH162" s="5"/>
-      <c r="GI162" s="5"/>
-      <c r="GJ162" s="5"/>
-      <c r="GK162" s="5"/>
-      <c r="GL162" s="5"/>
-      <c r="GM162" s="5"/>
-      <c r="GN162" s="5"/>
-      <c r="GO162" s="5"/>
-      <c r="GP162" s="5"/>
-      <c r="GQ162" s="5"/>
-      <c r="GR162" s="5"/>
-      <c r="GS162" s="5"/>
-      <c r="GT162" s="5"/>
-      <c r="GU162" s="5"/>
-      <c r="GV162" s="5"/>
-      <c r="GW162" s="5"/>
-      <c r="GX162" s="5"/>
-      <c r="GY162" s="5"/>
-      <c r="GZ162" s="5"/>
-      <c r="HA162" s="5"/>
-      <c r="HB162" s="5"/>
-      <c r="HC162" s="5"/>
-      <c r="HD162" s="5"/>
-      <c r="HE162" s="5"/>
-      <c r="HF162" s="5"/>
-      <c r="HG162" s="5"/>
-      <c r="HH162" s="5"/>
-      <c r="HI162" s="5"/>
-      <c r="HJ162" s="5"/>
-      <c r="HK162" s="5"/>
-      <c r="HL162" s="5"/>
-      <c r="HM162" s="5"/>
-      <c r="HN162" s="5"/>
-      <c r="HO162" s="5"/>
-      <c r="HP162" s="5"/>
-      <c r="HQ162" s="5"/>
-      <c r="HR162" s="5"/>
-      <c r="HS162" s="5"/>
-      <c r="HT162" s="5"/>
-      <c r="HU162" s="5"/>
-      <c r="HV162" s="5"/>
-      <c r="HW162" s="5"/>
-      <c r="HX162" s="5"/>
-      <c r="HY162" s="5"/>
-      <c r="HZ162" s="5"/>
-      <c r="IA162" s="5"/>
-      <c r="IB162" s="5"/>
-      <c r="IC162" s="5"/>
-      <c r="ID162" s="5"/>
-      <c r="IE162" s="5"/>
-      <c r="IF162" s="5"/>
-      <c r="IG162" s="5"/>
-      <c r="IH162" s="5"/>
-      <c r="II162" s="5"/>
-      <c r="IJ162" s="5"/>
-      <c r="IK162" s="5"/>
-      <c r="IL162" s="5"/>
-      <c r="IM162" s="5"/>
-      <c r="IN162" s="5"/>
-      <c r="IO162" s="5"/>
-      <c r="IP162" s="5"/>
-      <c r="IQ162" s="5"/>
-      <c r="IR162" s="5"/>
-      <c r="IS162" s="5"/>
-      <c r="IT162" s="5"/>
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="35"/>
+      <c r="H162" s="4"/>
     </row>
     <row r="163" spans="1:254" s="2" customFormat="1">
       <c r="A163" s="4"/>
@@ -7089,29 +7410,275 @@
       <c r="G163" s="35"/>
       <c r="H163" s="4"/>
     </row>
-    <row r="164" spans="1:254">
-      <c r="A164" s="7"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="31"/>
-      <c r="H164" s="7"/>
-    </row>
-    <row r="165" spans="1:254">
-      <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="31"/>
-      <c r="H165" s="7"/>
+    <row r="164" spans="1:254" s="2" customFormat="1">
+      <c r="A164" s="22"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="36"/>
+      <c r="H164" s="22"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="5"/>
+      <c r="S164" s="5"/>
+      <c r="T164" s="5"/>
+      <c r="U164" s="5"/>
+      <c r="V164" s="5"/>
+      <c r="W164" s="5"/>
+      <c r="X164" s="5"/>
+      <c r="Y164" s="5"/>
+      <c r="Z164" s="5"/>
+      <c r="AA164" s="5"/>
+      <c r="AB164" s="5"/>
+      <c r="AC164" s="5"/>
+      <c r="AD164" s="5"/>
+      <c r="AE164" s="5"/>
+      <c r="AF164" s="5"/>
+      <c r="AG164" s="5"/>
+      <c r="AH164" s="5"/>
+      <c r="AI164" s="5"/>
+      <c r="AJ164" s="5"/>
+      <c r="AK164" s="5"/>
+      <c r="AL164" s="5"/>
+      <c r="AM164" s="5"/>
+      <c r="AN164" s="5"/>
+      <c r="AO164" s="5"/>
+      <c r="AP164" s="5"/>
+      <c r="AQ164" s="5"/>
+      <c r="AR164" s="5"/>
+      <c r="AS164" s="5"/>
+      <c r="AT164" s="5"/>
+      <c r="AU164" s="5"/>
+      <c r="AV164" s="5"/>
+      <c r="AW164" s="5"/>
+      <c r="AX164" s="5"/>
+      <c r="AY164" s="5"/>
+      <c r="AZ164" s="5"/>
+      <c r="BA164" s="5"/>
+      <c r="BB164" s="5"/>
+      <c r="BC164" s="5"/>
+      <c r="BD164" s="5"/>
+      <c r="BE164" s="5"/>
+      <c r="BF164" s="5"/>
+      <c r="BG164" s="5"/>
+      <c r="BH164" s="5"/>
+      <c r="BI164" s="5"/>
+      <c r="BJ164" s="5"/>
+      <c r="BK164" s="5"/>
+      <c r="BL164" s="5"/>
+      <c r="BM164" s="5"/>
+      <c r="BN164" s="5"/>
+      <c r="BO164" s="5"/>
+      <c r="BP164" s="5"/>
+      <c r="BQ164" s="5"/>
+      <c r="BR164" s="5"/>
+      <c r="BS164" s="5"/>
+      <c r="BT164" s="5"/>
+      <c r="BU164" s="5"/>
+      <c r="BV164" s="5"/>
+      <c r="BW164" s="5"/>
+      <c r="BX164" s="5"/>
+      <c r="BY164" s="5"/>
+      <c r="BZ164" s="5"/>
+      <c r="CA164" s="5"/>
+      <c r="CB164" s="5"/>
+      <c r="CC164" s="5"/>
+      <c r="CD164" s="5"/>
+      <c r="CE164" s="5"/>
+      <c r="CF164" s="5"/>
+      <c r="CG164" s="5"/>
+      <c r="CH164" s="5"/>
+      <c r="CI164" s="5"/>
+      <c r="CJ164" s="5"/>
+      <c r="CK164" s="5"/>
+      <c r="CL164" s="5"/>
+      <c r="CM164" s="5"/>
+      <c r="CN164" s="5"/>
+      <c r="CO164" s="5"/>
+      <c r="CP164" s="5"/>
+      <c r="CQ164" s="5"/>
+      <c r="CR164" s="5"/>
+      <c r="CS164" s="5"/>
+      <c r="CT164" s="5"/>
+      <c r="CU164" s="5"/>
+      <c r="CV164" s="5"/>
+      <c r="CW164" s="5"/>
+      <c r="CX164" s="5"/>
+      <c r="CY164" s="5"/>
+      <c r="CZ164" s="5"/>
+      <c r="DA164" s="5"/>
+      <c r="DB164" s="5"/>
+      <c r="DC164" s="5"/>
+      <c r="DD164" s="5"/>
+      <c r="DE164" s="5"/>
+      <c r="DF164" s="5"/>
+      <c r="DG164" s="5"/>
+      <c r="DH164" s="5"/>
+      <c r="DI164" s="5"/>
+      <c r="DJ164" s="5"/>
+      <c r="DK164" s="5"/>
+      <c r="DL164" s="5"/>
+      <c r="DM164" s="5"/>
+      <c r="DN164" s="5"/>
+      <c r="DO164" s="5"/>
+      <c r="DP164" s="5"/>
+      <c r="DQ164" s="5"/>
+      <c r="DR164" s="5"/>
+      <c r="DS164" s="5"/>
+      <c r="DT164" s="5"/>
+      <c r="DU164" s="5"/>
+      <c r="DV164" s="5"/>
+      <c r="DW164" s="5"/>
+      <c r="DX164" s="5"/>
+      <c r="DY164" s="5"/>
+      <c r="DZ164" s="5"/>
+      <c r="EA164" s="5"/>
+      <c r="EB164" s="5"/>
+      <c r="EC164" s="5"/>
+      <c r="ED164" s="5"/>
+      <c r="EE164" s="5"/>
+      <c r="EF164" s="5"/>
+      <c r="EG164" s="5"/>
+      <c r="EH164" s="5"/>
+      <c r="EI164" s="5"/>
+      <c r="EJ164" s="5"/>
+      <c r="EK164" s="5"/>
+      <c r="EL164" s="5"/>
+      <c r="EM164" s="5"/>
+      <c r="EN164" s="5"/>
+      <c r="EO164" s="5"/>
+      <c r="EP164" s="5"/>
+      <c r="EQ164" s="5"/>
+      <c r="ER164" s="5"/>
+      <c r="ES164" s="5"/>
+      <c r="ET164" s="5"/>
+      <c r="EU164" s="5"/>
+      <c r="EV164" s="5"/>
+      <c r="EW164" s="5"/>
+      <c r="EX164" s="5"/>
+      <c r="EY164" s="5"/>
+      <c r="EZ164" s="5"/>
+      <c r="FA164" s="5"/>
+      <c r="FB164" s="5"/>
+      <c r="FC164" s="5"/>
+      <c r="FD164" s="5"/>
+      <c r="FE164" s="5"/>
+      <c r="FF164" s="5"/>
+      <c r="FG164" s="5"/>
+      <c r="FH164" s="5"/>
+      <c r="FI164" s="5"/>
+      <c r="FJ164" s="5"/>
+      <c r="FK164" s="5"/>
+      <c r="FL164" s="5"/>
+      <c r="FM164" s="5"/>
+      <c r="FN164" s="5"/>
+      <c r="FO164" s="5"/>
+      <c r="FP164" s="5"/>
+      <c r="FQ164" s="5"/>
+      <c r="FR164" s="5"/>
+      <c r="FS164" s="5"/>
+      <c r="FT164" s="5"/>
+      <c r="FU164" s="5"/>
+      <c r="FV164" s="5"/>
+      <c r="FW164" s="5"/>
+      <c r="FX164" s="5"/>
+      <c r="FY164" s="5"/>
+      <c r="FZ164" s="5"/>
+      <c r="GA164" s="5"/>
+      <c r="GB164" s="5"/>
+      <c r="GC164" s="5"/>
+      <c r="GD164" s="5"/>
+      <c r="GE164" s="5"/>
+      <c r="GF164" s="5"/>
+      <c r="GG164" s="5"/>
+      <c r="GH164" s="5"/>
+      <c r="GI164" s="5"/>
+      <c r="GJ164" s="5"/>
+      <c r="GK164" s="5"/>
+      <c r="GL164" s="5"/>
+      <c r="GM164" s="5"/>
+      <c r="GN164" s="5"/>
+      <c r="GO164" s="5"/>
+      <c r="GP164" s="5"/>
+      <c r="GQ164" s="5"/>
+      <c r="GR164" s="5"/>
+      <c r="GS164" s="5"/>
+      <c r="GT164" s="5"/>
+      <c r="GU164" s="5"/>
+      <c r="GV164" s="5"/>
+      <c r="GW164" s="5"/>
+      <c r="GX164" s="5"/>
+      <c r="GY164" s="5"/>
+      <c r="GZ164" s="5"/>
+      <c r="HA164" s="5"/>
+      <c r="HB164" s="5"/>
+      <c r="HC164" s="5"/>
+      <c r="HD164" s="5"/>
+      <c r="HE164" s="5"/>
+      <c r="HF164" s="5"/>
+      <c r="HG164" s="5"/>
+      <c r="HH164" s="5"/>
+      <c r="HI164" s="5"/>
+      <c r="HJ164" s="5"/>
+      <c r="HK164" s="5"/>
+      <c r="HL164" s="5"/>
+      <c r="HM164" s="5"/>
+      <c r="HN164" s="5"/>
+      <c r="HO164" s="5"/>
+      <c r="HP164" s="5"/>
+      <c r="HQ164" s="5"/>
+      <c r="HR164" s="5"/>
+      <c r="HS164" s="5"/>
+      <c r="HT164" s="5"/>
+      <c r="HU164" s="5"/>
+      <c r="HV164" s="5"/>
+      <c r="HW164" s="5"/>
+      <c r="HX164" s="5"/>
+      <c r="HY164" s="5"/>
+      <c r="HZ164" s="5"/>
+      <c r="IA164" s="5"/>
+      <c r="IB164" s="5"/>
+      <c r="IC164" s="5"/>
+      <c r="ID164" s="5"/>
+      <c r="IE164" s="5"/>
+      <c r="IF164" s="5"/>
+      <c r="IG164" s="5"/>
+      <c r="IH164" s="5"/>
+      <c r="II164" s="5"/>
+      <c r="IJ164" s="5"/>
+      <c r="IK164" s="5"/>
+      <c r="IL164" s="5"/>
+      <c r="IM164" s="5"/>
+      <c r="IN164" s="5"/>
+      <c r="IO164" s="5"/>
+      <c r="IP164" s="5"/>
+      <c r="IQ164" s="5"/>
+      <c r="IR164" s="5"/>
+      <c r="IS164" s="5"/>
+      <c r="IT164" s="5"/>
+    </row>
+    <row r="165" spans="1:254" s="2" customFormat="1">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="35"/>
+      <c r="H165" s="4"/>
     </row>
     <row r="166" spans="1:254">
       <c r="A166" s="7"/>
-      <c r="B166" s="21"/>
+      <c r="B166" s="6"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -7131,8 +7698,8 @@
     </row>
     <row r="168" spans="1:254">
       <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
-      <c r="C168" s="4"/>
+      <c r="B168" s="21"/>
+      <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
@@ -7142,7 +7709,7 @@
     <row r="169" spans="1:254">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
-      <c r="C169" s="4"/>
+      <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
@@ -7172,7 +7739,7 @@
     <row r="172" spans="1:254">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
+      <c r="C172" s="4"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
@@ -7181,8 +7748,8 @@
     </row>
     <row r="173" spans="1:254">
       <c r="A173" s="7"/>
-      <c r="B173" s="23"/>
-      <c r="C173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="4"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
@@ -7191,7 +7758,7 @@
     </row>
     <row r="174" spans="1:254">
       <c r="A174" s="7"/>
-      <c r="B174" s="23"/>
+      <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -7201,7 +7768,7 @@
     </row>
     <row r="175" spans="1:254">
       <c r="A175" s="7"/>
-      <c r="B175" s="7"/>
+      <c r="B175" s="23"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -7211,7 +7778,7 @@
     </row>
     <row r="176" spans="1:254">
       <c r="A176" s="7"/>
-      <c r="B176" s="21"/>
+      <c r="B176" s="23"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -7221,7 +7788,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="7"/>
-      <c r="B177" s="21"/>
+      <c r="B177" s="7"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -7231,7 +7798,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="7"/>
-      <c r="B178" s="7"/>
+      <c r="B178" s="21"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -7241,7 +7808,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="7"/>
+      <c r="B179" s="21"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -7251,7 +7818,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="21"/>
+      <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -7261,7 +7828,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="21"/>
+      <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -7271,7 +7838,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="7"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -7281,7 +7848,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="7"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -7291,7 +7858,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7"/>
-      <c r="B184" s="21"/>
+      <c r="B184" s="7"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -7301,7 +7868,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="7"/>
-      <c r="B185" s="21"/>
+      <c r="B185" s="7"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -7311,7 +7878,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="7"/>
-      <c r="B186" s="7"/>
+      <c r="B186" s="21"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -7321,7 +7888,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
-      <c r="B187" s="7"/>
+      <c r="B187" s="21"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -7351,7 +7918,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="6"/>
+      <c r="B190" s="7"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -7361,8 +7928,8 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="7"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
@@ -7371,8 +7938,8 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="7"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="4"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
@@ -7381,7 +7948,7 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="7"/>
-      <c r="B193" s="20"/>
+      <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -7441,7 +8008,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="7"/>
-      <c r="B199" s="4"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="4"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -7461,7 +8028,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="22"/>
+      <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -7471,7 +8038,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="22"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="4"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -7481,7 +8048,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="20"/>
+      <c r="B203" s="22"/>
       <c r="C203" s="4"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -7491,7 +8058,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="7"/>
-      <c r="B204" s="20"/>
+      <c r="B204" s="22"/>
       <c r="C204" s="4"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -7522,7 +8089,7 @@
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
       <c r="B207" s="20"/>
-      <c r="C207" s="7"/>
+      <c r="C207" s="4"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
@@ -7531,8 +8098,8 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="7"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="4"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
@@ -7541,7 +8108,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="4"/>
+      <c r="B209" s="20"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -7551,7 +8118,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="7"/>
-      <c r="B210" s="20"/>
+      <c r="B210" s="4"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -7561,7 +8128,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="7"/>
-      <c r="B211" s="20"/>
+      <c r="B211" s="4"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -7611,7 +8178,7 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="7"/>
-      <c r="B216" s="22"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -7621,7 +8188,7 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="7"/>
-      <c r="B217" s="22"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -7651,7 +8218,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="4"/>
+      <c r="B220" s="22"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -7661,7 +8228,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="6"/>
+      <c r="B221" s="22"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -7681,7 +8248,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="20"/>
+      <c r="B223" s="6"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -7691,7 +8258,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="20"/>
+      <c r="B224" s="4"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -7731,7 +8298,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="22"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -7751,7 +8318,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="20"/>
+      <c r="B230" s="22"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -7791,7 +8358,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="22"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -7801,7 +8368,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="7"/>
-      <c r="B235" s="22"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -7851,7 +8418,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="7"/>
-      <c r="B240" s="4"/>
+      <c r="B240" s="22"/>
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -7861,7 +8428,7 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="7"/>
-      <c r="B241" s="6"/>
+      <c r="B241" s="22"/>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -7872,7 +8439,7 @@
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
       <c r="B242" s="4"/>
-      <c r="C242" s="4"/>
+      <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
       <c r="F242" s="7"/>
@@ -7881,8 +8448,8 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="20"/>
-      <c r="C243" s="4"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
       <c r="F243" s="7"/>
@@ -7891,7 +8458,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
+      <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -7901,7 +8468,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="21"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="4"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -7911,7 +8478,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="21"/>
+      <c r="B246" s="7"/>
       <c r="C246" s="4"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -7941,7 +8508,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="7"/>
+      <c r="B249" s="21"/>
       <c r="C249" s="4"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -7961,7 +8528,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="24"/>
+      <c r="B251" s="7"/>
       <c r="C251" s="4"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -7971,7 +8538,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="24"/>
+      <c r="B252" s="21"/>
       <c r="C252" s="4"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -7981,7 +8548,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="21"/>
+      <c r="B253" s="24"/>
       <c r="C253" s="4"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -7991,7 +8558,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="21"/>
+      <c r="B254" s="24"/>
       <c r="C254" s="4"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -8021,7 +8588,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="7"/>
+      <c r="B257" s="21"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -8041,7 +8608,7 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="7"/>
-      <c r="B259" s="21"/>
+      <c r="B259" s="7"/>
       <c r="C259" s="4"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -8081,7 +8648,7 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="7"/>
-      <c r="B263" s="7"/>
+      <c r="B263" s="21"/>
       <c r="C263" s="4"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -8092,7 +8659,7 @@
     <row r="264" spans="1:8">
       <c r="A264" s="7"/>
       <c r="B264" s="21"/>
-      <c r="C264" s="7"/>
+      <c r="C264" s="4"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
       <c r="F264" s="7"/>
@@ -8102,7 +8669,7 @@
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
-      <c r="C265" s="7"/>
+      <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
       <c r="F265" s="7"/>
@@ -8121,7 +8688,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="7"/>
-      <c r="B267" s="24"/>
+      <c r="B267" s="7"/>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -8131,7 +8698,7 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="7"/>
-      <c r="B268" s="24"/>
+      <c r="B268" s="21"/>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -8171,8 +8738,8 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="7"/>
-      <c r="B272" s="21"/>
-      <c r="C272" s="4"/>
+      <c r="B272" s="24"/>
+      <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
       <c r="F272" s="7"/>
@@ -8182,7 +8749,7 @@
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
       <c r="B273" s="24"/>
-      <c r="C273" s="4"/>
+      <c r="C273" s="7"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
       <c r="F273" s="7"/>
@@ -8191,7 +8758,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="25"/>
+      <c r="B274" s="21"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -8201,7 +8768,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="25"/>
+      <c r="B275" s="24"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -8221,7 +8788,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="26"/>
+      <c r="B277" s="25"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -8231,7 +8798,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="24"/>
+      <c r="B278" s="25"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -8241,7 +8808,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="24"/>
+      <c r="B279" s="26"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -8271,7 +8838,7 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
-      <c r="B282" s="25"/>
+      <c r="B282" s="24"/>
       <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -8281,7 +8848,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="25"/>
+      <c r="B283" s="24"/>
       <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -8301,7 +8868,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="7"/>
-      <c r="B285" s="24"/>
+      <c r="B285" s="25"/>
       <c r="C285" s="4"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -8319,45 +8886,45 @@
       <c r="G286" s="31"/>
       <c r="H286" s="7"/>
     </row>
-    <row r="287" spans="1:8" s="2" customFormat="1">
-      <c r="A287" s="4"/>
-      <c r="B287" s="25"/>
+    <row r="287" spans="1:8">
+      <c r="A287" s="7"/>
+      <c r="B287" s="24"/>
       <c r="C287" s="4"/>
-      <c r="D287" s="4"/>
-      <c r="E287" s="4"/>
-      <c r="F287" s="4"/>
-      <c r="G287" s="35"/>
-      <c r="H287" s="4"/>
-    </row>
-    <row r="288" spans="1:8" s="2" customFormat="1">
-      <c r="A288" s="4"/>
+      <c r="D287" s="7"/>
+      <c r="E287" s="7"/>
+      <c r="F287" s="7"/>
+      <c r="G287" s="31"/>
+      <c r="H287" s="7"/>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="7"/>
       <c r="B288" s="25"/>
       <c r="C288" s="4"/>
-      <c r="D288" s="4"/>
-      <c r="E288" s="4"/>
-      <c r="F288" s="4"/>
-      <c r="G288" s="35"/>
-      <c r="H288" s="4"/>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="A289" s="7"/>
+      <c r="D288" s="7"/>
+      <c r="E288" s="7"/>
+      <c r="F288" s="7"/>
+      <c r="G288" s="31"/>
+      <c r="H288" s="7"/>
+    </row>
+    <row r="289" spans="1:8" s="2" customFormat="1">
+      <c r="A289" s="4"/>
       <c r="B289" s="25"/>
       <c r="C289" s="4"/>
-      <c r="D289" s="7"/>
-      <c r="E289" s="7"/>
-      <c r="F289" s="7"/>
-      <c r="G289" s="31"/>
-      <c r="H289" s="7"/>
-    </row>
-    <row r="290" spans="1:8">
-      <c r="A290" s="7"/>
-      <c r="B290" s="24"/>
+      <c r="D289" s="4"/>
+      <c r="E289" s="4"/>
+      <c r="F289" s="4"/>
+      <c r="G289" s="35"/>
+      <c r="H289" s="4"/>
+    </row>
+    <row r="290" spans="1:8" s="2" customFormat="1">
+      <c r="A290" s="4"/>
+      <c r="B290" s="25"/>
       <c r="C290" s="4"/>
-      <c r="D290" s="7"/>
-      <c r="E290" s="7"/>
-      <c r="F290" s="7"/>
-      <c r="G290" s="31"/>
-      <c r="H290" s="7"/>
+      <c r="D290" s="4"/>
+      <c r="E290" s="4"/>
+      <c r="F290" s="4"/>
+      <c r="G290" s="35"/>
+      <c r="H290" s="4"/>
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="7"/>
@@ -8371,7 +8938,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="25"/>
+      <c r="B292" s="24"/>
       <c r="C292" s="4"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -8391,7 +8958,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="23"/>
+      <c r="B294" s="25"/>
       <c r="C294" s="4"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -8401,7 +8968,7 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="7"/>
-      <c r="B295" s="7"/>
+      <c r="B295" s="25"/>
       <c r="C295" s="4"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
@@ -8411,7 +8978,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="7"/>
+      <c r="B296" s="23"/>
       <c r="C296" s="4"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -8421,7 +8988,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="21"/>
+      <c r="B297" s="7"/>
       <c r="C297" s="4"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -8431,7 +8998,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="7"/>
-      <c r="B298" s="21"/>
+      <c r="B298" s="7"/>
       <c r="C298" s="4"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
@@ -8441,7 +9008,7 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="7"/>
-      <c r="B299" s="7"/>
+      <c r="B299" s="21"/>
       <c r="C299" s="4"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
@@ -8451,7 +9018,7 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="7"/>
-      <c r="B300" s="7"/>
+      <c r="B300" s="21"/>
       <c r="C300" s="4"/>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
@@ -8472,7 +9039,7 @@
     <row r="302" spans="1:8">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
-      <c r="C302" s="7"/>
+      <c r="C302" s="4"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
@@ -8481,8 +9048,8 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="7"/>
-      <c r="B303" s="6"/>
-      <c r="C303" s="7"/>
+      <c r="B303" s="7"/>
+      <c r="C303" s="4"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
@@ -8501,7 +9068,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="7"/>
+      <c r="B305" s="6"/>
       <c r="C305" s="7"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -8571,7 +9138,7 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="7"/>
-      <c r="B312" s="6"/>
+      <c r="B312" s="7"/>
       <c r="C312" s="7"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
@@ -8581,8 +9148,8 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="7"/>
-      <c r="B313" s="4"/>
-      <c r="C313" s="4"/>
+      <c r="B313" s="7"/>
+      <c r="C313" s="7"/>
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
@@ -8591,8 +9158,8 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="7"/>
-      <c r="B314" s="20"/>
-      <c r="C314" s="4"/>
+      <c r="B314" s="6"/>
+      <c r="C314" s="7"/>
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
       <c r="F314" s="7"/>
@@ -8601,7 +9168,7 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="7"/>
-      <c r="B315" s="20"/>
+      <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
@@ -8621,7 +9188,7 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" s="7"/>
-      <c r="B317" s="4"/>
+      <c r="B317" s="20"/>
       <c r="C317" s="4"/>
       <c r="D317" s="7"/>
       <c r="E317" s="7"/>
@@ -8631,7 +9198,7 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="7"/>
-      <c r="B318" s="4"/>
+      <c r="B318" s="20"/>
       <c r="C318" s="4"/>
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
@@ -8681,7 +9248,7 @@
     </row>
     <row r="323" spans="1:8">
       <c r="A323" s="7"/>
-      <c r="B323" s="20"/>
+      <c r="B323" s="4"/>
       <c r="C323" s="4"/>
       <c r="D323" s="7"/>
       <c r="E323" s="7"/>
@@ -8691,7 +9258,7 @@
     </row>
     <row r="324" spans="1:8">
       <c r="A324" s="7"/>
-      <c r="B324" s="20"/>
+      <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
@@ -8701,7 +9268,7 @@
     </row>
     <row r="325" spans="1:8">
       <c r="A325" s="7"/>
-      <c r="B325" s="22"/>
+      <c r="B325" s="20"/>
       <c r="C325" s="4"/>
       <c r="D325" s="7"/>
       <c r="E325" s="7"/>
@@ -8711,8 +9278,8 @@
     </row>
     <row r="326" spans="1:8">
       <c r="A326" s="7"/>
-      <c r="B326" s="7"/>
-      <c r="C326" s="7"/>
+      <c r="B326" s="20"/>
+      <c r="C326" s="4"/>
       <c r="D326" s="7"/>
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
@@ -8721,33 +9288,33 @@
     </row>
     <row r="327" spans="1:8">
       <c r="A327" s="7"/>
-      <c r="B327" s="6"/>
-      <c r="C327" s="7"/>
+      <c r="B327" s="22"/>
+      <c r="C327" s="4"/>
       <c r="D327" s="7"/>
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
       <c r="G327" s="31"/>
       <c r="H327" s="7"/>
     </row>
-    <row r="328" spans="1:8" s="2" customFormat="1">
-      <c r="A328" s="4"/>
-      <c r="B328" s="4"/>
-      <c r="C328" s="9"/>
-      <c r="D328" s="4"/>
-      <c r="E328" s="4"/>
-      <c r="F328" s="4"/>
-      <c r="G328" s="35"/>
-      <c r="H328" s="4"/>
-    </row>
-    <row r="329" spans="1:8" s="2" customFormat="1">
-      <c r="A329" s="4"/>
-      <c r="B329" s="4"/>
-      <c r="C329" s="9"/>
-      <c r="D329" s="4"/>
-      <c r="E329" s="4"/>
-      <c r="F329" s="4"/>
-      <c r="G329" s="35"/>
-      <c r="H329" s="4"/>
+    <row r="328" spans="1:8">
+      <c r="A328" s="7"/>
+      <c r="B328" s="7"/>
+      <c r="C328" s="7"/>
+      <c r="D328" s="7"/>
+      <c r="E328" s="7"/>
+      <c r="F328" s="7"/>
+      <c r="G328" s="31"/>
+      <c r="H328" s="7"/>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="7"/>
+      <c r="B329" s="6"/>
+      <c r="C329" s="7"/>
+      <c r="D329" s="7"/>
+      <c r="E329" s="7"/>
+      <c r="F329" s="7"/>
+      <c r="G329" s="31"/>
+      <c r="H329" s="7"/>
     </row>
     <row r="330" spans="1:8" s="2" customFormat="1">
       <c r="A330" s="4"/>
@@ -8761,7 +9328,7 @@
     </row>
     <row r="331" spans="1:8" s="2" customFormat="1">
       <c r="A331" s="4"/>
-      <c r="B331" s="20"/>
+      <c r="B331" s="4"/>
       <c r="C331" s="9"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -8771,7 +9338,7 @@
     </row>
     <row r="332" spans="1:8" s="2" customFormat="1">
       <c r="A332" s="4"/>
-      <c r="B332" s="20"/>
+      <c r="B332" s="4"/>
       <c r="C332" s="9"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -8811,8 +9378,8 @@
     </row>
     <row r="336" spans="1:8" s="2" customFormat="1">
       <c r="A336" s="4"/>
-      <c r="B336" s="27"/>
-      <c r="C336" s="4"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="9"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
@@ -8821,8 +9388,8 @@
     </row>
     <row r="337" spans="1:8" s="2" customFormat="1">
       <c r="A337" s="4"/>
-      <c r="B337" s="27"/>
-      <c r="C337" s="4"/>
+      <c r="B337" s="20"/>
+      <c r="C337" s="9"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
@@ -8861,7 +9428,7 @@
     </row>
     <row r="341" spans="1:8" s="2" customFormat="1">
       <c r="A341" s="4"/>
-      <c r="B341" s="22"/>
+      <c r="B341" s="27"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -8871,7 +9438,7 @@
     </row>
     <row r="342" spans="1:8" s="2" customFormat="1">
       <c r="A342" s="4"/>
-      <c r="B342" s="22"/>
+      <c r="B342" s="27"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
@@ -8911,7 +9478,7 @@
     </row>
     <row r="346" spans="1:8" s="2" customFormat="1">
       <c r="A346" s="4"/>
-      <c r="B346" s="20"/>
+      <c r="B346" s="22"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -8931,7 +9498,7 @@
     </row>
     <row r="348" spans="1:8" s="2" customFormat="1">
       <c r="A348" s="4"/>
-      <c r="B348" s="4"/>
+      <c r="B348" s="20"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -8939,30 +9506,30 @@
       <c r="G348" s="35"/>
       <c r="H348" s="4"/>
     </row>
-    <row r="349" spans="1:8">
-      <c r="A349" s="7"/>
-      <c r="B349" s="6"/>
-      <c r="C349" s="7"/>
-      <c r="D349" s="7"/>
-      <c r="E349" s="7"/>
-      <c r="F349" s="7"/>
-      <c r="G349" s="31"/>
-      <c r="H349" s="7"/>
-    </row>
-    <row r="350" spans="1:8">
-      <c r="A350" s="7"/>
-      <c r="B350" s="7"/>
+    <row r="349" spans="1:8" s="2" customFormat="1">
+      <c r="A349" s="4"/>
+      <c r="B349" s="22"/>
+      <c r="C349" s="4"/>
+      <c r="D349" s="4"/>
+      <c r="E349" s="4"/>
+      <c r="F349" s="4"/>
+      <c r="G349" s="35"/>
+      <c r="H349" s="4"/>
+    </row>
+    <row r="350" spans="1:8" s="2" customFormat="1">
+      <c r="A350" s="4"/>
+      <c r="B350" s="4"/>
       <c r="C350" s="4"/>
-      <c r="D350" s="7"/>
-      <c r="E350" s="7"/>
-      <c r="F350" s="7"/>
-      <c r="G350" s="31"/>
-      <c r="H350" s="7"/>
+      <c r="D350" s="4"/>
+      <c r="E350" s="4"/>
+      <c r="F350" s="4"/>
+      <c r="G350" s="35"/>
+      <c r="H350" s="4"/>
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="7"/>
-      <c r="C351" s="4"/>
+      <c r="B351" s="6"/>
+      <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
@@ -9021,7 +9588,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="4"/>
+      <c r="B357" s="7"/>
       <c r="C357" s="4"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -9031,8 +9598,8 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="4"/>
-      <c r="C358" s="7"/>
+      <c r="B358" s="7"/>
+      <c r="C358" s="4"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
       <c r="F358" s="7"/>
@@ -9041,8 +9608,8 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="6"/>
-      <c r="C359" s="7"/>
+      <c r="B359" s="4"/>
+      <c r="C359" s="4"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
       <c r="F359" s="7"/>
@@ -9051,7 +9618,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="7"/>
+      <c r="B360" s="4"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -9061,7 +9628,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="23"/>
+      <c r="B361" s="6"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -9081,7 +9648,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="7"/>
+      <c r="B363" s="23"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -9111,7 +9678,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="6"/>
+      <c r="B366" s="7"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -9131,7 +9698,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="21"/>
+      <c r="B368" s="6"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -9141,7 +9708,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="21"/>
+      <c r="B369" s="7"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -9161,7 +9728,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="23"/>
+      <c r="B371" s="21"/>
       <c r="C371" s="7"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -9181,7 +9748,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="21"/>
+      <c r="B373" s="23"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -9191,7 +9758,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="23"/>
+      <c r="B374" s="21"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -9231,7 +9798,7 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="7"/>
-      <c r="B378" s="21"/>
+      <c r="B378" s="23"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
@@ -9251,7 +9818,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="7"/>
+      <c r="B380" s="21"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -9261,7 +9828,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="28"/>
+      <c r="B381" s="21"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -9271,7 +9838,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
-      <c r="B382" s="23"/>
+      <c r="B382" s="7"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
@@ -9281,8 +9848,8 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="7"/>
-      <c r="C383" s="4"/>
+      <c r="B383" s="28"/>
+      <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
@@ -9291,8 +9858,8 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="21"/>
-      <c r="C384" s="4"/>
+      <c r="B384" s="23"/>
+      <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
@@ -9301,7 +9868,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="21"/>
+      <c r="B385" s="7"/>
       <c r="C385" s="4"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -9321,7 +9888,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="7"/>
+      <c r="B387" s="21"/>
       <c r="C387" s="4"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -9331,7 +9898,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
-      <c r="B388" s="7"/>
+      <c r="B388" s="21"/>
       <c r="C388" s="4"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -9351,7 +9918,7 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
-      <c r="B390" s="21"/>
+      <c r="B390" s="7"/>
       <c r="C390" s="4"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
@@ -9361,7 +9928,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="21"/>
+      <c r="B391" s="7"/>
       <c r="C391" s="4"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -9371,8 +9938,8 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="7"/>
-      <c r="C392" s="7"/>
+      <c r="B392" s="21"/>
+      <c r="C392" s="4"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
@@ -9381,8 +9948,8 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="6"/>
-      <c r="C393" s="7"/>
+      <c r="B393" s="21"/>
+      <c r="C393" s="4"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
       <c r="F393" s="7"/>
@@ -9401,7 +9968,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="7"/>
+      <c r="B395" s="6"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -9451,7 +10018,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="6"/>
+      <c r="B400" s="7"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -9471,7 +10038,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="7"/>
+      <c r="B402" s="6"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -9482,7 +10049,7 @@
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
       <c r="B403" s="7"/>
-      <c r="C403" s="4"/>
+      <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
       <c r="F403" s="7"/>
@@ -9491,8 +10058,8 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="21"/>
-      <c r="C404" s="4"/>
+      <c r="B404" s="7"/>
+      <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
       <c r="F404" s="7"/>
@@ -9501,8 +10068,8 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="21"/>
-      <c r="C405" s="7"/>
+      <c r="B405" s="7"/>
+      <c r="C405" s="4"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
       <c r="F405" s="7"/>
@@ -9511,8 +10078,8 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="28"/>
-      <c r="C406" s="7"/>
+      <c r="B406" s="21"/>
+      <c r="C406" s="4"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
       <c r="F406" s="7"/>
@@ -9521,7 +10088,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="23"/>
+      <c r="B407" s="21"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -9531,7 +10098,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="23"/>
+      <c r="B408" s="28"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -9571,7 +10138,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
+      <c r="B412" s="23"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -9581,7 +10148,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="6"/>
+      <c r="B413" s="23"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -9601,7 +10168,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="21"/>
+      <c r="B415" s="6"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -9611,7 +10178,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="23"/>
+      <c r="B416" s="7"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -9621,7 +10188,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="23"/>
+      <c r="B417" s="21"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -9631,7 +10198,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="21"/>
+      <c r="B418" s="23"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -9641,7 +10208,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="21"/>
+      <c r="B419" s="23"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -9671,7 +10238,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="7"/>
+      <c r="B422" s="21"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -9691,7 +10258,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="21"/>
+      <c r="B424" s="7"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -9701,7 +10268,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="7"/>
-      <c r="B425" s="23"/>
+      <c r="B425" s="21"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -9711,7 +10278,7 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" s="7"/>
-      <c r="B426" s="7"/>
+      <c r="B426" s="21"/>
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
@@ -9721,7 +10288,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="7"/>
-      <c r="B427" s="6"/>
+      <c r="B427" s="23"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -9741,7 +10308,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="7"/>
+      <c r="B429" s="6"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -9751,7 +10318,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="6"/>
+      <c r="B430" s="7"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -9771,7 +10338,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="21"/>
+      <c r="B432" s="6"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -9781,7 +10348,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="21"/>
+      <c r="B433" s="7"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -9791,7 +10358,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="7"/>
+      <c r="B434" s="21"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -9801,7 +10368,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="7"/>
-      <c r="B435" s="6"/>
+      <c r="B435" s="21"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -9821,7 +10388,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="7"/>
+      <c r="B437" s="6"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -9861,7 +10428,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="7"/>
-      <c r="B441" s="6"/>
+      <c r="B441" s="7"/>
       <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
@@ -9881,7 +10448,7 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
-      <c r="B443" s="7"/>
+      <c r="B443" s="6"/>
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -9931,7 +10498,7 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" s="7"/>
-      <c r="B448" s="6"/>
+      <c r="B448" s="7"/>
       <c r="C448" s="7"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
@@ -9951,7 +10518,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="7"/>
+      <c r="B450" s="6"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -9961,7 +10528,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="6"/>
+      <c r="B451" s="7"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -9971,7 +10538,7 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
-      <c r="B452" s="4"/>
+      <c r="B452" s="7"/>
       <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
@@ -9981,7 +10548,7 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
-      <c r="B453" s="4"/>
+      <c r="B453" s="6"/>
       <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
@@ -9991,7 +10558,7 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" s="7"/>
-      <c r="B454" s="7"/>
+      <c r="B454" s="4"/>
       <c r="C454" s="7"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
@@ -10001,7 +10568,7 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" s="7"/>
-      <c r="B455" s="7"/>
+      <c r="B455" s="4"/>
       <c r="C455" s="7"/>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
@@ -10021,7 +10588,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="6"/>
+      <c r="B457" s="7"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -10032,7 +10599,7 @@
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
       <c r="B458" s="7"/>
-      <c r="C458" s="4"/>
+      <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
       <c r="F458" s="7"/>
@@ -10041,8 +10608,8 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="7"/>
-      <c r="C459" s="4"/>
+      <c r="B459" s="6"/>
+      <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
       <c r="F459" s="7"/>
@@ -10082,7 +10649,7 @@
     <row r="463" spans="1:8">
       <c r="A463" s="7"/>
       <c r="B463" s="7"/>
-      <c r="C463" s="7"/>
+      <c r="C463" s="4"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
       <c r="F463" s="7"/>
@@ -10091,8 +10658,8 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" s="7"/>
-      <c r="B464" s="6"/>
-      <c r="C464" s="7"/>
+      <c r="B464" s="7"/>
+      <c r="C464" s="4"/>
       <c r="D464" s="7"/>
       <c r="E464" s="7"/>
       <c r="F464" s="7"/>
@@ -10102,7 +10669,7 @@
     <row r="465" spans="1:8">
       <c r="A465" s="7"/>
       <c r="B465" s="7"/>
-      <c r="C465" s="4"/>
+      <c r="C465" s="7"/>
       <c r="D465" s="7"/>
       <c r="E465" s="7"/>
       <c r="F465" s="7"/>
@@ -10111,8 +10678,8 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="7"/>
-      <c r="B466" s="7"/>
-      <c r="C466" s="4"/>
+      <c r="B466" s="6"/>
+      <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
       <c r="F466" s="7"/>
@@ -10142,7 +10709,7 @@
     <row r="469" spans="1:8">
       <c r="A469" s="7"/>
       <c r="B469" s="7"/>
-      <c r="C469" s="7"/>
+      <c r="C469" s="4"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
       <c r="F469" s="7"/>
@@ -10151,8 +10718,8 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="6"/>
-      <c r="C470" s="7"/>
+      <c r="B470" s="7"/>
+      <c r="C470" s="4"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
       <c r="F470" s="7"/>
@@ -10161,7 +10728,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="23"/>
+      <c r="B471" s="7"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -10171,7 +10738,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="23"/>
+      <c r="B472" s="6"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -10221,7 +10788,7 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="7"/>
-      <c r="B477" s="7"/>
+      <c r="B477" s="23"/>
       <c r="C477" s="7"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
@@ -10231,7 +10798,7 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="7"/>
-      <c r="B478" s="6"/>
+      <c r="B478" s="23"/>
       <c r="C478" s="7"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
@@ -10241,7 +10808,7 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="7"/>
-      <c r="B479" s="23"/>
+      <c r="B479" s="7"/>
       <c r="C479" s="7"/>
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
@@ -10251,7 +10818,7 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="7"/>
-      <c r="B480" s="23"/>
+      <c r="B480" s="6"/>
       <c r="C480" s="7"/>
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
@@ -10270,8 +10837,8 @@
       <c r="H481" s="7"/>
     </row>
     <row r="482" spans="1:8">
-      <c r="A482" s="6"/>
-      <c r="B482" s="7"/>
+      <c r="A482" s="7"/>
+      <c r="B482" s="23"/>
       <c r="C482" s="7"/>
       <c r="D482" s="7"/>
       <c r="E482" s="7"/>
@@ -10281,7 +10848,7 @@
     </row>
     <row r="483" spans="1:8">
       <c r="A483" s="7"/>
-      <c r="B483" s="7"/>
+      <c r="B483" s="23"/>
       <c r="C483" s="7"/>
       <c r="D483" s="7"/>
       <c r="E483" s="7"/>
@@ -10290,7 +10857,7 @@
       <c r="H483" s="7"/>
     </row>
     <row r="484" spans="1:8">
-      <c r="A484" s="7"/>
+      <c r="A484" s="6"/>
       <c r="B484" s="7"/>
       <c r="C484" s="7"/>
       <c r="D484" s="7"/>
@@ -10321,7 +10888,7 @@
     </row>
     <row r="487" spans="1:8">
       <c r="A487" s="7"/>
-      <c r="B487" s="29"/>
+      <c r="B487" s="7"/>
       <c r="C487" s="7"/>
       <c r="D487" s="7"/>
       <c r="E487" s="7"/>
@@ -10331,7 +10898,7 @@
     </row>
     <row r="488" spans="1:8">
       <c r="A488" s="7"/>
-      <c r="B488" s="29"/>
+      <c r="B488" s="7"/>
       <c r="C488" s="7"/>
       <c r="D488" s="7"/>
       <c r="E488" s="7"/>
@@ -10351,7 +10918,7 @@
     </row>
     <row r="490" spans="1:8">
       <c r="A490" s="7"/>
-      <c r="B490" s="7"/>
+      <c r="B490" s="29"/>
       <c r="C490" s="7"/>
       <c r="D490" s="7"/>
       <c r="E490" s="7"/>
@@ -10381,11 +10948,11 @@
     </row>
     <row r="493" spans="1:8">
       <c r="A493" s="7"/>
-      <c r="B493" s="30"/>
-      <c r="C493" s="31"/>
+      <c r="B493" s="29"/>
+      <c r="C493" s="7"/>
       <c r="D493" s="7"/>
       <c r="E493" s="7"/>
-      <c r="F493" s="30"/>
+      <c r="F493" s="7"/>
       <c r="G493" s="31"/>
       <c r="H493" s="7"/>
     </row>
@@ -10401,11 +10968,11 @@
     </row>
     <row r="495" spans="1:8">
       <c r="A495" s="7"/>
-      <c r="B495" s="7"/>
-      <c r="C495" s="7"/>
+      <c r="B495" s="30"/>
+      <c r="C495" s="31"/>
       <c r="D495" s="7"/>
       <c r="E495" s="7"/>
-      <c r="F495" s="7"/>
+      <c r="F495" s="30"/>
       <c r="G495" s="31"/>
       <c r="H495" s="7"/>
     </row>
@@ -14299,6 +14866,26 @@
       <c r="G884" s="31"/>
       <c r="H884" s="7"/>
     </row>
+    <row r="885" spans="1:8">
+      <c r="A885" s="7"/>
+      <c r="B885" s="7"/>
+      <c r="C885" s="7"/>
+      <c r="D885" s="7"/>
+      <c r="E885" s="7"/>
+      <c r="F885" s="7"/>
+      <c r="G885" s="31"/>
+      <c r="H885" s="7"/>
+    </row>
+    <row r="886" spans="1:8">
+      <c r="A886" s="7"/>
+      <c r="B886" s="7"/>
+      <c r="C886" s="7"/>
+      <c r="D886" s="7"/>
+      <c r="E886" s="7"/>
+      <c r="F886" s="7"/>
+      <c r="G886" s="31"/>
+      <c r="H886" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="213">
   <si>
     <t>Feature</t>
   </si>
@@ -654,6 +654,9 @@
   </si>
   <si>
     <t>cyrillic</t>
+  </si>
+  <si>
+    <t>2022-0120-2125</t>
   </si>
 </sst>
 </file>
@@ -863,28 +866,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -923,8 +905,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954903"/>
-          <c:h val="0.89627228525120017"/>
+          <c:w val="0.91978071330954914"/>
+          <c:h val="0.89627228525120006"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -1030,7 +1012,7 @@
                   <c:v>42342</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44562</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44581</c:v>
@@ -1117,7 +1099,7 @@
                   <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>184</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,7 +1206,7 @@
                   <c:v>42342</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44562</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44581</c:v>
@@ -1311,7 +1293,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,7 +1400,7 @@
                   <c:v>42342</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44562</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44581</c:v>
@@ -1612,7 +1594,7 @@
                   <c:v>42342</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44562</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44581</c:v>
@@ -1711,11 +1693,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="179489408"/>
-        <c:axId val="179499392"/>
+        <c:axId val="178774016"/>
+        <c:axId val="178775552"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="179489408"/>
+        <c:axId val="178774016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,7 +1730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179499392"/>
+        <c:crossAx val="178775552"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1756,7 +1738,7 @@
         <c:majorTimeUnit val="years"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179499392"/>
+        <c:axId val="178775552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1798,7 +1780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179489408"/>
+        <c:crossAx val="178774016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1888,7 +1870,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001144" r="0.75000000000001144" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001155" r="0.75000000000001155" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1942,7 +1924,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127248E-2"/>
+          <c:x val="4.4510450248127269E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -2051,7 +2033,7 @@
                   <c:v>42342</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44562</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44581</c:v>
@@ -2138,17 +2120,17 @@
                   <c:v>0.97814207650273222</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.85185185185185186</c:v>
+                  <c:v>0.94907407407407407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="179316992"/>
-        <c:axId val="179470336"/>
+        <c:axId val="178610944"/>
+        <c:axId val="178612480"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="179316992"/>
+        <c:axId val="178610944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,13 +2138,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="179470336"/>
+        <c:crossAx val="178612480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179470336"/>
+        <c:axId val="178612480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2205,7 +2187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179316992"/>
+        <c:crossAx val="178610944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2254,7 +2236,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001144" r="0.75000000000001144" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001155" r="0.75000000000001155" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2379,7 +2361,7 @@
                   <c:v>42342</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44562</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44581</c:v>
@@ -2466,7 +2448,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2573,7 +2555,7 @@
                   <c:v>42342</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44562</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44581</c:v>
@@ -2666,11 +2648,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="179368320"/>
-        <c:axId val="179369856"/>
+        <c:axId val="178645632"/>
+        <c:axId val="179179904"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="179368320"/>
+        <c:axId val="178645632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +2685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179369856"/>
+        <c:crossAx val="179179904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2714,7 +2696,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179369856"/>
+        <c:axId val="179179904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2756,7 +2738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179368320"/>
+        <c:crossAx val="178645632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2805,7 +2787,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001144" r="0.75000000000001144" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001155" r="0.75000000000001155" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3263,10 +3245,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:D277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999"/>
@@ -4677,7 +4659,7 @@
         <v>202</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D169" s="4"/>
     </row>
@@ -4919,7 +4901,7 @@
         <v>188</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D199" s="4"/>
     </row>
@@ -4928,7 +4910,7 @@
         <v>189</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D200" s="4"/>
     </row>
@@ -4937,7 +4919,7 @@
         <v>210</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D201" s="4"/>
     </row>
@@ -4946,7 +4928,7 @@
         <v>211</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D202" s="4"/>
     </row>
@@ -4955,7 +4937,7 @@
         <v>190</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D203" s="4"/>
     </row>
@@ -4964,7 +4946,7 @@
         <v>191</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D204" s="4"/>
     </row>
@@ -4973,7 +4955,7 @@
         <v>192</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D205" s="4"/>
     </row>
@@ -4982,7 +4964,7 @@
         <v>193</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D206" s="4"/>
     </row>
@@ -4991,7 +4973,7 @@
         <v>194</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D207" s="4"/>
     </row>
@@ -5000,7 +4982,7 @@
         <v>195</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D208" s="4"/>
     </row>
@@ -5009,7 +4991,7 @@
         <v>196</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D209" s="4"/>
     </row>
@@ -5027,7 +5009,7 @@
         <v>197</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D211" s="4"/>
     </row>
@@ -5036,7 +5018,7 @@
         <v>208</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D212" s="4"/>
     </row>
@@ -5050,7 +5032,7 @@
         <v>209</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D214" s="4"/>
     </row>
@@ -5059,7 +5041,7 @@
         <v>198</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D215" s="4"/>
     </row>
@@ -5073,7 +5055,7 @@
         <v>199</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D217" s="4"/>
     </row>
@@ -5082,7 +5064,7 @@
         <v>200</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D218" s="4"/>
     </row>
@@ -5091,7 +5073,7 @@
         <v>205</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D219" s="4"/>
     </row>
@@ -5100,7 +5082,7 @@
         <v>201</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D220" s="4"/>
     </row>
@@ -5109,7 +5091,7 @@
         <v>205</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D221" s="4"/>
     </row>
@@ -5133,28 +5115,44 @@
       <c r="D224" s="4"/>
     </row>
     <row r="225" spans="2:4" s="6" customFormat="1">
-      <c r="B225" s="23"/>
-      <c r="C225" s="7"/>
+      <c r="B225" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D225" s="4"/>
     </row>
     <row r="226" spans="2:4" s="6" customFormat="1">
-      <c r="B226" s="23"/>
-      <c r="C226" s="7"/>
+      <c r="B226" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D226" s="4"/>
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
-      <c r="B227" s="23"/>
-      <c r="C227" s="7"/>
+      <c r="B227" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="23"/>
-      <c r="C228" s="7"/>
+      <c r="B228" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D228" s="4"/>
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
-      <c r="B229" s="3" t="s">
-        <v>26</v>
+      <c r="B229" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>2</v>
@@ -5162,8 +5160,8 @@
       <c r="D229" s="4"/>
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
-      <c r="B230" s="23" t="s">
-        <v>174</v>
+      <c r="B230" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>2</v>
@@ -5172,7 +5170,7 @@
     </row>
     <row r="231" spans="2:4" s="6" customFormat="1">
       <c r="B231" s="21" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>2</v>
@@ -5181,16 +5179,16 @@
     </row>
     <row r="232" spans="2:4" s="6" customFormat="1">
       <c r="B232" s="24" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D232" s="4"/>
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
-      <c r="B233" s="24" t="s">
-        <v>121</v>
+      <c r="B233" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>2</v>
@@ -5198,8 +5196,8 @@
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
-      <c r="B234" s="24" t="s">
-        <v>145</v>
+      <c r="B234" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>2</v>
@@ -5207,8 +5205,8 @@
       <c r="D234" s="4"/>
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
-      <c r="B235" s="21" t="s">
-        <v>29</v>
+      <c r="B235" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>2</v>
@@ -5216,26 +5214,18 @@
       <c r="D235" s="4"/>
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
-      <c r="B236" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C236" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B236" s="23"/>
+      <c r="C236" s="7"/>
       <c r="D236" s="4"/>
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
-      <c r="B237" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B237" s="23"/>
+      <c r="C237" s="7"/>
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
-      <c r="B238" s="21" t="s">
-        <v>175</v>
+      <c r="B238" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>2</v>
@@ -5244,7 +5234,7 @@
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
       <c r="B239" s="23" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>2</v>
@@ -5252,18 +5242,26 @@
       <c r="D239" s="4"/>
     </row>
     <row r="240" spans="2:4" s="6" customFormat="1">
-      <c r="B240" s="23"/>
-      <c r="C240" s="7"/>
+      <c r="B240" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D240" s="4"/>
     </row>
     <row r="241" spans="2:4" s="6" customFormat="1">
-      <c r="B241" s="23"/>
-      <c r="C241" s="7"/>
+      <c r="B241" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
-      <c r="B242" s="3" t="s">
-        <v>114</v>
+      <c r="B242" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>2</v>
@@ -5272,7 +5270,7 @@
     </row>
     <row r="243" spans="2:4" s="6" customFormat="1">
       <c r="B243" s="23" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>2</v>
@@ -5280,8 +5278,8 @@
       <c r="D243" s="4"/>
     </row>
     <row r="244" spans="2:4" s="6" customFormat="1">
-      <c r="B244" s="23" t="s">
-        <v>117</v>
+      <c r="B244" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>2</v>
@@ -5289,8 +5287,8 @@
       <c r="D244" s="4"/>
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
-      <c r="B245" s="23" t="s">
-        <v>116</v>
+      <c r="B245" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>2</v>
@@ -5298,8 +5296,8 @@
       <c r="D245" s="4"/>
     </row>
     <row r="246" spans="2:4" s="6" customFormat="1">
-      <c r="B246" s="23" t="s">
-        <v>118</v>
+      <c r="B246" s="21" t="s">
+        <v>145</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>2</v>
@@ -5307,8 +5305,8 @@
       <c r="D246" s="4"/>
     </row>
     <row r="247" spans="2:4" s="6" customFormat="1">
-      <c r="B247" s="23" t="s">
-        <v>119</v>
+      <c r="B247" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>2</v>
@@ -5317,273 +5315,237 @@
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
       <c r="B248" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C248" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C248" s="7"/>
       <c r="D248" s="4"/>
     </row>
     <row r="249" spans="2:4" s="6" customFormat="1">
       <c r="B249" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C249" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C249" s="7"/>
       <c r="D249" s="4"/>
     </row>
     <row r="250" spans="2:4" s="6" customFormat="1">
-      <c r="B250" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C250" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B250" s="21"/>
+      <c r="C250" s="7"/>
       <c r="D250" s="4"/>
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
-      <c r="B251" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B251" s="21"/>
+      <c r="C251" s="7"/>
       <c r="D251" s="4"/>
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
-      <c r="B252" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C252" s="7"/>
+      <c r="B252" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D252" s="4"/>
     </row>
     <row r="253" spans="2:4" s="6" customFormat="1">
-      <c r="B253" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C253" s="7"/>
+      <c r="B253" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D253" s="4"/>
     </row>
     <row r="254" spans="2:4" s="6" customFormat="1">
-      <c r="B254" s="21"/>
-      <c r="C254" s="7"/>
+      <c r="B254" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D254" s="4"/>
     </row>
     <row r="255" spans="2:4" s="6" customFormat="1">
-      <c r="B255" s="21"/>
-      <c r="C255" s="7"/>
+      <c r="B255" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D255" s="4"/>
     </row>
     <row r="256" spans="2:4" s="6" customFormat="1">
-      <c r="B256" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B256" s="23"/>
+      <c r="C256" s="7"/>
       <c r="D256" s="4"/>
     </row>
-    <row r="257" spans="2:4" s="6" customFormat="1">
-      <c r="B257" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>2</v>
-      </c>
+    <row r="257" spans="1:4" s="6" customFormat="1">
+      <c r="B257" s="23"/>
+      <c r="C257" s="7"/>
       <c r="D257" s="4"/>
     </row>
-    <row r="258" spans="2:4" s="6" customFormat="1">
-      <c r="B258" s="23" t="s">
-        <v>140</v>
+    <row r="258" spans="1:4" s="6" customFormat="1">
+      <c r="B258" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D258" s="4"/>
     </row>
-    <row r="259" spans="2:4" s="6" customFormat="1">
+    <row r="259" spans="1:4" s="6" customFormat="1">
       <c r="B259" s="23" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D259" s="4"/>
     </row>
-    <row r="260" spans="2:4" s="6" customFormat="1">
-      <c r="B260" s="23"/>
-      <c r="C260" s="7"/>
+    <row r="260" spans="1:4" s="6" customFormat="1">
+      <c r="B260" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D260" s="4"/>
     </row>
-    <row r="261" spans="2:4" s="6" customFormat="1">
-      <c r="B261" s="23"/>
-      <c r="C261" s="7"/>
+    <row r="261" spans="1:4" s="6" customFormat="1">
+      <c r="B261" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D261" s="4"/>
     </row>
-    <row r="262" spans="2:4" s="6" customFormat="1">
-      <c r="B262" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C262" s="7" t="s">
-        <v>2</v>
-      </c>
+    <row r="262" spans="1:4" s="6" customFormat="1">
+      <c r="B262" s="44"/>
+      <c r="C262" s="4"/>
       <c r="D262" s="4"/>
     </row>
-    <row r="263" spans="2:4" s="6" customFormat="1">
-      <c r="B263" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>2</v>
-      </c>
+    <row r="263" spans="1:4" s="6" customFormat="1">
+      <c r="B263" s="22"/>
+      <c r="C263" s="4"/>
       <c r="D263" s="4"/>
     </row>
-    <row r="264" spans="2:4" s="6" customFormat="1">
-      <c r="B264" s="23" t="s">
-        <v>177</v>
+    <row r="264" spans="1:4" s="6" customFormat="1">
+      <c r="B264" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D264" s="4"/>
     </row>
-    <row r="265" spans="2:4" s="6" customFormat="1">
+    <row r="265" spans="1:4" s="6" customFormat="1">
       <c r="B265" s="23" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D265" s="4"/>
     </row>
-    <row r="266" spans="2:4" s="6" customFormat="1">
-      <c r="B266" s="44"/>
-      <c r="C266" s="4"/>
+    <row r="266" spans="1:4" s="6" customFormat="1">
+      <c r="B266" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D266" s="4"/>
     </row>
-    <row r="267" spans="2:4" s="6" customFormat="1">
-      <c r="B267" s="22"/>
+    <row r="267" spans="1:4" s="6" customFormat="1">
+      <c r="B267" s="23"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
     </row>
-    <row r="268" spans="2:4" s="6" customFormat="1">
-      <c r="B268" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>2</v>
-      </c>
+    <row r="268" spans="1:4" s="6" customFormat="1">
+      <c r="B268" s="20"/>
+      <c r="C268" s="4"/>
       <c r="D268" s="4"/>
     </row>
-    <row r="269" spans="2:4" s="6" customFormat="1">
-      <c r="B269" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>2</v>
-      </c>
+    <row r="269" spans="1:4" s="6" customFormat="1">
+      <c r="B269" s="22"/>
+      <c r="C269" s="4"/>
       <c r="D269" s="4"/>
     </row>
-    <row r="270" spans="2:4" s="6" customFormat="1">
-      <c r="B270" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>2</v>
-      </c>
+    <row r="270" spans="1:4" s="6" customFormat="1">
+      <c r="B270" s="22"/>
+      <c r="C270" s="4"/>
       <c r="D270" s="4"/>
     </row>
-    <row r="271" spans="2:4" s="6" customFormat="1">
-      <c r="B271" s="23"/>
-      <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
-    </row>
-    <row r="272" spans="2:4" s="6" customFormat="1">
-      <c r="B272" s="20"/>
-      <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
-    </row>
-    <row r="273" spans="1:4" s="6" customFormat="1">
-      <c r="B273" s="22"/>
-      <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
-    </row>
-    <row r="274" spans="1:4" s="6" customFormat="1">
-      <c r="B274" s="22"/>
-      <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
+    <row r="271" spans="1:4">
+      <c r="A271" s="3"/>
+      <c r="B271" s="11"/>
+      <c r="C271" s="11"/>
+      <c r="D271" s="3"/>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="3"/>
+      <c r="B272" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272" s="6">
+        <f>COUNTIF(C5:C271,"y")</f>
+        <v>205</v>
+      </c>
+      <c r="D272" s="2"/>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="3"/>
+      <c r="B273" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" s="6">
+        <f>COUNTIF(C5:C271,"n")</f>
+        <v>11</v>
+      </c>
+      <c r="D273" s="2"/>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="3"/>
+      <c r="B274" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" s="7">
+        <f>COUNTIF(C5:C271,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D274" s="2"/>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="3"/>
-      <c r="B275" s="11"/>
-      <c r="C275" s="11"/>
-      <c r="D275" s="3"/>
-    </row>
-    <row r="276" spans="1:4">
+      <c r="B275" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C275">
+        <f>SUM(C272:C274)</f>
+        <v>216</v>
+      </c>
+      <c r="D275" s="2"/>
+    </row>
+    <row r="276" spans="1:4" ht="17.399999999999999">
       <c r="A276" s="3"/>
-      <c r="B276" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C276" s="6">
-        <f>COUNTIF(C5:C275,"y")</f>
-        <v>184</v>
-      </c>
-      <c r="D276" s="2"/>
+      <c r="B276" s="10"/>
+      <c r="C276" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D276" s="42">
+        <f>C272/(C273+C272 + C274)</f>
+        <v>0.94907407407407407</v>
+      </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="3"/>
-      <c r="B277" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C277" s="6">
-        <f>COUNTIF(C5:C275,"n")</f>
-        <v>32</v>
-      </c>
-      <c r="D277" s="2"/>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="3"/>
-      <c r="B278" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C278" s="7">
-        <f>COUNTIF(C5:C275,"TBD")</f>
-        <v>0</v>
-      </c>
-      <c r="D278" s="2"/>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="3"/>
-      <c r="B279" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C279">
-        <f>SUM(C276:C278)</f>
-        <v>216</v>
-      </c>
-      <c r="D279" s="2"/>
-    </row>
-    <row r="280" spans="1:4" ht="17.399999999999999">
-      <c r="A280" s="3"/>
-      <c r="B280" s="10"/>
-      <c r="C280" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D280" s="42">
-        <f>C276/(C277+C276 + C278)</f>
-        <v>0.85185185185185186</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="3"/>
-      <c r="B281" s="11"/>
-      <c r="C281" s="11"/>
-      <c r="D281" s="3"/>
+      <c r="B277" s="11"/>
+      <c r="C277" s="11"/>
+      <c r="D277" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C7:C150 C1:C3 C153:C65029">
+  <conditionalFormatting sqref="C7:C150 C1:C3 C153:C65025">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5610,7 +5572,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A52" activePane="bottomLeft"/>
       <selection activeCell="E47" sqref="E46:E47"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999"/>
@@ -5620,7 +5582,7 @@
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="34" customWidth="1"/>
     <col min="8" max="9" width="4" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" customWidth="1"/>
@@ -6421,7 +6383,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="12">
-        <v>44562</v>
+        <v>44501</v>
       </c>
       <c r="B71" s="4">
         <v>179</v>
@@ -6449,10 +6411,10 @@
         <v>44581</v>
       </c>
       <c r="B72" s="4">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C72" s="4">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D72" s="4">
         <v>0</v>
@@ -6461,11 +6423,11 @@
         <v>0</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="G72" s="31">
         <f t="shared" si="0"/>
-        <v>0.85185185185185186</v>
+        <v>0.94907407407407407</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -6510,7 +6472,7 @@
       </c>
       <c r="G75" s="39">
         <f>MIN(G72)</f>
-        <v>0.85185185185185186</v>
+        <v>0.94907407407407407</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -6520,15 +6482,15 @@
         <v>216</v>
       </c>
       <c r="B76" s="16">
-        <f>Features!C276</f>
-        <v>184</v>
+        <f>Features!C272</f>
+        <v>205</v>
       </c>
       <c r="C76" s="17">
-        <f>Features!C277</f>
-        <v>32</v>
+        <f>Features!C273</f>
+        <v>11</v>
       </c>
       <c r="D76" s="18">
-        <f>Features!C278</f>
+        <f>Features!C274</f>
         <v>0</v>
       </c>
       <c r="E76" s="19">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -656,7 +656,7 @@
     <t>cyrillic</t>
   </si>
   <si>
-    <t>2022-0120-2125</t>
+    <t>2022-0120-2200</t>
   </si>
 </sst>
 </file>
@@ -905,8 +905,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954914"/>
-          <c:h val="0.89627228525120006"/>
+          <c:w val="0.91978071330954925"/>
+          <c:h val="0.89627228525119995"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -1693,11 +1693,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="178774016"/>
-        <c:axId val="178775552"/>
+        <c:axId val="180674560"/>
+        <c:axId val="180676096"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="178774016"/>
+        <c:axId val="180674560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1730,7 +1730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178775552"/>
+        <c:crossAx val="180676096"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1738,7 +1738,7 @@
         <c:majorTimeUnit val="years"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="178775552"/>
+        <c:axId val="180676096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178774016"/>
+        <c:crossAx val="180674560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1870,7 +1870,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001155" r="0.75000000000001155" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001166" r="0.75000000000001166" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1924,7 +1924,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127269E-2"/>
+          <c:x val="4.451045024812729E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -2126,11 +2126,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="178610944"/>
-        <c:axId val="178612480"/>
+        <c:axId val="180511488"/>
+        <c:axId val="180513024"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="178610944"/>
+        <c:axId val="180511488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,13 +2138,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="178612480"/>
+        <c:crossAx val="180513024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="178612480"/>
+        <c:axId val="180513024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2187,7 +2187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178610944"/>
+        <c:crossAx val="180511488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2236,7 +2236,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001155" r="0.75000000000001155" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001166" r="0.75000000000001166" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2648,11 +2648,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="178645632"/>
-        <c:axId val="179179904"/>
+        <c:axId val="180546176"/>
+        <c:axId val="180883840"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="178645632"/>
+        <c:axId val="180546176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,7 +2685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179179904"/>
+        <c:crossAx val="180883840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2696,7 +2696,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179179904"/>
+        <c:axId val="180883840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2738,7 +2738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178645632"/>
+        <c:crossAx val="180546176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2787,7 +2787,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001155" r="0.75000000000001155" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001166" r="0.75000000000001166" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="214">
   <si>
     <t>Feature</t>
   </si>
@@ -569,9 +569,6 @@
     <t>data v2</t>
   </si>
   <si>
-    <t>data v3</t>
-  </si>
-  <si>
     <t>xsalsa20-poly1305</t>
   </si>
   <si>
@@ -656,7 +653,13 @@
     <t>cyrillic</t>
   </si>
   <si>
-    <t>2022-0120-2200</t>
+    <t>data v4</t>
+  </si>
+  <si>
+    <t>2022.0123.1530</t>
+  </si>
+  <si>
+    <t>2022.0120.2200</t>
   </si>
 </sst>
 </file>
@@ -905,8 +908,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954925"/>
-          <c:h val="0.89627228525119995"/>
+          <c:w val="0.91978071330954958"/>
+          <c:h val="0.89627228525119973"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -938,10 +941,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$72</c:f>
+              <c:f>Progress!$A$48:$A$73</c:f>
               <c:numCache>
                 <c:formatCode>dd-mm-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1016,16 +1019,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$72</c:f>
+              <c:f>Progress!$B$48:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1100,6 +1106,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,10 +1141,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$72</c:f>
+              <c:f>Progress!$A$48:$A$73</c:f>
               <c:numCache>
                 <c:formatCode>dd-mm-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1210,16 +1219,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$72</c:f>
+              <c:f>Progress!$C$48:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1294,6 +1306,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,10 +1341,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$72</c:f>
+              <c:f>Progress!$A$48:$A$73</c:f>
               <c:numCache>
                 <c:formatCode>dd-mm-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1404,16 +1419,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$72</c:f>
+              <c:f>Progress!$D$48:$D$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1487,6 +1505,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1520,10 +1541,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$72</c:f>
+              <c:f>Progress!$A$48:$A$73</c:f>
               <c:numCache>
                 <c:formatCode>dd-mm-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -1598,16 +1619,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$76</c:f>
+              <c:f>Progress!$E$48:$E$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1683,21 +1707,24 @@
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="180674560"/>
-        <c:axId val="180676096"/>
+        <c:axId val="184541184"/>
+        <c:axId val="184542720"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="180674560"/>
+        <c:axId val="184541184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1730,7 +1757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180676096"/>
+        <c:crossAx val="184542720"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1738,7 +1765,7 @@
         <c:majorTimeUnit val="years"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180676096"/>
+        <c:axId val="184542720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180674560"/>
+        <c:crossAx val="184541184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1870,7 +1897,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001166" r="0.75000000000001166" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1924,7 +1951,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.451045024812729E-2"/>
+          <c:x val="4.4510450248127324E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1959,10 +1986,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$72</c:f>
+              <c:f>Progress!$A$48:$A$73</c:f>
               <c:numCache>
                 <c:formatCode>dd-mm-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -2037,16 +2064,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$72</c:f>
+              <c:f>Progress!$G$48:$G$73</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2121,16 +2151,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.94907407407407407</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97222222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="180511488"/>
-        <c:axId val="180513024"/>
+        <c:axId val="184312576"/>
+        <c:axId val="184314112"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="180511488"/>
+        <c:axId val="184312576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,13 +2171,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="180513024"/>
+        <c:crossAx val="184314112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180513024"/>
+        <c:axId val="184314112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2187,7 +2220,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180511488"/>
+        <c:crossAx val="184312576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2236,7 +2269,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001166" r="0.75000000000001166" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2287,10 +2320,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$72</c:f>
+              <c:f>Progress!$A$48:$A$73</c:f>
               <c:numCache>
                 <c:formatCode>dd-mm-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -2365,16 +2398,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$72</c:f>
+              <c:f>Progress!$C$48:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2449,6 +2485,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2481,10 +2520,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$72</c:f>
+              <c:f>Progress!$A$48:$A$73</c:f>
               <c:numCache>
                 <c:formatCode>dd-mm-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>40844</c:v>
                 </c:pt>
@@ -2559,16 +2598,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$72</c:f>
+              <c:f>Progress!$D$48:$D$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2642,17 +2684,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="180546176"/>
-        <c:axId val="180883840"/>
+        <c:axId val="184351360"/>
+        <c:axId val="184947072"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="180546176"/>
+        <c:axId val="184351360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,7 +2730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180883840"/>
+        <c:crossAx val="184947072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2696,7 +2741,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180883840"/>
+        <c:axId val="184947072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2738,7 +2783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180546176"/>
+        <c:crossAx val="184351360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2787,7 +2832,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001166" r="0.75000000000001166" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2837,7 +2882,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>24765</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3247,8 +3292,8 @@
   </sheetPr>
   <dimension ref="A1:D277"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999"/>
@@ -3318,37 +3363,37 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="7" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="B10" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="B11" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="B12" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -3422,7 +3467,7 @@
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
       <c r="B21" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>2</v>
@@ -4656,7 +4701,7 @@
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
       <c r="B169" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>2</v>
@@ -4665,7 +4710,7 @@
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
       <c r="B170" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>2</v>
@@ -4674,7 +4719,7 @@
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
       <c r="B171" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>2</v>
@@ -4770,16 +4815,16 @@
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
       <c r="B183" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
       <c r="B184" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>2</v>
@@ -4788,7 +4833,7 @@
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
       <c r="B185" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>2</v>
@@ -4898,7 +4943,7 @@
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
       <c r="B199" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>2</v>
@@ -4907,7 +4952,7 @@
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>2</v>
@@ -4916,7 +4961,7 @@
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
       <c r="B201" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>2</v>
@@ -4925,7 +4970,7 @@
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
       <c r="B202" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>2</v>
@@ -4934,7 +4979,7 @@
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
       <c r="B203" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>2</v>
@@ -4943,7 +4988,7 @@
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
       <c r="B204" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>2</v>
@@ -4952,7 +4997,7 @@
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
       <c r="B205" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>2</v>
@@ -4961,7 +5006,7 @@
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
       <c r="B206" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>2</v>
@@ -4970,7 +5015,7 @@
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
       <c r="B207" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>2</v>
@@ -4979,7 +5024,7 @@
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
       <c r="B208" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>2</v>
@@ -4988,7 +5033,7 @@
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
       <c r="B209" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>2</v>
@@ -4997,7 +5042,7 @@
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
       <c r="B210" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>14</v>
@@ -5006,7 +5051,7 @@
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
       <c r="B211" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>2</v>
@@ -5015,7 +5060,7 @@
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
       <c r="B212" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>2</v>
@@ -5029,7 +5074,7 @@
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
       <c r="B214" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>2</v>
@@ -5038,7 +5083,7 @@
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
       <c r="B215" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>2</v>
@@ -5052,7 +5097,7 @@
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
       <c r="B217" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>2</v>
@@ -5061,7 +5106,7 @@
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
       <c r="B218" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>2</v>
@@ -5070,7 +5115,7 @@
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
       <c r="B219" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>2</v>
@@ -5079,7 +5124,7 @@
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
       <c r="B220" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>2</v>
@@ -5088,7 +5133,7 @@
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
       <c r="B221" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>2</v>
@@ -5097,7 +5142,7 @@
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
       <c r="B222" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>14</v>
@@ -5489,7 +5534,7 @@
       </c>
       <c r="C272" s="6">
         <f>COUNTIF(C5:C271,"y")</f>
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D272" s="2"/>
     </row>
@@ -5500,7 +5545,7 @@
       </c>
       <c r="C273" s="6">
         <f>COUNTIF(C5:C271,"n")</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D273" s="2"/>
     </row>
@@ -5534,7 +5579,7 @@
       </c>
       <c r="D276" s="42">
         <f>C272/(C273+C272 + C274)</f>
-        <v>0.94907407407407407</v>
+        <v>0.97222222222222221</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5567,7 +5612,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT886"/>
+  <dimension ref="A1:IT887"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A52" activePane="bottomLeft"/>
@@ -5851,7 +5896,7 @@
         <v>32</v>
       </c>
       <c r="G49" s="31">
-        <f t="shared" ref="G49:G72" si="0">B49/SUM(B49:E49)</f>
+        <f t="shared" ref="G49:G73" si="0">B49/SUM(B49:E49)</f>
         <v>0.52830188679245282</v>
       </c>
       <c r="H49" s="7"/>
@@ -6423,22 +6468,37 @@
         <v>0</v>
       </c>
       <c r="F72" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G72" s="31">
+        <f t="shared" ref="G72" si="15">B72/SUM(B72:E72)</f>
+        <v>0.94907407407407407</v>
+      </c>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="12">
+        <v>44584</v>
+      </c>
+      <c r="B73" s="4">
+        <v>210</v>
+      </c>
+      <c r="C73" s="4">
+        <v>6</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="G72" s="31">
+      <c r="G73" s="31">
         <f t="shared" si="0"/>
-        <v>0.94907407407407407</v>
-      </c>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="12"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="31"/>
+        <v>0.97222222222222221</v>
+      </c>
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:10">
@@ -6447,84 +6507,84 @@
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="32"/>
+      <c r="F74" s="29"/>
       <c r="G74" s="31"/>
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="12"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B76" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C76" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D76" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E76" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="14" t="s">
+      <c r="F76" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="39">
-        <f>MIN(G72)</f>
-        <v>0.94907407407407407</v>
-      </c>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="40">
-        <f>SUM(B76:D76)</f>
+      <c r="G76" s="39">
+        <f>MIN(G73)</f>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="40">
+        <f>SUM(B77:D77)</f>
         <v>216</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B77" s="16">
         <f>Features!C272</f>
-        <v>205</v>
-      </c>
-      <c r="C76" s="17">
+        <v>210</v>
+      </c>
+      <c r="C77" s="17">
         <f>Features!C273</f>
-        <v>11</v>
-      </c>
-      <c r="D76" s="18">
+        <v>6</v>
+      </c>
+      <c r="D77" s="18">
         <f>Features!C274</f>
         <v>0</v>
       </c>
-      <c r="E76" s="19">
-        <f>MIN(E72)</f>
+      <c r="E77" s="19">
+        <f>MIN(E73)</f>
         <v>0</v>
       </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="4"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="31"/>
       <c r="H77" s="7"/>
-      <c r="J77" s="37"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="4"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="31"/>
       <c r="H78" s="7"/>
+      <c r="J78" s="37"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="4"/>
-      <c r="B79" s="20"/>
+      <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -6534,7 +6594,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="4"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -6554,7 +6614,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="4"/>
-      <c r="B82" s="20"/>
+      <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -6574,7 +6634,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="4"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -6594,7 +6654,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="4"/>
-      <c r="B86" s="7"/>
+      <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -6604,7 +6664,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="4"/>
-      <c r="B87" s="21"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="4"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -6623,7 +6683,7 @@
       <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="7"/>
+      <c r="A89" s="4"/>
       <c r="B89" s="21"/>
       <c r="C89" s="4"/>
       <c r="D89" s="7"/>
@@ -6634,7 +6694,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="4"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -6765,7 +6825,7 @@
     <row r="103" spans="1:8">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
+      <c r="C103" s="4"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
@@ -6774,7 +6834,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="7"/>
-      <c r="B104" s="6"/>
+      <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -6782,15 +6842,15 @@
       <c r="G104" s="31"/>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="1:8" s="2" customFormat="1">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="35"/>
-      <c r="H105" s="4"/>
+    <row r="105" spans="1:8">
+      <c r="A105" s="7"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="7"/>
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1">
       <c r="A106" s="4"/>
@@ -6964,7 +7024,7 @@
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="6"/>
+      <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -6974,7 +7034,7 @@
     </row>
     <row r="124" spans="1:8" s="2" customFormat="1">
       <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
+      <c r="B124" s="6"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -7004,7 +7064,7 @@
     </row>
     <row r="127" spans="1:8" s="2" customFormat="1">
       <c r="A127" s="4"/>
-      <c r="B127" s="20"/>
+      <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -7044,7 +7104,7 @@
     </row>
     <row r="131" spans="1:8" s="2" customFormat="1">
       <c r="A131" s="4"/>
-      <c r="B131" s="22"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -7054,7 +7114,7 @@
     </row>
     <row r="132" spans="1:8" s="2" customFormat="1">
       <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -7064,7 +7124,7 @@
     </row>
     <row r="133" spans="1:8" s="2" customFormat="1">
       <c r="A133" s="4"/>
-      <c r="B133" s="6"/>
+      <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -7074,7 +7134,7 @@
     </row>
     <row r="134" spans="1:8" s="2" customFormat="1">
       <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
+      <c r="B134" s="6"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -7084,7 +7144,7 @@
     </row>
     <row r="135" spans="1:8" s="2" customFormat="1">
       <c r="A135" s="4"/>
-      <c r="B135" s="20"/>
+      <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -7104,7 +7164,7 @@
     </row>
     <row r="137" spans="1:8" s="2" customFormat="1">
       <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -7164,7 +7224,7 @@
     </row>
     <row r="143" spans="1:8" s="2" customFormat="1">
       <c r="A143" s="4"/>
-      <c r="B143" s="20"/>
+      <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -7264,7 +7324,7 @@
     </row>
     <row r="153" spans="1:8" s="2" customFormat="1">
       <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -7314,7 +7374,7 @@
     </row>
     <row r="158" spans="1:8" s="2" customFormat="1">
       <c r="A158" s="4"/>
-      <c r="B158" s="20"/>
+      <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -7334,7 +7394,7 @@
     </row>
     <row r="160" spans="1:8" s="2" customFormat="1">
       <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -7373,284 +7433,284 @@
       <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:254" s="2" customFormat="1">
-      <c r="A164" s="22"/>
-      <c r="B164" s="22"/>
-      <c r="C164" s="22"/>
-      <c r="D164" s="22"/>
-      <c r="E164" s="22"/>
-      <c r="F164" s="22"/>
-      <c r="G164" s="36"/>
-      <c r="H164" s="22"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5"/>
-      <c r="K164" s="5"/>
-      <c r="L164" s="5"/>
-      <c r="M164" s="5"/>
-      <c r="N164" s="5"/>
-      <c r="O164" s="5"/>
-      <c r="P164" s="5"/>
-      <c r="Q164" s="5"/>
-      <c r="R164" s="5"/>
-      <c r="S164" s="5"/>
-      <c r="T164" s="5"/>
-      <c r="U164" s="5"/>
-      <c r="V164" s="5"/>
-      <c r="W164" s="5"/>
-      <c r="X164" s="5"/>
-      <c r="Y164" s="5"/>
-      <c r="Z164" s="5"/>
-      <c r="AA164" s="5"/>
-      <c r="AB164" s="5"/>
-      <c r="AC164" s="5"/>
-      <c r="AD164" s="5"/>
-      <c r="AE164" s="5"/>
-      <c r="AF164" s="5"/>
-      <c r="AG164" s="5"/>
-      <c r="AH164" s="5"/>
-      <c r="AI164" s="5"/>
-      <c r="AJ164" s="5"/>
-      <c r="AK164" s="5"/>
-      <c r="AL164" s="5"/>
-      <c r="AM164" s="5"/>
-      <c r="AN164" s="5"/>
-      <c r="AO164" s="5"/>
-      <c r="AP164" s="5"/>
-      <c r="AQ164" s="5"/>
-      <c r="AR164" s="5"/>
-      <c r="AS164" s="5"/>
-      <c r="AT164" s="5"/>
-      <c r="AU164" s="5"/>
-      <c r="AV164" s="5"/>
-      <c r="AW164" s="5"/>
-      <c r="AX164" s="5"/>
-      <c r="AY164" s="5"/>
-      <c r="AZ164" s="5"/>
-      <c r="BA164" s="5"/>
-      <c r="BB164" s="5"/>
-      <c r="BC164" s="5"/>
-      <c r="BD164" s="5"/>
-      <c r="BE164" s="5"/>
-      <c r="BF164" s="5"/>
-      <c r="BG164" s="5"/>
-      <c r="BH164" s="5"/>
-      <c r="BI164" s="5"/>
-      <c r="BJ164" s="5"/>
-      <c r="BK164" s="5"/>
-      <c r="BL164" s="5"/>
-      <c r="BM164" s="5"/>
-      <c r="BN164" s="5"/>
-      <c r="BO164" s="5"/>
-      <c r="BP164" s="5"/>
-      <c r="BQ164" s="5"/>
-      <c r="BR164" s="5"/>
-      <c r="BS164" s="5"/>
-      <c r="BT164" s="5"/>
-      <c r="BU164" s="5"/>
-      <c r="BV164" s="5"/>
-      <c r="BW164" s="5"/>
-      <c r="BX164" s="5"/>
-      <c r="BY164" s="5"/>
-      <c r="BZ164" s="5"/>
-      <c r="CA164" s="5"/>
-      <c r="CB164" s="5"/>
-      <c r="CC164" s="5"/>
-      <c r="CD164" s="5"/>
-      <c r="CE164" s="5"/>
-      <c r="CF164" s="5"/>
-      <c r="CG164" s="5"/>
-      <c r="CH164" s="5"/>
-      <c r="CI164" s="5"/>
-      <c r="CJ164" s="5"/>
-      <c r="CK164" s="5"/>
-      <c r="CL164" s="5"/>
-      <c r="CM164" s="5"/>
-      <c r="CN164" s="5"/>
-      <c r="CO164" s="5"/>
-      <c r="CP164" s="5"/>
-      <c r="CQ164" s="5"/>
-      <c r="CR164" s="5"/>
-      <c r="CS164" s="5"/>
-      <c r="CT164" s="5"/>
-      <c r="CU164" s="5"/>
-      <c r="CV164" s="5"/>
-      <c r="CW164" s="5"/>
-      <c r="CX164" s="5"/>
-      <c r="CY164" s="5"/>
-      <c r="CZ164" s="5"/>
-      <c r="DA164" s="5"/>
-      <c r="DB164" s="5"/>
-      <c r="DC164" s="5"/>
-      <c r="DD164" s="5"/>
-      <c r="DE164" s="5"/>
-      <c r="DF164" s="5"/>
-      <c r="DG164" s="5"/>
-      <c r="DH164" s="5"/>
-      <c r="DI164" s="5"/>
-      <c r="DJ164" s="5"/>
-      <c r="DK164" s="5"/>
-      <c r="DL164" s="5"/>
-      <c r="DM164" s="5"/>
-      <c r="DN164" s="5"/>
-      <c r="DO164" s="5"/>
-      <c r="DP164" s="5"/>
-      <c r="DQ164" s="5"/>
-      <c r="DR164" s="5"/>
-      <c r="DS164" s="5"/>
-      <c r="DT164" s="5"/>
-      <c r="DU164" s="5"/>
-      <c r="DV164" s="5"/>
-      <c r="DW164" s="5"/>
-      <c r="DX164" s="5"/>
-      <c r="DY164" s="5"/>
-      <c r="DZ164" s="5"/>
-      <c r="EA164" s="5"/>
-      <c r="EB164" s="5"/>
-      <c r="EC164" s="5"/>
-      <c r="ED164" s="5"/>
-      <c r="EE164" s="5"/>
-      <c r="EF164" s="5"/>
-      <c r="EG164" s="5"/>
-      <c r="EH164" s="5"/>
-      <c r="EI164" s="5"/>
-      <c r="EJ164" s="5"/>
-      <c r="EK164" s="5"/>
-      <c r="EL164" s="5"/>
-      <c r="EM164" s="5"/>
-      <c r="EN164" s="5"/>
-      <c r="EO164" s="5"/>
-      <c r="EP164" s="5"/>
-      <c r="EQ164" s="5"/>
-      <c r="ER164" s="5"/>
-      <c r="ES164" s="5"/>
-      <c r="ET164" s="5"/>
-      <c r="EU164" s="5"/>
-      <c r="EV164" s="5"/>
-      <c r="EW164" s="5"/>
-      <c r="EX164" s="5"/>
-      <c r="EY164" s="5"/>
-      <c r="EZ164" s="5"/>
-      <c r="FA164" s="5"/>
-      <c r="FB164" s="5"/>
-      <c r="FC164" s="5"/>
-      <c r="FD164" s="5"/>
-      <c r="FE164" s="5"/>
-      <c r="FF164" s="5"/>
-      <c r="FG164" s="5"/>
-      <c r="FH164" s="5"/>
-      <c r="FI164" s="5"/>
-      <c r="FJ164" s="5"/>
-      <c r="FK164" s="5"/>
-      <c r="FL164" s="5"/>
-      <c r="FM164" s="5"/>
-      <c r="FN164" s="5"/>
-      <c r="FO164" s="5"/>
-      <c r="FP164" s="5"/>
-      <c r="FQ164" s="5"/>
-      <c r="FR164" s="5"/>
-      <c r="FS164" s="5"/>
-      <c r="FT164" s="5"/>
-      <c r="FU164" s="5"/>
-      <c r="FV164" s="5"/>
-      <c r="FW164" s="5"/>
-      <c r="FX164" s="5"/>
-      <c r="FY164" s="5"/>
-      <c r="FZ164" s="5"/>
-      <c r="GA164" s="5"/>
-      <c r="GB164" s="5"/>
-      <c r="GC164" s="5"/>
-      <c r="GD164" s="5"/>
-      <c r="GE164" s="5"/>
-      <c r="GF164" s="5"/>
-      <c r="GG164" s="5"/>
-      <c r="GH164" s="5"/>
-      <c r="GI164" s="5"/>
-      <c r="GJ164" s="5"/>
-      <c r="GK164" s="5"/>
-      <c r="GL164" s="5"/>
-      <c r="GM164" s="5"/>
-      <c r="GN164" s="5"/>
-      <c r="GO164" s="5"/>
-      <c r="GP164" s="5"/>
-      <c r="GQ164" s="5"/>
-      <c r="GR164" s="5"/>
-      <c r="GS164" s="5"/>
-      <c r="GT164" s="5"/>
-      <c r="GU164" s="5"/>
-      <c r="GV164" s="5"/>
-      <c r="GW164" s="5"/>
-      <c r="GX164" s="5"/>
-      <c r="GY164" s="5"/>
-      <c r="GZ164" s="5"/>
-      <c r="HA164" s="5"/>
-      <c r="HB164" s="5"/>
-      <c r="HC164" s="5"/>
-      <c r="HD164" s="5"/>
-      <c r="HE164" s="5"/>
-      <c r="HF164" s="5"/>
-      <c r="HG164" s="5"/>
-      <c r="HH164" s="5"/>
-      <c r="HI164" s="5"/>
-      <c r="HJ164" s="5"/>
-      <c r="HK164" s="5"/>
-      <c r="HL164" s="5"/>
-      <c r="HM164" s="5"/>
-      <c r="HN164" s="5"/>
-      <c r="HO164" s="5"/>
-      <c r="HP164" s="5"/>
-      <c r="HQ164" s="5"/>
-      <c r="HR164" s="5"/>
-      <c r="HS164" s="5"/>
-      <c r="HT164" s="5"/>
-      <c r="HU164" s="5"/>
-      <c r="HV164" s="5"/>
-      <c r="HW164" s="5"/>
-      <c r="HX164" s="5"/>
-      <c r="HY164" s="5"/>
-      <c r="HZ164" s="5"/>
-      <c r="IA164" s="5"/>
-      <c r="IB164" s="5"/>
-      <c r="IC164" s="5"/>
-      <c r="ID164" s="5"/>
-      <c r="IE164" s="5"/>
-      <c r="IF164" s="5"/>
-      <c r="IG164" s="5"/>
-      <c r="IH164" s="5"/>
-      <c r="II164" s="5"/>
-      <c r="IJ164" s="5"/>
-      <c r="IK164" s="5"/>
-      <c r="IL164" s="5"/>
-      <c r="IM164" s="5"/>
-      <c r="IN164" s="5"/>
-      <c r="IO164" s="5"/>
-      <c r="IP164" s="5"/>
-      <c r="IQ164" s="5"/>
-      <c r="IR164" s="5"/>
-      <c r="IS164" s="5"/>
-      <c r="IT164" s="5"/>
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="35"/>
+      <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:254" s="2" customFormat="1">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="35"/>
-      <c r="H165" s="4"/>
-    </row>
-    <row r="166" spans="1:254">
-      <c r="A166" s="7"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="31"/>
-      <c r="H166" s="7"/>
+      <c r="A165" s="22"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="36"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="5"/>
+      <c r="S165" s="5"/>
+      <c r="T165" s="5"/>
+      <c r="U165" s="5"/>
+      <c r="V165" s="5"/>
+      <c r="W165" s="5"/>
+      <c r="X165" s="5"/>
+      <c r="Y165" s="5"/>
+      <c r="Z165" s="5"/>
+      <c r="AA165" s="5"/>
+      <c r="AB165" s="5"/>
+      <c r="AC165" s="5"/>
+      <c r="AD165" s="5"/>
+      <c r="AE165" s="5"/>
+      <c r="AF165" s="5"/>
+      <c r="AG165" s="5"/>
+      <c r="AH165" s="5"/>
+      <c r="AI165" s="5"/>
+      <c r="AJ165" s="5"/>
+      <c r="AK165" s="5"/>
+      <c r="AL165" s="5"/>
+      <c r="AM165" s="5"/>
+      <c r="AN165" s="5"/>
+      <c r="AO165" s="5"/>
+      <c r="AP165" s="5"/>
+      <c r="AQ165" s="5"/>
+      <c r="AR165" s="5"/>
+      <c r="AS165" s="5"/>
+      <c r="AT165" s="5"/>
+      <c r="AU165" s="5"/>
+      <c r="AV165" s="5"/>
+      <c r="AW165" s="5"/>
+      <c r="AX165" s="5"/>
+      <c r="AY165" s="5"/>
+      <c r="AZ165" s="5"/>
+      <c r="BA165" s="5"/>
+      <c r="BB165" s="5"/>
+      <c r="BC165" s="5"/>
+      <c r="BD165" s="5"/>
+      <c r="BE165" s="5"/>
+      <c r="BF165" s="5"/>
+      <c r="BG165" s="5"/>
+      <c r="BH165" s="5"/>
+      <c r="BI165" s="5"/>
+      <c r="BJ165" s="5"/>
+      <c r="BK165" s="5"/>
+      <c r="BL165" s="5"/>
+      <c r="BM165" s="5"/>
+      <c r="BN165" s="5"/>
+      <c r="BO165" s="5"/>
+      <c r="BP165" s="5"/>
+      <c r="BQ165" s="5"/>
+      <c r="BR165" s="5"/>
+      <c r="BS165" s="5"/>
+      <c r="BT165" s="5"/>
+      <c r="BU165" s="5"/>
+      <c r="BV165" s="5"/>
+      <c r="BW165" s="5"/>
+      <c r="BX165" s="5"/>
+      <c r="BY165" s="5"/>
+      <c r="BZ165" s="5"/>
+      <c r="CA165" s="5"/>
+      <c r="CB165" s="5"/>
+      <c r="CC165" s="5"/>
+      <c r="CD165" s="5"/>
+      <c r="CE165" s="5"/>
+      <c r="CF165" s="5"/>
+      <c r="CG165" s="5"/>
+      <c r="CH165" s="5"/>
+      <c r="CI165" s="5"/>
+      <c r="CJ165" s="5"/>
+      <c r="CK165" s="5"/>
+      <c r="CL165" s="5"/>
+      <c r="CM165" s="5"/>
+      <c r="CN165" s="5"/>
+      <c r="CO165" s="5"/>
+      <c r="CP165" s="5"/>
+      <c r="CQ165" s="5"/>
+      <c r="CR165" s="5"/>
+      <c r="CS165" s="5"/>
+      <c r="CT165" s="5"/>
+      <c r="CU165" s="5"/>
+      <c r="CV165" s="5"/>
+      <c r="CW165" s="5"/>
+      <c r="CX165" s="5"/>
+      <c r="CY165" s="5"/>
+      <c r="CZ165" s="5"/>
+      <c r="DA165" s="5"/>
+      <c r="DB165" s="5"/>
+      <c r="DC165" s="5"/>
+      <c r="DD165" s="5"/>
+      <c r="DE165" s="5"/>
+      <c r="DF165" s="5"/>
+      <c r="DG165" s="5"/>
+      <c r="DH165" s="5"/>
+      <c r="DI165" s="5"/>
+      <c r="DJ165" s="5"/>
+      <c r="DK165" s="5"/>
+      <c r="DL165" s="5"/>
+      <c r="DM165" s="5"/>
+      <c r="DN165" s="5"/>
+      <c r="DO165" s="5"/>
+      <c r="DP165" s="5"/>
+      <c r="DQ165" s="5"/>
+      <c r="DR165" s="5"/>
+      <c r="DS165" s="5"/>
+      <c r="DT165" s="5"/>
+      <c r="DU165" s="5"/>
+      <c r="DV165" s="5"/>
+      <c r="DW165" s="5"/>
+      <c r="DX165" s="5"/>
+      <c r="DY165" s="5"/>
+      <c r="DZ165" s="5"/>
+      <c r="EA165" s="5"/>
+      <c r="EB165" s="5"/>
+      <c r="EC165" s="5"/>
+      <c r="ED165" s="5"/>
+      <c r="EE165" s="5"/>
+      <c r="EF165" s="5"/>
+      <c r="EG165" s="5"/>
+      <c r="EH165" s="5"/>
+      <c r="EI165" s="5"/>
+      <c r="EJ165" s="5"/>
+      <c r="EK165" s="5"/>
+      <c r="EL165" s="5"/>
+      <c r="EM165" s="5"/>
+      <c r="EN165" s="5"/>
+      <c r="EO165" s="5"/>
+      <c r="EP165" s="5"/>
+      <c r="EQ165" s="5"/>
+      <c r="ER165" s="5"/>
+      <c r="ES165" s="5"/>
+      <c r="ET165" s="5"/>
+      <c r="EU165" s="5"/>
+      <c r="EV165" s="5"/>
+      <c r="EW165" s="5"/>
+      <c r="EX165" s="5"/>
+      <c r="EY165" s="5"/>
+      <c r="EZ165" s="5"/>
+      <c r="FA165" s="5"/>
+      <c r="FB165" s="5"/>
+      <c r="FC165" s="5"/>
+      <c r="FD165" s="5"/>
+      <c r="FE165" s="5"/>
+      <c r="FF165" s="5"/>
+      <c r="FG165" s="5"/>
+      <c r="FH165" s="5"/>
+      <c r="FI165" s="5"/>
+      <c r="FJ165" s="5"/>
+      <c r="FK165" s="5"/>
+      <c r="FL165" s="5"/>
+      <c r="FM165" s="5"/>
+      <c r="FN165" s="5"/>
+      <c r="FO165" s="5"/>
+      <c r="FP165" s="5"/>
+      <c r="FQ165" s="5"/>
+      <c r="FR165" s="5"/>
+      <c r="FS165" s="5"/>
+      <c r="FT165" s="5"/>
+      <c r="FU165" s="5"/>
+      <c r="FV165" s="5"/>
+      <c r="FW165" s="5"/>
+      <c r="FX165" s="5"/>
+      <c r="FY165" s="5"/>
+      <c r="FZ165" s="5"/>
+      <c r="GA165" s="5"/>
+      <c r="GB165" s="5"/>
+      <c r="GC165" s="5"/>
+      <c r="GD165" s="5"/>
+      <c r="GE165" s="5"/>
+      <c r="GF165" s="5"/>
+      <c r="GG165" s="5"/>
+      <c r="GH165" s="5"/>
+      <c r="GI165" s="5"/>
+      <c r="GJ165" s="5"/>
+      <c r="GK165" s="5"/>
+      <c r="GL165" s="5"/>
+      <c r="GM165" s="5"/>
+      <c r="GN165" s="5"/>
+      <c r="GO165" s="5"/>
+      <c r="GP165" s="5"/>
+      <c r="GQ165" s="5"/>
+      <c r="GR165" s="5"/>
+      <c r="GS165" s="5"/>
+      <c r="GT165" s="5"/>
+      <c r="GU165" s="5"/>
+      <c r="GV165" s="5"/>
+      <c r="GW165" s="5"/>
+      <c r="GX165" s="5"/>
+      <c r="GY165" s="5"/>
+      <c r="GZ165" s="5"/>
+      <c r="HA165" s="5"/>
+      <c r="HB165" s="5"/>
+      <c r="HC165" s="5"/>
+      <c r="HD165" s="5"/>
+      <c r="HE165" s="5"/>
+      <c r="HF165" s="5"/>
+      <c r="HG165" s="5"/>
+      <c r="HH165" s="5"/>
+      <c r="HI165" s="5"/>
+      <c r="HJ165" s="5"/>
+      <c r="HK165" s="5"/>
+      <c r="HL165" s="5"/>
+      <c r="HM165" s="5"/>
+      <c r="HN165" s="5"/>
+      <c r="HO165" s="5"/>
+      <c r="HP165" s="5"/>
+      <c r="HQ165" s="5"/>
+      <c r="HR165" s="5"/>
+      <c r="HS165" s="5"/>
+      <c r="HT165" s="5"/>
+      <c r="HU165" s="5"/>
+      <c r="HV165" s="5"/>
+      <c r="HW165" s="5"/>
+      <c r="HX165" s="5"/>
+      <c r="HY165" s="5"/>
+      <c r="HZ165" s="5"/>
+      <c r="IA165" s="5"/>
+      <c r="IB165" s="5"/>
+      <c r="IC165" s="5"/>
+      <c r="ID165" s="5"/>
+      <c r="IE165" s="5"/>
+      <c r="IF165" s="5"/>
+      <c r="IG165" s="5"/>
+      <c r="IH165" s="5"/>
+      <c r="II165" s="5"/>
+      <c r="IJ165" s="5"/>
+      <c r="IK165" s="5"/>
+      <c r="IL165" s="5"/>
+      <c r="IM165" s="5"/>
+      <c r="IN165" s="5"/>
+      <c r="IO165" s="5"/>
+      <c r="IP165" s="5"/>
+      <c r="IQ165" s="5"/>
+      <c r="IR165" s="5"/>
+      <c r="IS165" s="5"/>
+      <c r="IT165" s="5"/>
+    </row>
+    <row r="166" spans="1:254" s="2" customFormat="1">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="35"/>
+      <c r="H166" s="4"/>
     </row>
     <row r="167" spans="1:254">
       <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
+      <c r="B167" s="6"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -7660,7 +7720,7 @@
     </row>
     <row r="168" spans="1:254">
       <c r="A168" s="7"/>
-      <c r="B168" s="21"/>
+      <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -7670,7 +7730,7 @@
     </row>
     <row r="169" spans="1:254">
       <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
+      <c r="B169" s="21"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -7681,7 +7741,7 @@
     <row r="170" spans="1:254">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
-      <c r="C170" s="4"/>
+      <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
@@ -7721,7 +7781,7 @@
     <row r="174" spans="1:254">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
+      <c r="C174" s="4"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
@@ -7730,7 +7790,7 @@
     </row>
     <row r="175" spans="1:254">
       <c r="A175" s="7"/>
-      <c r="B175" s="23"/>
+      <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -7750,7 +7810,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="7"/>
-      <c r="B177" s="7"/>
+      <c r="B177" s="23"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -7760,7 +7820,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="7"/>
-      <c r="B178" s="21"/>
+      <c r="B178" s="7"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -7780,7 +7840,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="7"/>
+      <c r="B180" s="21"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -7800,7 +7860,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="21"/>
+      <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -7820,7 +7880,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7"/>
-      <c r="B184" s="7"/>
+      <c r="B184" s="21"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -7840,7 +7900,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="7"/>
-      <c r="B186" s="21"/>
+      <c r="B186" s="7"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -7860,7 +7920,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="7"/>
+      <c r="B188" s="21"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -7900,7 +7960,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="7"/>
-      <c r="B192" s="6"/>
+      <c r="B192" s="7"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -7910,8 +7970,8 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="7"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
@@ -7920,7 +7980,7 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="7"/>
-      <c r="B194" s="20"/>
+      <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -7990,7 +8050,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="4"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="4"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -8000,7 +8060,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="20"/>
+      <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -8010,7 +8070,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="22"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="4"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -8030,7 +8090,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="7"/>
-      <c r="B205" s="20"/>
+      <c r="B205" s="22"/>
       <c r="C205" s="4"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -8071,7 +8131,7 @@
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
       <c r="B209" s="20"/>
-      <c r="C209" s="7"/>
+      <c r="C209" s="4"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
@@ -8080,7 +8140,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="7"/>
-      <c r="B210" s="4"/>
+      <c r="B210" s="20"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -8100,7 +8160,7 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="7"/>
-      <c r="B212" s="20"/>
+      <c r="B212" s="4"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -8160,7 +8220,7 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="7"/>
-      <c r="B218" s="22"/>
+      <c r="B218" s="20"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -8200,7 +8260,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="4"/>
+      <c r="B222" s="22"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -8210,7 +8270,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="6"/>
+      <c r="B223" s="4"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -8220,7 +8280,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="4"/>
+      <c r="B224" s="6"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -8230,7 +8290,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="20"/>
+      <c r="B225" s="4"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -8280,7 +8340,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="22"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -8290,7 +8350,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="20"/>
+      <c r="B231" s="22"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -8340,7 +8400,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="7"/>
-      <c r="B236" s="22"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -8400,7 +8460,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="4"/>
+      <c r="B242" s="22"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -8410,7 +8470,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="6"/>
+      <c r="B243" s="4"/>
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -8420,8 +8480,8 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="4"/>
-      <c r="C244" s="4"/>
+      <c r="B244" s="6"/>
+      <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
@@ -8430,7 +8490,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="20"/>
+      <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -8440,7 +8500,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="4"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -8450,7 +8510,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="21"/>
+      <c r="B247" s="7"/>
       <c r="C247" s="4"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -8490,7 +8550,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="7"/>
+      <c r="B251" s="21"/>
       <c r="C251" s="4"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -8500,7 +8560,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="21"/>
+      <c r="B252" s="7"/>
       <c r="C252" s="4"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -8510,7 +8570,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="24"/>
+      <c r="B253" s="21"/>
       <c r="C253" s="4"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -8530,7 +8590,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="21"/>
+      <c r="B255" s="24"/>
       <c r="C255" s="4"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -8570,7 +8630,7 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="7"/>
-      <c r="B259" s="7"/>
+      <c r="B259" s="21"/>
       <c r="C259" s="4"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -8580,7 +8640,7 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="7"/>
-      <c r="B260" s="21"/>
+      <c r="B260" s="7"/>
       <c r="C260" s="4"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -8630,7 +8690,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="7"/>
+      <c r="B265" s="21"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -8640,8 +8700,8 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="21"/>
-      <c r="C266" s="7"/>
+      <c r="B266" s="7"/>
+      <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
       <c r="F266" s="7"/>
@@ -8650,7 +8710,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="7"/>
-      <c r="B267" s="7"/>
+      <c r="B267" s="21"/>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -8660,7 +8720,7 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="7"/>
-      <c r="B268" s="21"/>
+      <c r="B268" s="7"/>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -8670,7 +8730,7 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="7"/>
-      <c r="B269" s="24"/>
+      <c r="B269" s="21"/>
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -8720,8 +8780,8 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="21"/>
-      <c r="C274" s="4"/>
+      <c r="B274" s="24"/>
+      <c r="C274" s="7"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
@@ -8730,7 +8790,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="24"/>
+      <c r="B275" s="21"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -8740,7 +8800,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="25"/>
+      <c r="B276" s="24"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -8770,7 +8830,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="26"/>
+      <c r="B279" s="25"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -8780,7 +8840,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="7"/>
-      <c r="B280" s="24"/>
+      <c r="B280" s="26"/>
       <c r="C280" s="4"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -8820,7 +8880,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="25"/>
+      <c r="B284" s="24"/>
       <c r="C284" s="4"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -8850,7 +8910,7 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="7"/>
-      <c r="B287" s="24"/>
+      <c r="B287" s="25"/>
       <c r="C287" s="4"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -8860,7 +8920,7 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="7"/>
-      <c r="B288" s="25"/>
+      <c r="B288" s="24"/>
       <c r="C288" s="4"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -8868,15 +8928,15 @@
       <c r="G288" s="31"/>
       <c r="H288" s="7"/>
     </row>
-    <row r="289" spans="1:8" s="2" customFormat="1">
-      <c r="A289" s="4"/>
+    <row r="289" spans="1:8">
+      <c r="A289" s="7"/>
       <c r="B289" s="25"/>
       <c r="C289" s="4"/>
-      <c r="D289" s="4"/>
-      <c r="E289" s="4"/>
-      <c r="F289" s="4"/>
-      <c r="G289" s="35"/>
-      <c r="H289" s="4"/>
+      <c r="D289" s="7"/>
+      <c r="E289" s="7"/>
+      <c r="F289" s="7"/>
+      <c r="G289" s="31"/>
+      <c r="H289" s="7"/>
     </row>
     <row r="290" spans="1:8" s="2" customFormat="1">
       <c r="A290" s="4"/>
@@ -8888,19 +8948,19 @@
       <c r="G290" s="35"/>
       <c r="H290" s="4"/>
     </row>
-    <row r="291" spans="1:8">
-      <c r="A291" s="7"/>
+    <row r="291" spans="1:8" s="2" customFormat="1">
+      <c r="A291" s="4"/>
       <c r="B291" s="25"/>
       <c r="C291" s="4"/>
-      <c r="D291" s="7"/>
-      <c r="E291" s="7"/>
-      <c r="F291" s="7"/>
-      <c r="G291" s="31"/>
-      <c r="H291" s="7"/>
+      <c r="D291" s="4"/>
+      <c r="E291" s="4"/>
+      <c r="F291" s="4"/>
+      <c r="G291" s="35"/>
+      <c r="H291" s="4"/>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="24"/>
+      <c r="B292" s="25"/>
       <c r="C292" s="4"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -8910,7 +8970,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="25"/>
+      <c r="B293" s="24"/>
       <c r="C293" s="4"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
@@ -8940,7 +9000,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="23"/>
+      <c r="B296" s="25"/>
       <c r="C296" s="4"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -8950,7 +9010,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="7"/>
+      <c r="B297" s="23"/>
       <c r="C297" s="4"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -8970,7 +9030,7 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="7"/>
-      <c r="B299" s="21"/>
+      <c r="B299" s="7"/>
       <c r="C299" s="4"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
@@ -8990,7 +9050,7 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="7"/>
-      <c r="B301" s="7"/>
+      <c r="B301" s="21"/>
       <c r="C301" s="4"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
@@ -9021,7 +9081,7 @@
     <row r="304" spans="1:8">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
-      <c r="C304" s="7"/>
+      <c r="C304" s="4"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
       <c r="F304" s="7"/>
@@ -9030,7 +9090,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="6"/>
+      <c r="B305" s="7"/>
       <c r="C305" s="7"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -9040,7 +9100,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="7"/>
+      <c r="B306" s="6"/>
       <c r="C306" s="7"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
@@ -9120,7 +9180,7 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="7"/>
-      <c r="B314" s="6"/>
+      <c r="B314" s="7"/>
       <c r="C314" s="7"/>
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
@@ -9130,8 +9190,8 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="7"/>
-      <c r="B315" s="4"/>
-      <c r="C315" s="4"/>
+      <c r="B315" s="6"/>
+      <c r="C315" s="7"/>
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
@@ -9140,7 +9200,7 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="7"/>
-      <c r="B316" s="20"/>
+      <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="7"/>
       <c r="E316" s="7"/>
@@ -9170,7 +9230,7 @@
     </row>
     <row r="319" spans="1:8">
       <c r="A319" s="7"/>
-      <c r="B319" s="4"/>
+      <c r="B319" s="20"/>
       <c r="C319" s="4"/>
       <c r="D319" s="7"/>
       <c r="E319" s="7"/>
@@ -9230,7 +9290,7 @@
     </row>
     <row r="325" spans="1:8">
       <c r="A325" s="7"/>
-      <c r="B325" s="20"/>
+      <c r="B325" s="4"/>
       <c r="C325" s="4"/>
       <c r="D325" s="7"/>
       <c r="E325" s="7"/>
@@ -9250,7 +9310,7 @@
     </row>
     <row r="327" spans="1:8">
       <c r="A327" s="7"/>
-      <c r="B327" s="22"/>
+      <c r="B327" s="20"/>
       <c r="C327" s="4"/>
       <c r="D327" s="7"/>
       <c r="E327" s="7"/>
@@ -9260,8 +9320,8 @@
     </row>
     <row r="328" spans="1:8">
       <c r="A328" s="7"/>
-      <c r="B328" s="7"/>
-      <c r="C328" s="7"/>
+      <c r="B328" s="22"/>
+      <c r="C328" s="4"/>
       <c r="D328" s="7"/>
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
@@ -9270,7 +9330,7 @@
     </row>
     <row r="329" spans="1:8">
       <c r="A329" s="7"/>
-      <c r="B329" s="6"/>
+      <c r="B329" s="7"/>
       <c r="C329" s="7"/>
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
@@ -9278,15 +9338,15 @@
       <c r="G329" s="31"/>
       <c r="H329" s="7"/>
     </row>
-    <row r="330" spans="1:8" s="2" customFormat="1">
-      <c r="A330" s="4"/>
-      <c r="B330" s="4"/>
-      <c r="C330" s="9"/>
-      <c r="D330" s="4"/>
-      <c r="E330" s="4"/>
-      <c r="F330" s="4"/>
-      <c r="G330" s="35"/>
-      <c r="H330" s="4"/>
+    <row r="330" spans="1:8">
+      <c r="A330" s="7"/>
+      <c r="B330" s="6"/>
+      <c r="C330" s="7"/>
+      <c r="D330" s="7"/>
+      <c r="E330" s="7"/>
+      <c r="F330" s="7"/>
+      <c r="G330" s="31"/>
+      <c r="H330" s="7"/>
     </row>
     <row r="331" spans="1:8" s="2" customFormat="1">
       <c r="A331" s="4"/>
@@ -9310,7 +9370,7 @@
     </row>
     <row r="333" spans="1:8" s="2" customFormat="1">
       <c r="A333" s="4"/>
-      <c r="B333" s="20"/>
+      <c r="B333" s="4"/>
       <c r="C333" s="9"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -9360,8 +9420,8 @@
     </row>
     <row r="338" spans="1:8" s="2" customFormat="1">
       <c r="A338" s="4"/>
-      <c r="B338" s="27"/>
-      <c r="C338" s="4"/>
+      <c r="B338" s="20"/>
+      <c r="C338" s="9"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
@@ -9410,7 +9470,7 @@
     </row>
     <row r="343" spans="1:8" s="2" customFormat="1">
       <c r="A343" s="4"/>
-      <c r="B343" s="22"/>
+      <c r="B343" s="27"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -9460,7 +9520,7 @@
     </row>
     <row r="348" spans="1:8" s="2" customFormat="1">
       <c r="A348" s="4"/>
-      <c r="B348" s="20"/>
+      <c r="B348" s="22"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -9470,7 +9530,7 @@
     </row>
     <row r="349" spans="1:8" s="2" customFormat="1">
       <c r="A349" s="4"/>
-      <c r="B349" s="22"/>
+      <c r="B349" s="20"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -9480,7 +9540,7 @@
     </row>
     <row r="350" spans="1:8" s="2" customFormat="1">
       <c r="A350" s="4"/>
-      <c r="B350" s="4"/>
+      <c r="B350" s="22"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
@@ -9488,20 +9548,20 @@
       <c r="G350" s="35"/>
       <c r="H350" s="4"/>
     </row>
-    <row r="351" spans="1:8">
-      <c r="A351" s="7"/>
-      <c r="B351" s="6"/>
-      <c r="C351" s="7"/>
-      <c r="D351" s="7"/>
-      <c r="E351" s="7"/>
-      <c r="F351" s="7"/>
-      <c r="G351" s="31"/>
-      <c r="H351" s="7"/>
+    <row r="351" spans="1:8" s="2" customFormat="1">
+      <c r="A351" s="4"/>
+      <c r="B351" s="4"/>
+      <c r="C351" s="4"/>
+      <c r="D351" s="4"/>
+      <c r="E351" s="4"/>
+      <c r="F351" s="4"/>
+      <c r="G351" s="35"/>
+      <c r="H351" s="4"/>
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="7"/>
-      <c r="C352" s="4"/>
+      <c r="B352" s="6"/>
+      <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
@@ -9570,7 +9630,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="4"/>
+      <c r="B359" s="7"/>
       <c r="C359" s="4"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -9581,7 +9641,7 @@
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
       <c r="B360" s="4"/>
-      <c r="C360" s="7"/>
+      <c r="C360" s="4"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
@@ -9590,7 +9650,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="6"/>
+      <c r="B361" s="4"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -9600,7 +9660,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="7"/>
+      <c r="B362" s="6"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -9610,7 +9670,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="23"/>
+      <c r="B363" s="7"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -9620,7 +9680,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="7"/>
+      <c r="B364" s="23"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -9660,7 +9720,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="6"/>
+      <c r="B368" s="7"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -9670,7 +9730,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="7"/>
+      <c r="B369" s="6"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -9680,7 +9740,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="21"/>
+      <c r="B370" s="7"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -9710,7 +9770,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="23"/>
+      <c r="B373" s="21"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -9720,7 +9780,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="21"/>
+      <c r="B374" s="23"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -9740,7 +9800,7 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="23"/>
+      <c r="B376" s="21"/>
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
@@ -9750,7 +9810,7 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="7"/>
-      <c r="B377" s="21"/>
+      <c r="B377" s="23"/>
       <c r="C377" s="7"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
@@ -9760,7 +9820,7 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="7"/>
-      <c r="B378" s="23"/>
+      <c r="B378" s="21"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
@@ -9770,7 +9830,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="21"/>
+      <c r="B379" s="23"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -9800,7 +9860,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
-      <c r="B382" s="7"/>
+      <c r="B382" s="21"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
@@ -9810,7 +9870,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="28"/>
+      <c r="B383" s="7"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -9820,7 +9880,7 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="23"/>
+      <c r="B384" s="28"/>
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -9830,8 +9890,8 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="7"/>
-      <c r="C385" s="4"/>
+      <c r="B385" s="23"/>
+      <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
@@ -9840,7 +9900,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="21"/>
+      <c r="B386" s="7"/>
       <c r="C386" s="4"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -9870,7 +9930,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
-      <c r="B389" s="7"/>
+      <c r="B389" s="21"/>
       <c r="C389" s="4"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
@@ -9900,7 +9960,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="21"/>
+      <c r="B392" s="7"/>
       <c r="C392" s="4"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -9920,8 +9980,8 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="7"/>
-      <c r="C394" s="7"/>
+      <c r="B394" s="21"/>
+      <c r="C394" s="4"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
       <c r="F394" s="7"/>
@@ -9930,7 +9990,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="6"/>
+      <c r="B395" s="7"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -9940,7 +10000,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="7"/>
+      <c r="B396" s="6"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -10000,7 +10060,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="6"/>
+      <c r="B402" s="7"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -10010,7 +10070,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="7"/>
+      <c r="B403" s="6"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -10031,7 +10091,7 @@
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
-      <c r="C405" s="4"/>
+      <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
       <c r="F405" s="7"/>
@@ -10040,7 +10100,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="21"/>
+      <c r="B406" s="7"/>
       <c r="C406" s="4"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -10051,7 +10111,7 @@
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
       <c r="B407" s="21"/>
-      <c r="C407" s="7"/>
+      <c r="C407" s="4"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
       <c r="F407" s="7"/>
@@ -10060,7 +10120,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="28"/>
+      <c r="B408" s="21"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -10070,7 +10130,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="23"/>
+      <c r="B409" s="28"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -10120,7 +10180,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="23"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -10130,7 +10190,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="6"/>
+      <c r="B415" s="7"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -10140,7 +10200,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="6"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -10150,7 +10210,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="21"/>
+      <c r="B417" s="7"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -10160,7 +10220,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="23"/>
+      <c r="B418" s="21"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -10180,7 +10240,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="21"/>
+      <c r="B420" s="23"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -10220,7 +10280,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="7"/>
+      <c r="B424" s="21"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -10230,7 +10290,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="7"/>
-      <c r="B425" s="21"/>
+      <c r="B425" s="7"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -10250,7 +10310,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="7"/>
-      <c r="B427" s="23"/>
+      <c r="B427" s="21"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -10260,7 +10320,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="7"/>
+      <c r="B428" s="23"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -10270,7 +10330,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="6"/>
+      <c r="B429" s="7"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -10280,7 +10340,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="7"/>
+      <c r="B430" s="6"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -10300,7 +10360,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="6"/>
+      <c r="B432" s="7"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -10310,7 +10370,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="7"/>
+      <c r="B433" s="6"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -10320,7 +10380,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="21"/>
+      <c r="B434" s="7"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -10340,7 +10400,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="7"/>
+      <c r="B436" s="21"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -10350,7 +10410,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="6"/>
+      <c r="B437" s="7"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -10360,7 +10420,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="7"/>
+      <c r="B438" s="6"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -10410,7 +10470,7 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
-      <c r="B443" s="6"/>
+      <c r="B443" s="7"/>
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -10420,7 +10480,7 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="7"/>
+      <c r="B444" s="6"/>
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
@@ -10480,7 +10540,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="6"/>
+      <c r="B450" s="7"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -10490,7 +10550,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="7"/>
+      <c r="B451" s="6"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -10510,7 +10570,7 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
-      <c r="B453" s="6"/>
+      <c r="B453" s="7"/>
       <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
@@ -10520,7 +10580,7 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" s="7"/>
-      <c r="B454" s="4"/>
+      <c r="B454" s="6"/>
       <c r="C454" s="7"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
@@ -10540,7 +10600,7 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="7"/>
-      <c r="B456" s="7"/>
+      <c r="B456" s="4"/>
       <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
@@ -10570,7 +10630,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="6"/>
+      <c r="B459" s="7"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -10580,8 +10640,8 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="7"/>
-      <c r="B460" s="7"/>
-      <c r="C460" s="4"/>
+      <c r="B460" s="6"/>
+      <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
       <c r="F460" s="7"/>
@@ -10631,7 +10691,7 @@
     <row r="465" spans="1:8">
       <c r="A465" s="7"/>
       <c r="B465" s="7"/>
-      <c r="C465" s="7"/>
+      <c r="C465" s="4"/>
       <c r="D465" s="7"/>
       <c r="E465" s="7"/>
       <c r="F465" s="7"/>
@@ -10640,7 +10700,7 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="7"/>
-      <c r="B466" s="6"/>
+      <c r="B466" s="7"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
@@ -10650,8 +10710,8 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="7"/>
-      <c r="B467" s="7"/>
-      <c r="C467" s="4"/>
+      <c r="B467" s="6"/>
+      <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
       <c r="F467" s="7"/>
@@ -10691,7 +10751,7 @@
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
       <c r="B471" s="7"/>
-      <c r="C471" s="7"/>
+      <c r="C471" s="4"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
       <c r="F471" s="7"/>
@@ -10700,7 +10760,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="6"/>
+      <c r="B472" s="7"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -10710,7 +10770,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="23"/>
+      <c r="B473" s="6"/>
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
@@ -10770,7 +10830,7 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="7"/>
-      <c r="B479" s="7"/>
+      <c r="B479" s="23"/>
       <c r="C479" s="7"/>
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
@@ -10780,7 +10840,7 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="7"/>
-      <c r="B480" s="6"/>
+      <c r="B480" s="7"/>
       <c r="C480" s="7"/>
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
@@ -10790,7 +10850,7 @@
     </row>
     <row r="481" spans="1:8">
       <c r="A481" s="7"/>
-      <c r="B481" s="23"/>
+      <c r="B481" s="6"/>
       <c r="C481" s="7"/>
       <c r="D481" s="7"/>
       <c r="E481" s="7"/>
@@ -10819,8 +10879,8 @@
       <c r="H483" s="7"/>
     </row>
     <row r="484" spans="1:8">
-      <c r="A484" s="6"/>
-      <c r="B484" s="7"/>
+      <c r="A484" s="7"/>
+      <c r="B484" s="23"/>
       <c r="C484" s="7"/>
       <c r="D484" s="7"/>
       <c r="E484" s="7"/>
@@ -10829,7 +10889,7 @@
       <c r="H484" s="7"/>
     </row>
     <row r="485" spans="1:8">
-      <c r="A485" s="7"/>
+      <c r="A485" s="6"/>
       <c r="B485" s="7"/>
       <c r="C485" s="7"/>
       <c r="D485" s="7"/>
@@ -10870,7 +10930,7 @@
     </row>
     <row r="489" spans="1:8">
       <c r="A489" s="7"/>
-      <c r="B489" s="29"/>
+      <c r="B489" s="7"/>
       <c r="C489" s="7"/>
       <c r="D489" s="7"/>
       <c r="E489" s="7"/>
@@ -10900,7 +10960,7 @@
     </row>
     <row r="492" spans="1:8">
       <c r="A492" s="7"/>
-      <c r="B492" s="7"/>
+      <c r="B492" s="29"/>
       <c r="C492" s="7"/>
       <c r="D492" s="7"/>
       <c r="E492" s="7"/>
@@ -10910,7 +10970,7 @@
     </row>
     <row r="493" spans="1:8">
       <c r="A493" s="7"/>
-      <c r="B493" s="29"/>
+      <c r="B493" s="7"/>
       <c r="C493" s="7"/>
       <c r="D493" s="7"/>
       <c r="E493" s="7"/>
@@ -10920,7 +10980,7 @@
     </row>
     <row r="494" spans="1:8">
       <c r="A494" s="7"/>
-      <c r="B494" s="7"/>
+      <c r="B494" s="29"/>
       <c r="C494" s="7"/>
       <c r="D494" s="7"/>
       <c r="E494" s="7"/>
@@ -10930,21 +10990,21 @@
     </row>
     <row r="495" spans="1:8">
       <c r="A495" s="7"/>
-      <c r="B495" s="30"/>
-      <c r="C495" s="31"/>
+      <c r="B495" s="7"/>
+      <c r="C495" s="7"/>
       <c r="D495" s="7"/>
       <c r="E495" s="7"/>
-      <c r="F495" s="30"/>
+      <c r="F495" s="7"/>
       <c r="G495" s="31"/>
       <c r="H495" s="7"/>
     </row>
     <row r="496" spans="1:8">
       <c r="A496" s="7"/>
-      <c r="B496" s="7"/>
-      <c r="C496" s="7"/>
+      <c r="B496" s="30"/>
+      <c r="C496" s="31"/>
       <c r="D496" s="7"/>
       <c r="E496" s="7"/>
-      <c r="F496" s="7"/>
+      <c r="F496" s="30"/>
       <c r="G496" s="31"/>
       <c r="H496" s="7"/>
     </row>
@@ -14848,6 +14908,16 @@
       <c r="G886" s="31"/>
       <c r="H886" s="7"/>
     </row>
+    <row r="887" spans="1:8">
+      <c r="A887" s="7"/>
+      <c r="B887" s="7"/>
+      <c r="C887" s="7"/>
+      <c r="D887" s="7"/>
+      <c r="E887" s="7"/>
+      <c r="F887" s="7"/>
+      <c r="G887" s="31"/>
+      <c r="H887" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -656,10 +656,10 @@
     <t>data v4</t>
   </si>
   <si>
-    <t>2022.0123.1530</t>
-  </si>
-  <si>
     <t>2022.0120.2200</t>
+  </si>
+  <si>
+    <t>2022.0124.1555</t>
   </si>
 </sst>
 </file>
@@ -908,8 +908,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954958"/>
-          <c:h val="0.89627228525119973"/>
+          <c:w val="0.9197807133095498"/>
+          <c:h val="0.89627228525119962"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -1021,7 +1021,7 @@
                   <c:v>44581</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44584</c:v>
+                  <c:v>44585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1221,7 +1221,7 @@
                   <c:v>44581</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44584</c:v>
+                  <c:v>44585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,7 +1421,7 @@
                   <c:v>44581</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44584</c:v>
+                  <c:v>44585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,7 +1621,7 @@
                   <c:v>44581</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44584</c:v>
+                  <c:v>44585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1720,11 +1720,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="184541184"/>
-        <c:axId val="184542720"/>
+        <c:axId val="179691520"/>
+        <c:axId val="179693056"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="184541184"/>
+        <c:axId val="179691520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,7 +1757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184542720"/>
+        <c:crossAx val="179693056"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1765,7 +1765,7 @@
         <c:majorTimeUnit val="years"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="184542720"/>
+        <c:axId val="179693056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,7 +1807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184541184"/>
+        <c:crossAx val="179691520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1897,7 +1897,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001199" r="0.75000000000001199" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1951,7 +1951,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127324E-2"/>
+          <c:x val="4.4510450248127331E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -2066,7 +2066,7 @@
                   <c:v>44581</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44584</c:v>
+                  <c:v>44585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2159,11 +2159,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="184312576"/>
-        <c:axId val="184314112"/>
+        <c:axId val="179524352"/>
+        <c:axId val="179525888"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="184312576"/>
+        <c:axId val="179524352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,13 +2171,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="184314112"/>
+        <c:crossAx val="179525888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="184314112"/>
+        <c:axId val="179525888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2220,7 +2220,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184312576"/>
+        <c:crossAx val="179524352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2269,7 +2269,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001199" r="0.75000000000001199" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2400,7 +2400,7 @@
                   <c:v>44581</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44584</c:v>
+                  <c:v>44585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2600,7 +2600,7 @@
                   <c:v>44581</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44584</c:v>
+                  <c:v>44585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2693,11 +2693,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="184351360"/>
-        <c:axId val="184947072"/>
+        <c:axId val="179563136"/>
+        <c:axId val="179704192"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="184351360"/>
+        <c:axId val="179563136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2730,7 +2730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184947072"/>
+        <c:crossAx val="179704192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2741,7 +2741,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="184947072"/>
+        <c:axId val="179704192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2783,7 +2783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184351360"/>
+        <c:crossAx val="179563136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2832,7 +2832,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001199" r="0.75000000000001199" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3292,7 +3292,7 @@
   </sheetPr>
   <dimension ref="A1:D277"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
+    <sheetView topLeftCell="A184" workbookViewId="0">
       <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
@@ -5617,7 +5617,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A52" activePane="bottomLeft"/>
       <selection activeCell="E47" sqref="E46:E47"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999"/>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G72" s="31">
         <f t="shared" ref="G72" si="15">B72/SUM(B72:E72)</f>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="12">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B73" s="4">
         <v>210</v>
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G73" s="31">
         <f t="shared" si="0"/>
